--- a/PythonResources/Data/Consumption/Sympheny/futu_1690_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1690_coo.xlsx
@@ -527,7 +527,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.2559401103471075</v>
+        <v>0.2559401103471074</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -567,7 +567,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.1211133651530329</v>
+        <v>0.1211133651530328</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -719,7 +719,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.4440846834627633</v>
+        <v>0.4440846834627632</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -831,7 +831,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.7953889375061179</v>
+        <v>0.7953889375061178</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -847,7 +847,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.414601736973432</v>
+        <v>0.4146017369734319</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>0.3017605949576542</v>
+        <v>0.3017605949576541</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>0.824039562245651</v>
+        <v>0.8240395622456509</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>0.1764642268698079</v>
+        <v>0.1764642268698078</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>0.5043254354596028</v>
+        <v>0.5043254354596027</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>0.4487591665294118</v>
+        <v>0.4487591665294117</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2055,7 +2055,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>0.4159938244070734</v>
+        <v>0.4159938244070733</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2175,7 +2175,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>1.163714757474924</v>
+        <v>1.163714757474923</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>0.6460868275704822</v>
+        <v>0.6460868275704821</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2631,7 +2631,7 @@
         <v>286</v>
       </c>
       <c r="B286">
-        <v>0.8125951381859255</v>
+        <v>0.8125951381859254</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2703,7 +2703,7 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>0.3192891737799893</v>
+        <v>0.3192891737799892</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2767,7 +2767,7 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>3.450442566575483</v>
+        <v>3.450442566575482</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2831,7 +2831,7 @@
         <v>311</v>
       </c>
       <c r="B311">
-        <v>0.8324184632409789</v>
+        <v>0.8324184632409788</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2839,7 +2839,7 @@
         <v>312</v>
       </c>
       <c r="B312">
-        <v>0.5165259827990747</v>
+        <v>0.5165259827990746</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -3023,7 +3023,7 @@
         <v>335</v>
       </c>
       <c r="B335">
-        <v>0.6962517972581447</v>
+        <v>0.6962517972581446</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>346</v>
       </c>
       <c r="B346">
-        <v>0.2964911776825232</v>
+        <v>0.2964911776825231</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3143,7 +3143,7 @@
         <v>350</v>
       </c>
       <c r="B350">
-        <v>4.853197786024146</v>
+        <v>4.853197786024145</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>367</v>
       </c>
       <c r="B367">
-        <v>0.3484116428917671</v>
+        <v>0.348411642891767</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>371</v>
       </c>
       <c r="B371">
-        <v>0.8493667614067645</v>
+        <v>0.8493667614067644</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>376</v>
       </c>
       <c r="B376">
-        <v>2.619794252408019</v>
+        <v>2.619794252408018</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>399</v>
       </c>
       <c r="B399">
-        <v>0.770451522826424</v>
+        <v>0.7704515228264239</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>407</v>
       </c>
       <c r="B407">
-        <v>0.4861286546691199</v>
+        <v>0.4861286546691198</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>431</v>
       </c>
       <c r="B431">
-        <v>0.3510346286877862</v>
+        <v>0.3510346286877861</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>458</v>
       </c>
       <c r="B458">
-        <v>0.1410178708857955</v>
+        <v>0.1410178708857954</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>468</v>
       </c>
       <c r="B468">
-        <v>0.1493199872689941</v>
+        <v>0.149319987268994</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>496</v>
       </c>
       <c r="B496">
-        <v>0.7890322266775533</v>
+        <v>0.7890322266775532</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4535,7 +4535,7 @@
         <v>524</v>
       </c>
       <c r="B524">
-        <v>0.2579227359236515</v>
+        <v>0.2579227359236514</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4567,7 +4567,7 @@
         <v>528</v>
       </c>
       <c r="B528">
-        <v>0.3355077250595081</v>
+        <v>0.335507725059508</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>573</v>
       </c>
       <c r="B573">
-        <v>0.6422153591497658</v>
+        <v>0.6422153591497657</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -5063,7 +5063,7 @@
         <v>590</v>
       </c>
       <c r="B590">
-        <v>0.3655504372326826</v>
+        <v>0.3655504372326825</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5143,7 +5143,7 @@
         <v>600</v>
       </c>
       <c r="B600">
-        <v>0.5761014635381529</v>
+        <v>0.5761014635381528</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5199,7 +5199,7 @@
         <v>607</v>
       </c>
       <c r="B607">
-        <v>0.3551288310978852</v>
+        <v>0.3551288310978851</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>616</v>
       </c>
       <c r="B616">
-        <v>0.7565687477250361</v>
+        <v>0.756568747725036</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>618</v>
       </c>
       <c r="B618">
-        <v>0.3011510071972386</v>
+        <v>0.3011510071972385</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>659</v>
       </c>
       <c r="B659">
-        <v>0.2779025609133501</v>
+        <v>0.27790256091335</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5623,7 +5623,7 @@
         <v>660</v>
       </c>
       <c r="B660">
-        <v>1.011965504366466</v>
+        <v>1.011965504366465</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>670</v>
       </c>
       <c r="B670">
-        <v>0.4056923773981271</v>
+        <v>0.405692377398127</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -6023,7 +6023,7 @@
         <v>710</v>
       </c>
       <c r="B710">
-        <v>0.596253028156507</v>
+        <v>0.5962530281565069</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>716</v>
       </c>
       <c r="B716">
-        <v>3.414805128274263</v>
+        <v>3.414805128274262</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6239,7 +6239,7 @@
         <v>737</v>
       </c>
       <c r="B737">
-        <v>1.839416413502135</v>
+        <v>1.839416413502134</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6247,7 +6247,7 @@
         <v>738</v>
       </c>
       <c r="B738">
-        <v>1.100601909299203</v>
+        <v>1.100601909299202</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6479,7 +6479,7 @@
         <v>767</v>
       </c>
       <c r="B767">
-        <v>0.8452637668655056</v>
+        <v>0.8452637668655055</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6495,7 +6495,7 @@
         <v>769</v>
       </c>
       <c r="B769">
-        <v>0.4281767874842255</v>
+        <v>0.4281767874842254</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6855,7 +6855,7 @@
         <v>814</v>
       </c>
       <c r="B814">
-        <v>0.4443953387637443</v>
+        <v>0.4443953387637442</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -7063,7 +7063,7 @@
         <v>840</v>
       </c>
       <c r="B840">
-        <v>0.3763120057723272</v>
+        <v>0.3763120057723271</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7111,7 +7111,7 @@
         <v>846</v>
       </c>
       <c r="B846">
-        <v>0.2701886381047448</v>
+        <v>0.2701886381047447</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7255,7 +7255,7 @@
         <v>864</v>
       </c>
       <c r="B864">
-        <v>0.8782489122668401</v>
+        <v>0.87824891226684</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7303,7 +7303,7 @@
         <v>870</v>
       </c>
       <c r="B870">
-        <v>0.5117225484754152</v>
+        <v>0.5117225484754151</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -7311,7 +7311,7 @@
         <v>871</v>
       </c>
       <c r="B871">
-        <v>0.4653880172630565</v>
+        <v>0.4653880172630564</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>874</v>
       </c>
       <c r="B874">
-        <v>0.0909607513403604</v>
+        <v>0.0909607513403603</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7359,7 +7359,7 @@
         <v>877</v>
       </c>
       <c r="B877">
-        <v>4.158326353358096</v>
+        <v>4.158326353358095</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7615,7 +7615,7 @@
         <v>909</v>
       </c>
       <c r="B909">
-        <v>0.6308207571666127</v>
+        <v>0.6308207571666126</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7623,7 +7623,7 @@
         <v>910</v>
       </c>
       <c r="B910">
-        <v>0.6723928840007246</v>
+        <v>0.6723928840007245</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7695,7 +7695,7 @@
         <v>919</v>
       </c>
       <c r="B919">
-        <v>0.2095176578231504</v>
+        <v>0.2095176578231503</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7815,7 +7815,7 @@
         <v>934</v>
       </c>
       <c r="B934">
-        <v>0.6246135125677654</v>
+        <v>0.6246135125677653</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -8039,7 +8039,7 @@
         <v>962</v>
       </c>
       <c r="B962">
-        <v>0.1982109771515957</v>
+        <v>0.1982109771515956</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8335,7 +8335,7 @@
         <v>999</v>
       </c>
       <c r="B999">
-        <v>0.3283186924811453</v>
+        <v>0.3283186924811452</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8471,7 +8471,7 @@
         <v>1016</v>
       </c>
       <c r="B1016">
-        <v>0.06787349412773561</v>
+        <v>0.0678734941277355</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -8647,7 +8647,7 @@
         <v>1038</v>
       </c>
       <c r="B1038">
-        <v>0.2304106921693177</v>
+        <v>0.2304106921693176</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -8727,7 +8727,7 @@
         <v>1048</v>
       </c>
       <c r="B1048">
-        <v>2.17104094729938</v>
+        <v>2.171040947299379</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8751,7 +8751,7 @@
         <v>1051</v>
       </c>
       <c r="B1051">
-        <v>3.5725359612818</v>
+        <v>3.572535961281799</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8839,7 +8839,7 @@
         <v>1062</v>
       </c>
       <c r="B1062">
-        <v>0.3210622535638904</v>
+        <v>0.3210622535638903</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
@@ -8911,7 +8911,7 @@
         <v>1071</v>
       </c>
       <c r="B1071">
-        <v>1.732049838488551</v>
+        <v>1.73204983848855</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -8999,7 +8999,7 @@
         <v>1082</v>
       </c>
       <c r="B1082">
-        <v>0.4240620701014202</v>
+        <v>0.4240620701014201</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9023,7 +9023,7 @@
         <v>1085</v>
       </c>
       <c r="B1085">
-        <v>0.2584678480555616</v>
+        <v>0.2584678480555615</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9039,7 +9039,7 @@
         <v>1087</v>
       </c>
       <c r="B1087">
-        <v>0.2578233848415453</v>
+        <v>0.2578233848415452</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -9095,7 +9095,7 @@
         <v>1094</v>
       </c>
       <c r="B1094">
-        <v>0.1580224386910041</v>
+        <v>0.158022438691004</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9535,7 +9535,7 @@
         <v>1149</v>
       </c>
       <c r="B1149">
-        <v>0.6573993696628101</v>
+        <v>0.65739936966281</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
@@ -9543,7 +9543,7 @@
         <v>1150</v>
       </c>
       <c r="B1150">
-        <v>0.7610117046711421</v>
+        <v>0.761011704671142</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
@@ -9631,7 +9631,7 @@
         <v>1161</v>
       </c>
       <c r="B1161">
-        <v>0.1899317203094127</v>
+        <v>0.1899317203094126</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
@@ -9671,7 +9671,7 @@
         <v>1166</v>
       </c>
       <c r="B1166">
-        <v>5.289815019421818</v>
+        <v>5.289815019421817</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
@@ -9751,7 +9751,7 @@
         <v>1176</v>
       </c>
       <c r="B1176">
-        <v>0.8156284234360704</v>
+        <v>0.8156284234360703</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
@@ -9791,7 +9791,7 @@
         <v>1181</v>
       </c>
       <c r="B1181">
-        <v>0.3220030115979933</v>
+        <v>0.3220030115979932</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
@@ -9935,7 +9935,7 @@
         <v>1199</v>
       </c>
       <c r="B1199">
-        <v>0.6443870155462463</v>
+        <v>0.6443870155462462</v>
       </c>
     </row>
     <row r="1200" spans="1:2">
@@ -9959,7 +9959,7 @@
         <v>1202</v>
       </c>
       <c r="B1202">
-        <v>0.4019088302890091</v>
+        <v>0.401908830289009</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
@@ -9975,7 +9975,7 @@
         <v>1204</v>
       </c>
       <c r="B1204">
-        <v>0.3097204043676963</v>
+        <v>0.3097204043676962</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
@@ -10303,7 +10303,7 @@
         <v>1245</v>
       </c>
       <c r="B1245">
-        <v>0.6496183335863515</v>
+        <v>0.6496183335863513</v>
       </c>
     </row>
     <row r="1246" spans="1:2">
@@ -10335,7 +10335,7 @@
         <v>1249</v>
       </c>
       <c r="B1249">
-        <v>0.3325945989352143</v>
+        <v>0.3325945989352142</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
@@ -10391,7 +10391,7 @@
         <v>1256</v>
       </c>
       <c r="B1256">
-        <v>0.1592301844413275</v>
+        <v>0.1592301844413274</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
@@ -10575,7 +10575,7 @@
         <v>1279</v>
       </c>
       <c r="B1279">
-        <v>0.253197258496276</v>
+        <v>0.2531972584962759</v>
       </c>
     </row>
     <row r="1280" spans="1:2">
@@ -10775,7 +10775,7 @@
         <v>1304</v>
       </c>
       <c r="B1304">
-        <v>0.1494322334768014</v>
+        <v>0.1494322334768013</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
@@ -10823,7 +10823,7 @@
         <v>1310</v>
       </c>
       <c r="B1310">
-        <v>4.613289833775969</v>
+        <v>4.613289833775968</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
@@ -10863,7 +10863,7 @@
         <v>1315</v>
       </c>
       <c r="B1315">
-        <v>14.39901973598989</v>
+        <v>14.39901973598988</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
@@ -10887,7 +10887,7 @@
         <v>1318</v>
       </c>
       <c r="B1318">
-        <v>3.1025379365806</v>
+        <v>3.102537936580599</v>
       </c>
     </row>
     <row r="1319" spans="1:2">
@@ -10999,7 +10999,7 @@
         <v>1332</v>
       </c>
       <c r="B1332">
-        <v>3.127273132243618</v>
+        <v>3.127273132243617</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
@@ -11039,7 +11039,7 @@
         <v>1337</v>
       </c>
       <c r="B1337">
-        <v>5.025347714133821</v>
+        <v>5.02534771413382</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
@@ -11159,7 +11159,7 @@
         <v>1352</v>
       </c>
       <c r="B1352">
-        <v>0.3730178872977737</v>
+        <v>0.3730178872977736</v>
       </c>
     </row>
     <row r="1353" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>1359</v>
       </c>
       <c r="B1359">
-        <v>1.712126869280353</v>
+        <v>1.712126869280352</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -11295,7 +11295,7 @@
         <v>1369</v>
       </c>
       <c r="B1369">
-        <v>0.8308681174464604</v>
+        <v>0.8308681174464603</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
@@ -11383,7 +11383,7 @@
         <v>1380</v>
       </c>
       <c r="B1380">
-        <v>0.7734027481857438</v>
+        <v>0.7734027481857437</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
@@ -11463,7 +11463,7 @@
         <v>1390</v>
       </c>
       <c r="B1390">
-        <v>8.169355202685001</v>
+        <v>8.169355202684999</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
@@ -11575,7 +11575,7 @@
         <v>1404</v>
       </c>
       <c r="B1404">
-        <v>0.7471054838866613</v>
+        <v>0.7471054838866612</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
@@ -11583,7 +11583,7 @@
         <v>1405</v>
       </c>
       <c r="B1405">
-        <v>1.384124693520962</v>
+        <v>1.384124693520961</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
@@ -11679,7 +11679,7 @@
         <v>1417</v>
       </c>
       <c r="B1417">
-        <v>0.6460604511770026</v>
+        <v>0.6460604511770025</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
@@ -11711,7 +11711,7 @@
         <v>1421</v>
       </c>
       <c r="B1421">
-        <v>0.1106316794553099</v>
+        <v>0.1106316794553098</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
@@ -11911,7 +11911,7 @@
         <v>1446</v>
       </c>
       <c r="B1446">
-        <v>0.1357645725177909</v>
+        <v>0.1357645725177908</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
@@ -12047,7 +12047,7 @@
         <v>1463</v>
       </c>
       <c r="B1463">
-        <v>0.5121914621372734</v>
+        <v>0.5121914621372733</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
@@ -12055,7 +12055,7 @@
         <v>1464</v>
       </c>
       <c r="B1464">
-        <v>0.3693339843418006</v>
+        <v>0.3693339843418005</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
@@ -12063,7 +12063,7 @@
         <v>1465</v>
       </c>
       <c r="B1465">
-        <v>0.2856636681591798</v>
+        <v>0.2856636681591797</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -12111,7 +12111,7 @@
         <v>1471</v>
       </c>
       <c r="B1471">
-        <v>0.1486043077925831</v>
+        <v>0.148604307792583</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
@@ -12167,7 +12167,7 @@
         <v>1478</v>
       </c>
       <c r="B1478">
-        <v>3.100779510348632</v>
+        <v>3.100779510348631</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
@@ -12175,7 +12175,7 @@
         <v>1479</v>
       </c>
       <c r="B1479">
-        <v>2.944367497015072</v>
+        <v>2.944367497015071</v>
       </c>
     </row>
     <row r="1480" spans="1:2">
@@ -12351,7 +12351,7 @@
         <v>1501</v>
       </c>
       <c r="B1501">
-        <v>3.798640267609027</v>
+        <v>3.798640267609026</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
@@ -12359,7 +12359,7 @@
         <v>1502</v>
       </c>
       <c r="B1502">
-        <v>4.212427267094981</v>
+        <v>4.21242726709498</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
@@ -12367,7 +12367,7 @@
         <v>1503</v>
       </c>
       <c r="B1503">
-        <v>3.99414795750001</v>
+        <v>3.994147957500009</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
@@ -12431,7 +12431,7 @@
         <v>1511</v>
       </c>
       <c r="B1511">
-        <v>0.8246022586398808</v>
+        <v>0.8246022586398807</v>
       </c>
     </row>
     <row r="1512" spans="1:2">
@@ -12447,7 +12447,7 @@
         <v>1513</v>
       </c>
       <c r="B1513">
-        <v>0.5546076335627299</v>
+        <v>0.5546076335627298</v>
       </c>
     </row>
     <row r="1514" spans="1:2">
@@ -12535,7 +12535,7 @@
         <v>1524</v>
       </c>
       <c r="B1524">
-        <v>6.357502120368966</v>
+        <v>6.357502120368965</v>
       </c>
     </row>
     <row r="1525" spans="1:2">
@@ -12663,7 +12663,7 @@
         <v>1540</v>
       </c>
       <c r="B1540">
-        <v>0.4029492324762569</v>
+        <v>0.4029492324762568</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
@@ -12671,7 +12671,7 @@
         <v>1541</v>
       </c>
       <c r="B1541">
-        <v>0.3792837461043533</v>
+        <v>0.3792837461043532</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
@@ -12807,7 +12807,7 @@
         <v>1558</v>
       </c>
       <c r="B1558">
-        <v>4.37733834054972</v>
+        <v>4.377338340549719</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
@@ -12823,7 +12823,7 @@
         <v>1560</v>
       </c>
       <c r="B1560">
-        <v>0.8866366053933278</v>
+        <v>0.8866366053933277</v>
       </c>
     </row>
     <row r="1561" spans="1:2">
@@ -12855,7 +12855,7 @@
         <v>1564</v>
       </c>
       <c r="B1564">
-        <v>0.3785950291634991</v>
+        <v>0.378595029163499</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
@@ -12935,7 +12935,7 @@
         <v>1574</v>
       </c>
       <c r="B1574">
-        <v>3.352380997039397</v>
+        <v>3.352380997039396</v>
       </c>
     </row>
     <row r="1575" spans="1:2">
@@ -13319,7 +13319,7 @@
         <v>1622</v>
       </c>
       <c r="B1622">
-        <v>4.416785702353537</v>
+        <v>4.416785702353536</v>
       </c>
     </row>
     <row r="1623" spans="1:2">
@@ -13335,7 +13335,7 @@
         <v>1624</v>
       </c>
       <c r="B1624">
-        <v>4.079871236308454</v>
+        <v>4.079871236308453</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
@@ -13359,7 +13359,7 @@
         <v>1627</v>
       </c>
       <c r="B1627">
-        <v>19.41847672224662</v>
+        <v>19.41847672224661</v>
       </c>
     </row>
     <row r="1628" spans="1:2">
@@ -13407,7 +13407,7 @@
         <v>1633</v>
       </c>
       <c r="B1633">
-        <v>0.673966675478336</v>
+        <v>0.6739666754783359</v>
       </c>
     </row>
     <row r="1634" spans="1:2">
@@ -13471,7 +13471,7 @@
         <v>1641</v>
       </c>
       <c r="B1641">
-        <v>0.2778070197547465</v>
+        <v>0.2778070197547464</v>
       </c>
     </row>
     <row r="1642" spans="1:2">
@@ -13519,7 +13519,7 @@
         <v>1647</v>
       </c>
       <c r="B1647">
-        <v>4.632749750743082</v>
+        <v>4.632749750743081</v>
       </c>
     </row>
     <row r="1648" spans="1:2">
@@ -13543,7 +13543,7 @@
         <v>1650</v>
       </c>
       <c r="B1650">
-        <v>4.607574948522073</v>
+        <v>4.607574948522072</v>
       </c>
     </row>
     <row r="1651" spans="1:2">
@@ -13639,7 +13639,7 @@
         <v>1662</v>
       </c>
       <c r="B1662">
-        <v>0.5183107854245222</v>
+        <v>0.5183107854245221</v>
       </c>
     </row>
     <row r="1663" spans="1:2">
@@ -13887,7 +13887,7 @@
         <v>1693</v>
       </c>
       <c r="B1693">
-        <v>7.673303162646808</v>
+        <v>7.673303162646807</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -13999,7 +13999,7 @@
         <v>1707</v>
       </c>
       <c r="B1707">
-        <v>0.8556062438198645</v>
+        <v>0.8556062438198644</v>
       </c>
     </row>
     <row r="1708" spans="1:2">
@@ -14327,7 +14327,7 @@
         <v>1748</v>
       </c>
       <c r="B1748">
-        <v>35.03166046430659</v>
+        <v>35.03166046430658</v>
       </c>
     </row>
     <row r="1749" spans="1:2">
@@ -14383,7 +14383,7 @@
         <v>1755</v>
       </c>
       <c r="B1755">
-        <v>0.7075731314816325</v>
+        <v>0.7075731314816324</v>
       </c>
     </row>
     <row r="1756" spans="1:2">
@@ -14391,7 +14391,7 @@
         <v>1756</v>
       </c>
       <c r="B1756">
-        <v>0.6148249398764765</v>
+        <v>0.6148249398764764</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14447,7 +14447,7 @@
         <v>1763</v>
       </c>
       <c r="B1763">
-        <v>9.583335042914394</v>
+        <v>9.583335042914392</v>
       </c>
     </row>
     <row r="1764" spans="1:2">
@@ -14543,7 +14543,7 @@
         <v>1775</v>
       </c>
       <c r="B1775">
-        <v>7.958519897472028</v>
+        <v>7.958519897472027</v>
       </c>
     </row>
     <row r="1776" spans="1:2">
@@ -14599,7 +14599,7 @@
         <v>1782</v>
       </c>
       <c r="B1782">
-        <v>0.6154960725550109</v>
+        <v>0.6154960725550108</v>
       </c>
     </row>
     <row r="1783" spans="1:2">
@@ -14679,7 +14679,7 @@
         <v>1792</v>
       </c>
       <c r="B1792">
-        <v>3.657555869597456</v>
+        <v>3.657555869597455</v>
       </c>
     </row>
     <row r="1793" spans="1:2">
@@ -14687,7 +14687,7 @@
         <v>1793</v>
       </c>
       <c r="B1793">
-        <v>4.596174485118146</v>
+        <v>4.596174485118145</v>
       </c>
     </row>
     <row r="1794" spans="1:2">
@@ -14815,7 +14815,7 @@
         <v>1809</v>
       </c>
       <c r="B1809">
-        <v>0.1946164608624143</v>
+        <v>0.1946164608624142</v>
       </c>
     </row>
     <row r="1810" spans="1:2">
@@ -14991,7 +14991,7 @@
         <v>1831</v>
       </c>
       <c r="B1831">
-        <v>0.3521951900008851</v>
+        <v>0.352195190000885</v>
       </c>
     </row>
     <row r="1832" spans="1:2">
@@ -15031,7 +15031,7 @@
         <v>1836</v>
       </c>
       <c r="B1836">
-        <v>5.570225389212994</v>
+        <v>5.570225389212993</v>
       </c>
     </row>
     <row r="1837" spans="1:2">
@@ -15071,7 +15071,7 @@
         <v>1841</v>
       </c>
       <c r="B1841">
-        <v>19.4506852293955</v>
+        <v>19.45068522939549</v>
       </c>
     </row>
     <row r="1842" spans="1:2">
@@ -15271,7 +15271,7 @@
         <v>1866</v>
       </c>
       <c r="B1866">
-        <v>55.67499828553443</v>
+        <v>55.67499828553442</v>
       </c>
     </row>
     <row r="1867" spans="1:2">
@@ -15279,7 +15279,7 @@
         <v>1867</v>
       </c>
       <c r="B1867">
-        <v>40.26444385960491</v>
+        <v>40.2644438596049</v>
       </c>
     </row>
     <row r="1868" spans="1:2">
@@ -15383,7 +15383,7 @@
         <v>1880</v>
       </c>
       <c r="B1880">
-        <v>0.3791958247927548</v>
+        <v>0.3791958247927547</v>
       </c>
     </row>
     <row r="1881" spans="1:2">
@@ -15687,7 +15687,7 @@
         <v>1918</v>
       </c>
       <c r="B1918">
-        <v>5.645896331395353</v>
+        <v>5.645896331395352</v>
       </c>
     </row>
     <row r="1919" spans="1:2">
@@ -15703,7 +15703,7 @@
         <v>1920</v>
       </c>
       <c r="B1920">
-        <v>0.8321869371204365</v>
+        <v>0.8321869371204363</v>
       </c>
     </row>
     <row r="1921" spans="1:2">
@@ -15735,7 +15735,7 @@
         <v>1924</v>
       </c>
       <c r="B1924">
-        <v>0.4301901855198289</v>
+        <v>0.4301901855198288</v>
       </c>
     </row>
     <row r="1925" spans="1:2">
@@ -15743,7 +15743,7 @@
         <v>1925</v>
       </c>
       <c r="B1925">
-        <v>0.4500897090449343</v>
+        <v>0.4500897090449342</v>
       </c>
     </row>
     <row r="1926" spans="1:2">
@@ -15783,7 +15783,7 @@
         <v>1930</v>
       </c>
       <c r="B1930">
-        <v>5.805561433258054</v>
+        <v>5.805561433258053</v>
       </c>
     </row>
     <row r="1931" spans="1:2">
@@ -15823,7 +15823,7 @@
         <v>1935</v>
       </c>
       <c r="B1935">
-        <v>8.232336168893324</v>
+        <v>8.232336168893323</v>
       </c>
     </row>
     <row r="1936" spans="1:2">
@@ -16007,7 +16007,7 @@
         <v>1958</v>
       </c>
       <c r="B1958">
-        <v>1.840659034706059</v>
+        <v>1.840659034706058</v>
       </c>
     </row>
     <row r="1959" spans="1:2">
@@ -16031,7 +16031,7 @@
         <v>1961</v>
       </c>
       <c r="B1961">
-        <v>5.799025949095905</v>
+        <v>5.799025949095904</v>
       </c>
     </row>
     <row r="1962" spans="1:2">
@@ -16071,7 +16071,7 @@
         <v>1966</v>
       </c>
       <c r="B1966">
-        <v>9.408137176002642</v>
+        <v>9.40813717600264</v>
       </c>
     </row>
     <row r="1967" spans="1:2">
@@ -16095,7 +16095,7 @@
         <v>1969</v>
       </c>
       <c r="B1969">
-        <v>0.683034293414518</v>
+        <v>0.6830342934145179</v>
       </c>
     </row>
     <row r="1970" spans="1:2">
@@ -16183,7 +16183,7 @@
         <v>1980</v>
       </c>
       <c r="B1980">
-        <v>1.863336871677674</v>
+        <v>1.863336871677673</v>
       </c>
     </row>
     <row r="1981" spans="1:2">
@@ -16215,7 +16215,7 @@
         <v>1984</v>
       </c>
       <c r="B1984">
-        <v>5.995324930791275</v>
+        <v>5.995324930791274</v>
       </c>
     </row>
     <row r="1985" spans="1:2">
@@ -16223,7 +16223,7 @@
         <v>1985</v>
       </c>
       <c r="B1985">
-        <v>9.027232747054491</v>
+        <v>9.027232747054487</v>
       </c>
     </row>
     <row r="1986" spans="1:2">
@@ -16311,7 +16311,7 @@
         <v>1996</v>
       </c>
       <c r="B1996">
-        <v>0.7382957684645013</v>
+        <v>0.7382957684645012</v>
       </c>
     </row>
     <row r="1997" spans="1:2">
@@ -16327,7 +16327,7 @@
         <v>1998</v>
       </c>
       <c r="B1998">
-        <v>0.7728869431576998</v>
+        <v>0.7728869431576997</v>
       </c>
     </row>
     <row r="1999" spans="1:2">
@@ -16407,7 +16407,7 @@
         <v>2008</v>
       </c>
       <c r="B2008">
-        <v>0.4951698962118224</v>
+        <v>0.4951698962118223</v>
       </c>
     </row>
     <row r="2009" spans="1:2">
@@ -16415,7 +16415,7 @@
         <v>2009</v>
       </c>
       <c r="B2009">
-        <v>0.6829991248898786</v>
+        <v>0.6829991248898785</v>
       </c>
     </row>
     <row r="2010" spans="1:2">
@@ -16495,7 +16495,7 @@
         <v>2019</v>
       </c>
       <c r="B2019">
-        <v>0.7071247327924806</v>
+        <v>0.7071247327924804</v>
       </c>
     </row>
     <row r="2020" spans="1:2">
@@ -16519,7 +16519,7 @@
         <v>2022</v>
       </c>
       <c r="B2022">
-        <v>0.6838373080604501</v>
+        <v>0.68383730806045</v>
       </c>
     </row>
     <row r="2023" spans="1:2">
@@ -16591,7 +16591,7 @@
         <v>2031</v>
       </c>
       <c r="B2031">
-        <v>0.4319017203856112</v>
+        <v>0.4319017203856111</v>
       </c>
     </row>
     <row r="2032" spans="1:2">
@@ -16655,7 +16655,7 @@
         <v>2039</v>
       </c>
       <c r="B2039">
-        <v>5.429111684097556</v>
+        <v>5.429111684097555</v>
       </c>
     </row>
     <row r="2040" spans="1:2">
@@ -16679,7 +16679,7 @@
         <v>2042</v>
       </c>
       <c r="B2042">
-        <v>0.9590046369699738</v>
+        <v>0.9590046369699736</v>
       </c>
     </row>
     <row r="2043" spans="1:2">
@@ -16687,7 +16687,7 @@
         <v>2043</v>
       </c>
       <c r="B2043">
-        <v>0.8778268899711678</v>
+        <v>0.8778268899711676</v>
       </c>
     </row>
     <row r="2044" spans="1:2">
@@ -16703,7 +16703,7 @@
         <v>2045</v>
       </c>
       <c r="B2045">
-        <v>0.8934417149110443</v>
+        <v>0.8934417149110442</v>
       </c>
     </row>
     <row r="2046" spans="1:2">
@@ -16711,7 +16711,7 @@
         <v>2046</v>
       </c>
       <c r="B2046">
-        <v>0.8823929367535115</v>
+        <v>0.8823929367535114</v>
       </c>
     </row>
     <row r="2047" spans="1:2">
@@ -16735,7 +16735,7 @@
         <v>2049</v>
       </c>
       <c r="B2049">
-        <v>0.3832577893886011</v>
+        <v>0.383257789388601</v>
       </c>
     </row>
     <row r="2050" spans="1:2">
@@ -16807,7 +16807,7 @@
         <v>2058</v>
       </c>
       <c r="B2058">
-        <v>36.23413093593409</v>
+        <v>36.23413093593408</v>
       </c>
     </row>
     <row r="2059" spans="1:2">
@@ -17071,7 +17071,7 @@
         <v>2091</v>
       </c>
       <c r="B2091">
-        <v>0.4775914953129149</v>
+        <v>0.4775914953129148</v>
       </c>
     </row>
     <row r="2092" spans="1:2">
@@ -17119,7 +17119,7 @@
         <v>2097</v>
       </c>
       <c r="B2097">
-        <v>0.1570154466021637</v>
+        <v>0.1570154466021636</v>
       </c>
     </row>
     <row r="2098" spans="1:2">
@@ -17223,7 +17223,7 @@
         <v>2110</v>
       </c>
       <c r="B2110">
-        <v>3.068746845822947</v>
+        <v>3.068746845822946</v>
       </c>
     </row>
     <row r="2111" spans="1:2">
@@ -17311,7 +17311,7 @@
         <v>2121</v>
       </c>
       <c r="B2121">
-        <v>1.359187278841268</v>
+        <v>1.359187278841267</v>
       </c>
     </row>
     <row r="2122" spans="1:2">
@@ -17471,7 +17471,7 @@
         <v>2141</v>
       </c>
       <c r="B2141">
-        <v>0.4305887621324084</v>
+        <v>0.4305887621324083</v>
       </c>
     </row>
     <row r="2142" spans="1:2">
@@ -17687,7 +17687,7 @@
         <v>2168</v>
       </c>
       <c r="B2168">
-        <v>0.4189069505313671</v>
+        <v>0.418906950531367</v>
       </c>
     </row>
     <row r="2169" spans="1:2">
@@ -17759,7 +17759,7 @@
         <v>2177</v>
       </c>
       <c r="B2177">
-        <v>40.0097651270082</v>
+        <v>40.00976512700819</v>
       </c>
     </row>
     <row r="2178" spans="1:2">
@@ -17775,7 +17775,7 @@
         <v>2179</v>
       </c>
       <c r="B2179">
-        <v>63.13981071127756</v>
+        <v>63.13981071127755</v>
       </c>
     </row>
     <row r="2180" spans="1:2">
@@ -17847,7 +17847,7 @@
         <v>2188</v>
       </c>
       <c r="B2188">
-        <v>0.7180474904033889</v>
+        <v>0.7180474904033888</v>
       </c>
     </row>
     <row r="2189" spans="1:2">
@@ -17919,7 +17919,7 @@
         <v>2197</v>
       </c>
       <c r="B2197">
-        <v>7.939294437335844</v>
+        <v>7.939294437335843</v>
       </c>
     </row>
     <row r="2198" spans="1:2">
@@ -17927,7 +17927,7 @@
         <v>2198</v>
       </c>
       <c r="B2198">
-        <v>7.581571927545807</v>
+        <v>7.581571927545806</v>
       </c>
     </row>
     <row r="2199" spans="1:2">
@@ -17935,7 +17935,7 @@
         <v>2199</v>
       </c>
       <c r="B2199">
-        <v>11.21946273044909</v>
+        <v>11.21946273044908</v>
       </c>
     </row>
     <row r="2200" spans="1:2">
@@ -17983,7 +17983,7 @@
         <v>2205</v>
       </c>
       <c r="B2205">
-        <v>18.87758481329324</v>
+        <v>18.87758481329323</v>
       </c>
     </row>
     <row r="2206" spans="1:2">
@@ -18031,7 +18031,7 @@
         <v>2211</v>
       </c>
       <c r="B2211">
-        <v>0.7002873854605114</v>
+        <v>0.7002873854605113</v>
       </c>
     </row>
     <row r="2212" spans="1:2">
@@ -18119,7 +18119,7 @@
         <v>2222</v>
       </c>
       <c r="B2222">
-        <v>2.356030317612808</v>
+        <v>2.356030317612807</v>
       </c>
     </row>
     <row r="2223" spans="1:2">
@@ -18175,7 +18175,7 @@
         <v>2229</v>
       </c>
       <c r="B2229">
-        <v>7.701965510227887</v>
+        <v>7.701965510227886</v>
       </c>
     </row>
     <row r="2230" spans="1:2">
@@ -18247,7 +18247,7 @@
         <v>2238</v>
       </c>
       <c r="B2238">
-        <v>0.4360867748176952</v>
+        <v>0.4360867748176951</v>
       </c>
     </row>
     <row r="2239" spans="1:2">
@@ -18255,7 +18255,7 @@
         <v>2239</v>
       </c>
       <c r="B2239">
-        <v>0.3671418129726137</v>
+        <v>0.3671418129726136</v>
       </c>
     </row>
     <row r="2240" spans="1:2">
@@ -18279,7 +18279,7 @@
         <v>2242</v>
       </c>
       <c r="B2242">
-        <v>5.341278293810751</v>
+        <v>5.34127829381075</v>
       </c>
     </row>
     <row r="2243" spans="1:2">
@@ -18287,7 +18287,7 @@
         <v>2243</v>
       </c>
       <c r="B2243">
-        <v>6.99062348518907</v>
+        <v>6.990623485189069</v>
       </c>
     </row>
     <row r="2244" spans="1:2">
@@ -18375,7 +18375,7 @@
         <v>2254</v>
       </c>
       <c r="B2254">
-        <v>6.065163759304274</v>
+        <v>6.065163759304273</v>
       </c>
     </row>
     <row r="2255" spans="1:2">
@@ -18431,7 +18431,7 @@
         <v>2261</v>
       </c>
       <c r="B2261">
-        <v>0.4034298689796615</v>
+        <v>0.4034298689796614</v>
       </c>
     </row>
     <row r="2262" spans="1:2">
@@ -18463,7 +18463,7 @@
         <v>2265</v>
       </c>
       <c r="B2265">
-        <v>0.09411331650324049</v>
+        <v>0.0941133165032404</v>
       </c>
     </row>
     <row r="2266" spans="1:2">
@@ -18599,7 +18599,7 @@
         <v>2282</v>
       </c>
       <c r="B2282">
-        <v>0.7002551476462586</v>
+        <v>0.7002551476462585</v>
       </c>
     </row>
     <row r="2283" spans="1:2">
@@ -18623,7 +18623,7 @@
         <v>2285</v>
       </c>
       <c r="B2285">
-        <v>0.7235689487717687</v>
+        <v>0.7235689487717686</v>
       </c>
     </row>
     <row r="2286" spans="1:2">
@@ -18799,7 +18799,7 @@
         <v>2307</v>
       </c>
       <c r="B2307">
-        <v>0.7269744342410135</v>
+        <v>0.7269744342410134</v>
       </c>
     </row>
     <row r="2308" spans="1:2">
@@ -18815,7 +18815,7 @@
         <v>2309</v>
       </c>
       <c r="B2309">
-        <v>0.7033206707106563</v>
+        <v>0.7033206707106562</v>
       </c>
     </row>
     <row r="2310" spans="1:2">
@@ -18823,7 +18823,7 @@
         <v>2310</v>
       </c>
       <c r="B2310">
-        <v>0.6540026763247252</v>
+        <v>0.6540026763247251</v>
       </c>
     </row>
     <row r="2311" spans="1:2">
@@ -18895,7 +18895,7 @@
         <v>2319</v>
       </c>
       <c r="B2319">
-        <v>24.55337439063205</v>
+        <v>24.55337439063204</v>
       </c>
     </row>
     <row r="2320" spans="1:2">
@@ -18919,7 +18919,7 @@
         <v>2322</v>
       </c>
       <c r="B2322">
-        <v>70.93696569486265</v>
+        <v>70.93696569486264</v>
       </c>
     </row>
     <row r="2323" spans="1:2">
@@ -19031,7 +19031,7 @@
         <v>2336</v>
       </c>
       <c r="B2336">
-        <v>2.233274582359117</v>
+        <v>2.233274582359116</v>
       </c>
     </row>
     <row r="2337" spans="1:2">
@@ -19223,7 +19223,7 @@
         <v>2360</v>
       </c>
       <c r="B2360">
-        <v>0.6340943606684599</v>
+        <v>0.6340943606684598</v>
       </c>
     </row>
     <row r="2361" spans="1:2">
@@ -19311,7 +19311,7 @@
         <v>2371</v>
       </c>
       <c r="B2371">
-        <v>78.73793060195034</v>
+        <v>78.73793060195032</v>
       </c>
     </row>
     <row r="2372" spans="1:2">
@@ -19327,7 +19327,7 @@
         <v>2373</v>
       </c>
       <c r="B2373">
-        <v>52.24606713319669</v>
+        <v>52.24606713319668</v>
       </c>
     </row>
     <row r="2374" spans="1:2">
@@ -19343,7 +19343,7 @@
         <v>2375</v>
       </c>
       <c r="B2375">
-        <v>32.90689543401184</v>
+        <v>32.90689543401183</v>
       </c>
     </row>
     <row r="2376" spans="1:2">
@@ -19495,7 +19495,7 @@
         <v>2394</v>
       </c>
       <c r="B2394">
-        <v>97.59587965565326</v>
+        <v>97.59587965565323</v>
       </c>
     </row>
     <row r="2395" spans="1:2">
@@ -19519,7 +19519,7 @@
         <v>2397</v>
       </c>
       <c r="B2397">
-        <v>49.01056286637544</v>
+        <v>49.01056286637543</v>
       </c>
     </row>
     <row r="2398" spans="1:2">
@@ -19527,7 +19527,7 @@
         <v>2398</v>
       </c>
       <c r="B2398">
-        <v>38.48608879700787</v>
+        <v>38.48608879700786</v>
       </c>
     </row>
     <row r="2399" spans="1:2">
@@ -19559,7 +19559,7 @@
         <v>2402</v>
       </c>
       <c r="B2402">
-        <v>4.14291081672451</v>
+        <v>4.142910816724509</v>
       </c>
     </row>
     <row r="2403" spans="1:2">
@@ -19623,7 +19623,7 @@
         <v>2410</v>
       </c>
       <c r="B2410">
-        <v>0.5873026386357896</v>
+        <v>0.5873026386357895</v>
       </c>
     </row>
     <row r="2411" spans="1:2">
@@ -19631,7 +19631,7 @@
         <v>2411</v>
       </c>
       <c r="B2411">
-        <v>0.6786997727527168</v>
+        <v>0.6786997727527166</v>
       </c>
     </row>
     <row r="2412" spans="1:2">
@@ -19687,7 +19687,7 @@
         <v>2418</v>
       </c>
       <c r="B2418">
-        <v>65.68601189516733</v>
+        <v>65.68601189516731</v>
       </c>
     </row>
     <row r="2419" spans="1:2">
@@ -19735,7 +19735,7 @@
         <v>2424</v>
       </c>
       <c r="B2424">
-        <v>4.445242900207553</v>
+        <v>4.445242900207552</v>
       </c>
     </row>
     <row r="2425" spans="1:2">
@@ -19775,7 +19775,7 @@
         <v>2429</v>
       </c>
       <c r="B2429">
-        <v>0.735113016984639</v>
+        <v>0.7351130169846389</v>
       </c>
     </row>
     <row r="2430" spans="1:2">
@@ -19783,7 +19783,7 @@
         <v>2430</v>
       </c>
       <c r="B2430">
-        <v>0.6906570711300996</v>
+        <v>0.6906570711300994</v>
       </c>
     </row>
     <row r="2431" spans="1:2">
@@ -19903,7 +19903,7 @@
         <v>2445</v>
       </c>
       <c r="B2445">
-        <v>37.65816311278957</v>
+        <v>37.65816311278956</v>
       </c>
     </row>
     <row r="2446" spans="1:2">
@@ -20063,7 +20063,7 @@
         <v>2465</v>
       </c>
       <c r="B2465">
-        <v>40.69262064708914</v>
+        <v>40.69262064708913</v>
       </c>
     </row>
     <row r="2466" spans="1:2">
@@ -20127,7 +20127,7 @@
         <v>2473</v>
       </c>
       <c r="B2473">
-        <v>6.725599344927615</v>
+        <v>6.725599344927614</v>
       </c>
     </row>
     <row r="2474" spans="1:2">
@@ -20151,7 +20151,7 @@
         <v>2476</v>
       </c>
       <c r="B2476">
-        <v>1.023867119246503</v>
+        <v>1.023867119246502</v>
       </c>
     </row>
     <row r="2477" spans="1:2">
@@ -20159,7 +20159,7 @@
         <v>2477</v>
       </c>
       <c r="B2477">
-        <v>0.8834626460446254</v>
+        <v>0.8834626460446253</v>
       </c>
     </row>
     <row r="2478" spans="1:2">
@@ -20327,7 +20327,7 @@
         <v>2498</v>
       </c>
       <c r="B2498">
-        <v>7.577205169069752</v>
+        <v>7.577205169069751</v>
       </c>
     </row>
     <row r="2499" spans="1:2">
@@ -20535,7 +20535,7 @@
         <v>2524</v>
       </c>
       <c r="B2524">
-        <v>6.981391747471237</v>
+        <v>6.981391747471236</v>
       </c>
     </row>
     <row r="2525" spans="1:2">
@@ -20551,7 +20551,7 @@
         <v>2526</v>
       </c>
       <c r="B2526">
-        <v>5.525033835051414</v>
+        <v>5.525033835051413</v>
       </c>
     </row>
     <row r="2527" spans="1:2">
@@ -20655,7 +20655,7 @@
         <v>2539</v>
       </c>
       <c r="B2539">
-        <v>97.12432835444716</v>
+        <v>97.12432835444714</v>
       </c>
     </row>
     <row r="2540" spans="1:2">
@@ -20951,7 +20951,7 @@
         <v>2576</v>
       </c>
       <c r="B2576">
-        <v>4.422588508919032</v>
+        <v>4.422588508919031</v>
       </c>
     </row>
     <row r="2577" spans="1:2">
@@ -20975,7 +20975,7 @@
         <v>2579</v>
       </c>
       <c r="B2579">
-        <v>21.73778230800477</v>
+        <v>21.73778230800476</v>
       </c>
     </row>
     <row r="2580" spans="1:2">
@@ -21007,7 +21007,7 @@
         <v>2583</v>
       </c>
       <c r="B2583">
-        <v>28.39565293589775</v>
+        <v>28.39565293589774</v>
       </c>
     </row>
     <row r="2584" spans="1:2">
@@ -21039,7 +21039,7 @@
         <v>2587</v>
       </c>
       <c r="B2587">
-        <v>78.50083613167331</v>
+        <v>78.5008361316733</v>
       </c>
     </row>
     <row r="2588" spans="1:2">
@@ -21087,7 +21087,7 @@
         <v>2593</v>
       </c>
       <c r="B2593">
-        <v>19.72892687350058</v>
+        <v>19.72892687350057</v>
       </c>
     </row>
     <row r="2594" spans="1:2">
@@ -21175,7 +21175,7 @@
         <v>2604</v>
       </c>
       <c r="B2604">
-        <v>28.2770470865515</v>
+        <v>28.27704708655149</v>
       </c>
     </row>
     <row r="2605" spans="1:2">
@@ -21199,7 +21199,7 @@
         <v>2607</v>
       </c>
       <c r="B2607">
-        <v>45.63233300372611</v>
+        <v>45.6323330037261</v>
       </c>
     </row>
     <row r="2608" spans="1:2">
@@ -21207,7 +21207,7 @@
         <v>2608</v>
       </c>
       <c r="B2608">
-        <v>51.47675565671066</v>
+        <v>51.47675565671065</v>
       </c>
     </row>
     <row r="2609" spans="1:2">
@@ -21215,7 +21215,7 @@
         <v>2609</v>
       </c>
       <c r="B2609">
-        <v>46.32046380250295</v>
+        <v>46.32046380250294</v>
       </c>
     </row>
     <row r="2610" spans="1:2">
@@ -21247,7 +21247,7 @@
         <v>2613</v>
       </c>
       <c r="B2613">
-        <v>47.74449597935843</v>
+        <v>47.74449597935842</v>
       </c>
     </row>
     <row r="2614" spans="1:2">
@@ -21295,7 +21295,7 @@
         <v>2619</v>
       </c>
       <c r="B2619">
-        <v>3.751631673007748</v>
+        <v>3.751631673007747</v>
       </c>
     </row>
     <row r="2620" spans="1:2">
@@ -21335,7 +21335,7 @@
         <v>2624</v>
       </c>
       <c r="B2624">
-        <v>3.331016118320985</v>
+        <v>3.331016118320984</v>
       </c>
     </row>
     <row r="2625" spans="1:2">
@@ -21415,7 +21415,7 @@
         <v>2634</v>
       </c>
       <c r="B2634">
-        <v>84.76054044644098</v>
+        <v>84.76054044644097</v>
       </c>
     </row>
     <row r="2635" spans="1:2">
@@ -21527,7 +21527,7 @@
         <v>2648</v>
       </c>
       <c r="B2648">
-        <v>0.6593043314141088</v>
+        <v>0.6593043314141087</v>
       </c>
     </row>
     <row r="2649" spans="1:2">
@@ -21615,7 +21615,7 @@
         <v>2659</v>
       </c>
       <c r="B2659">
-        <v>53.82044475288544</v>
+        <v>53.82044475288543</v>
       </c>
     </row>
     <row r="2660" spans="1:2">
@@ -21639,7 +21639,7 @@
         <v>2662</v>
       </c>
       <c r="B2662">
-        <v>21.02139946110098</v>
+        <v>21.02139946110097</v>
       </c>
     </row>
     <row r="2663" spans="1:2">
@@ -21703,7 +21703,7 @@
         <v>2670</v>
       </c>
       <c r="B2670">
-        <v>0.6780520857572752</v>
+        <v>0.678052085757275</v>
       </c>
     </row>
     <row r="2671" spans="1:2">
@@ -21759,7 +21759,7 @@
         <v>2677</v>
       </c>
       <c r="B2677">
-        <v>8.490326604226906</v>
+        <v>8.490326604226905</v>
       </c>
     </row>
     <row r="2678" spans="1:2">
@@ -21799,7 +21799,7 @@
         <v>2682</v>
       </c>
       <c r="B2682">
-        <v>90.15187527365509</v>
+        <v>90.15187527365508</v>
       </c>
     </row>
     <row r="2683" spans="1:2">
@@ -21815,7 +21815,7 @@
         <v>2684</v>
       </c>
       <c r="B2684">
-        <v>52.01424794161557</v>
+        <v>52.01424794161556</v>
       </c>
     </row>
     <row r="2685" spans="1:2">
@@ -21903,7 +21903,7 @@
         <v>2695</v>
       </c>
       <c r="B2695">
-        <v>0.7642853081729893</v>
+        <v>0.7642853081729892</v>
       </c>
     </row>
     <row r="2696" spans="1:2">
@@ -21911,7 +21911,7 @@
         <v>2696</v>
       </c>
       <c r="B2696">
-        <v>0.6942794291679538</v>
+        <v>0.6942794291679537</v>
       </c>
     </row>
     <row r="2697" spans="1:2">
@@ -22023,7 +22023,7 @@
         <v>2710</v>
       </c>
       <c r="B2710">
-        <v>51.03070153586809</v>
+        <v>51.03070153586808</v>
       </c>
     </row>
     <row r="2711" spans="1:2">
@@ -22151,7 +22151,7 @@
         <v>2726</v>
       </c>
       <c r="B2726">
-        <v>9.16606049806837</v>
+        <v>9.166060498068369</v>
       </c>
     </row>
     <row r="2727" spans="1:2">
@@ -22239,7 +22239,7 @@
         <v>2737</v>
       </c>
       <c r="B2737">
-        <v>29.53423392109708</v>
+        <v>29.53423392109707</v>
       </c>
     </row>
     <row r="2738" spans="1:2">
@@ -22287,7 +22287,7 @@
         <v>2743</v>
       </c>
       <c r="B2743">
-        <v>1.849653384882576</v>
+        <v>1.849653384882575</v>
       </c>
     </row>
     <row r="2744" spans="1:2">
@@ -22359,7 +22359,7 @@
         <v>2752</v>
       </c>
       <c r="B2752">
-        <v>63.31858404486098</v>
+        <v>63.31858404486097</v>
       </c>
     </row>
     <row r="2753" spans="1:2">
@@ -22391,7 +22391,7 @@
         <v>2756</v>
       </c>
       <c r="B2756">
-        <v>82.80194669506722</v>
+        <v>82.8019466950672</v>
       </c>
     </row>
     <row r="2757" spans="1:2">
@@ -22503,7 +22503,7 @@
         <v>2770</v>
       </c>
       <c r="B2770">
-        <v>42.57794663879757</v>
+        <v>42.57794663879756</v>
       </c>
     </row>
     <row r="2771" spans="1:2">
@@ -22743,7 +22743,7 @@
         <v>2800</v>
       </c>
       <c r="B2800">
-        <v>59.86855177773962</v>
+        <v>59.86855177773961</v>
       </c>
     </row>
     <row r="2801" spans="1:2">
@@ -22775,7 +22775,7 @@
         <v>2804</v>
       </c>
       <c r="B2804">
-        <v>83.44054848831028</v>
+        <v>83.44054848831027</v>
       </c>
     </row>
     <row r="2805" spans="1:2">
@@ -22791,7 +22791,7 @@
         <v>2806</v>
       </c>
       <c r="B2806">
-        <v>61.31046128795344</v>
+        <v>61.31046128795343</v>
       </c>
     </row>
     <row r="2807" spans="1:2">
@@ -22903,7 +22903,7 @@
         <v>2820</v>
       </c>
       <c r="B2820">
-        <v>5.870095675971282</v>
+        <v>5.870095675971281</v>
       </c>
     </row>
     <row r="2821" spans="1:2">
@@ -22951,7 +22951,7 @@
         <v>2826</v>
       </c>
       <c r="B2826">
-        <v>83.64188829187063</v>
+        <v>83.64188829187061</v>
       </c>
     </row>
     <row r="2827" spans="1:2">
@@ -23007,7 +23007,7 @@
         <v>2833</v>
       </c>
       <c r="B2833">
-        <v>8.601869441541414</v>
+        <v>8.601869441541412</v>
       </c>
     </row>
     <row r="2834" spans="1:2">
@@ -23143,7 +23143,7 @@
         <v>2850</v>
       </c>
       <c r="B2850">
-        <v>80.96995963239515</v>
+        <v>80.96995963239513</v>
       </c>
     </row>
     <row r="2851" spans="1:2">
@@ -23199,7 +23199,7 @@
         <v>2857</v>
       </c>
       <c r="B2857">
-        <v>3.839230606463624</v>
+        <v>3.839230606463623</v>
       </c>
     </row>
     <row r="2858" spans="1:2">
@@ -23215,7 +23215,7 @@
         <v>2859</v>
       </c>
       <c r="B2859">
-        <v>0.9196217507946622</v>
+        <v>0.919621750794662</v>
       </c>
     </row>
     <row r="2860" spans="1:2">
@@ -23247,7 +23247,7 @@
         <v>2863</v>
       </c>
       <c r="B2863">
-        <v>0.6705348136156116</v>
+        <v>0.6705348136156115</v>
       </c>
     </row>
     <row r="2864" spans="1:2">
@@ -23303,7 +23303,7 @@
         <v>2870</v>
       </c>
       <c r="B2870">
-        <v>9.182706933064336</v>
+        <v>9.182706933064331</v>
       </c>
     </row>
     <row r="2871" spans="1:2">
@@ -23375,7 +23375,7 @@
         <v>2879</v>
       </c>
       <c r="B2879">
-        <v>18.79707819897297</v>
+        <v>18.79707819897296</v>
       </c>
     </row>
     <row r="2880" spans="1:2">
@@ -23431,7 +23431,7 @@
         <v>2886</v>
       </c>
       <c r="B2886">
-        <v>1.4565601314365</v>
+        <v>1.456560131436499</v>
       </c>
     </row>
     <row r="2887" spans="1:2">
@@ -23447,7 +23447,7 @@
         <v>2888</v>
       </c>
       <c r="B2888">
-        <v>2.53678481141758</v>
+        <v>2.536784811417579</v>
       </c>
     </row>
     <row r="2889" spans="1:2">
@@ -23527,7 +23527,7 @@
         <v>2898</v>
       </c>
       <c r="B2898">
-        <v>102.5256275969758</v>
+        <v>102.5256275969757</v>
       </c>
     </row>
     <row r="2899" spans="1:2">
@@ -23543,7 +23543,7 @@
         <v>2900</v>
       </c>
       <c r="B2900">
-        <v>59.34161005022652</v>
+        <v>59.34161005022651</v>
       </c>
     </row>
     <row r="2901" spans="1:2">
@@ -23559,7 +23559,7 @@
         <v>2902</v>
       </c>
       <c r="B2902">
-        <v>37.90023979072384</v>
+        <v>37.90023979072383</v>
       </c>
     </row>
     <row r="2903" spans="1:2">
@@ -23639,7 +23639,7 @@
         <v>2912</v>
       </c>
       <c r="B2912">
-        <v>0.7684615704739135</v>
+        <v>0.7684615704739134</v>
       </c>
     </row>
     <row r="2913" spans="1:2">
@@ -23663,7 +23663,7 @@
         <v>2915</v>
       </c>
       <c r="B2915">
-        <v>5.164380614874762</v>
+        <v>5.164380614874761</v>
       </c>
     </row>
     <row r="2916" spans="1:2">
@@ -23831,7 +23831,7 @@
         <v>2936</v>
       </c>
       <c r="B2936">
-        <v>7.781798061159237</v>
+        <v>7.781798061159236</v>
       </c>
     </row>
     <row r="2937" spans="1:2">
@@ -24071,7 +24071,7 @@
         <v>2966</v>
       </c>
       <c r="B2966">
-        <v>45.27068334201801</v>
+        <v>45.270683342018</v>
       </c>
     </row>
     <row r="2967" spans="1:2">
@@ -24135,7 +24135,7 @@
         <v>2974</v>
       </c>
       <c r="B2974">
-        <v>85.33613196637187</v>
+        <v>85.33613196637185</v>
       </c>
     </row>
     <row r="2975" spans="1:2">
@@ -24159,7 +24159,7 @@
         <v>2977</v>
       </c>
       <c r="B2977">
-        <v>50.51137965536019</v>
+        <v>50.51137965536018</v>
       </c>
     </row>
     <row r="2978" spans="1:2">
@@ -24255,7 +24255,7 @@
         <v>2989</v>
       </c>
       <c r="B2989">
-        <v>65.81379086802367</v>
+        <v>65.81379086802366</v>
       </c>
     </row>
     <row r="2990" spans="1:2">
@@ -24263,7 +24263,7 @@
         <v>2990</v>
       </c>
       <c r="B2990">
-        <v>78.99495390285634</v>
+        <v>78.99495390285632</v>
       </c>
     </row>
     <row r="2991" spans="1:2">
@@ -24295,7 +24295,7 @@
         <v>2994</v>
       </c>
       <c r="B2994">
-        <v>179.2932416060059</v>
+        <v>179.2932416060058</v>
       </c>
     </row>
     <row r="2995" spans="1:2">
@@ -24607,7 +24607,7 @@
         <v>3033</v>
       </c>
       <c r="B3033">
-        <v>40.91154471296916</v>
+        <v>40.91154471296915</v>
       </c>
     </row>
     <row r="3034" spans="1:2">
@@ -24615,7 +24615,7 @@
         <v>3034</v>
       </c>
       <c r="B3034">
-        <v>28.55235802026997</v>
+        <v>28.55235802026996</v>
       </c>
     </row>
     <row r="3035" spans="1:2">
@@ -24719,7 +24719,7 @@
         <v>3047</v>
       </c>
       <c r="B3047">
-        <v>59.66516047690865</v>
+        <v>59.66516047690864</v>
       </c>
     </row>
     <row r="3048" spans="1:2">
@@ -24767,7 +24767,7 @@
         <v>3053</v>
       </c>
       <c r="B3053">
-        <v>25.7879947552007</v>
+        <v>25.78799475520069</v>
       </c>
     </row>
     <row r="3054" spans="1:2">
@@ -24783,7 +24783,7 @@
         <v>3055</v>
       </c>
       <c r="B3055">
-        <v>5.836773498875488</v>
+        <v>5.836773498875487</v>
       </c>
     </row>
     <row r="3056" spans="1:2">
@@ -24815,7 +24815,7 @@
         <v>3059</v>
       </c>
       <c r="B3059">
-        <v>53.43066027146585</v>
+        <v>53.43066027146584</v>
       </c>
     </row>
     <row r="3060" spans="1:2">
@@ -24903,7 +24903,7 @@
         <v>3070</v>
       </c>
       <c r="B3070">
-        <v>63.54747252605549</v>
+        <v>63.54747252605548</v>
       </c>
     </row>
     <row r="3071" spans="1:2">
@@ -24919,7 +24919,7 @@
         <v>3072</v>
       </c>
       <c r="B3072">
-        <v>40.9370418933327</v>
+        <v>40.93704189333269</v>
       </c>
     </row>
     <row r="3073" spans="1:2">
@@ -24927,7 +24927,7 @@
         <v>3073</v>
       </c>
       <c r="B3073">
-        <v>34.26234898782056</v>
+        <v>34.26234898782055</v>
       </c>
     </row>
     <row r="3074" spans="1:2">
@@ -24935,7 +24935,7 @@
         <v>3074</v>
       </c>
       <c r="B3074">
-        <v>25.78327631147825</v>
+        <v>25.78327631147824</v>
       </c>
     </row>
     <row r="3075" spans="1:2">
@@ -25047,7 +25047,7 @@
         <v>3088</v>
       </c>
       <c r="B3088">
-        <v>16.39119942839425</v>
+        <v>16.39119942839424</v>
       </c>
     </row>
     <row r="3089" spans="1:2">
@@ -25079,7 +25079,7 @@
         <v>3092</v>
       </c>
       <c r="B3092">
-        <v>53.63991299307005</v>
+        <v>53.63991299307004</v>
       </c>
     </row>
     <row r="3093" spans="1:2">
@@ -25279,7 +25279,7 @@
         <v>3117</v>
       </c>
       <c r="B3117">
-        <v>50.16995189531972</v>
+        <v>50.16995189531971</v>
       </c>
     </row>
     <row r="3118" spans="1:2">
@@ -25295,7 +25295,7 @@
         <v>3119</v>
       </c>
       <c r="B3119">
-        <v>30.88089534374596</v>
+        <v>30.88089534374595</v>
       </c>
     </row>
     <row r="3120" spans="1:2">
@@ -25375,7 +25375,7 @@
         <v>3129</v>
       </c>
       <c r="B3129">
-        <v>23.13819295914415</v>
+        <v>23.13819295914414</v>
       </c>
     </row>
     <row r="3130" spans="1:2">
@@ -25391,7 +25391,7 @@
         <v>3131</v>
       </c>
       <c r="B3131">
-        <v>30.29739090577122</v>
+        <v>30.29739090577121</v>
       </c>
     </row>
     <row r="3132" spans="1:2">
@@ -25575,7 +25575,7 @@
         <v>3154</v>
       </c>
       <c r="B3154">
-        <v>16.47135435746813</v>
+        <v>16.47135435746812</v>
       </c>
     </row>
     <row r="3155" spans="1:2">
@@ -25583,7 +25583,7 @@
         <v>3155</v>
       </c>
       <c r="B3155">
-        <v>20.00640653290514</v>
+        <v>20.00640653290513</v>
       </c>
     </row>
     <row r="3156" spans="1:2">
@@ -25631,7 +25631,7 @@
         <v>3161</v>
       </c>
       <c r="B3161">
-        <v>41.64011931508127</v>
+        <v>41.64011931508126</v>
       </c>
     </row>
     <row r="3162" spans="1:2">
@@ -25647,7 +25647,7 @@
         <v>3163</v>
       </c>
       <c r="B3163">
-        <v>79.99168850534357</v>
+        <v>79.99168850534356</v>
       </c>
     </row>
     <row r="3164" spans="1:2">
@@ -25655,7 +25655,7 @@
         <v>3164</v>
       </c>
       <c r="B3164">
-        <v>60.28910871821865</v>
+        <v>60.28910871821864</v>
       </c>
     </row>
     <row r="3165" spans="1:2">
@@ -25671,7 +25671,7 @@
         <v>3166</v>
       </c>
       <c r="B3166">
-        <v>39.08981513665024</v>
+        <v>39.08981513665023</v>
       </c>
     </row>
     <row r="3167" spans="1:2">
@@ -25711,7 +25711,7 @@
         <v>3171</v>
       </c>
       <c r="B3171">
-        <v>5.885892204955129</v>
+        <v>5.885892204955128</v>
       </c>
     </row>
     <row r="3172" spans="1:2">
@@ -25727,7 +25727,7 @@
         <v>3173</v>
       </c>
       <c r="B3173">
-        <v>2.744580969959633</v>
+        <v>2.744580969959632</v>
       </c>
     </row>
     <row r="3174" spans="1:2">
@@ -25791,7 +25791,7 @@
         <v>3181</v>
       </c>
       <c r="B3181">
-        <v>6.511276494354574</v>
+        <v>6.511276494354573</v>
       </c>
     </row>
     <row r="3182" spans="1:2">
@@ -25839,7 +25839,7 @@
         <v>3187</v>
       </c>
       <c r="B3187">
-        <v>78.60282485312746</v>
+        <v>78.60282485312744</v>
       </c>
     </row>
     <row r="3188" spans="1:2">
@@ -25855,7 +25855,7 @@
         <v>3189</v>
       </c>
       <c r="B3189">
-        <v>48.63865571831419</v>
+        <v>48.63865571831418</v>
       </c>
     </row>
     <row r="3190" spans="1:2">
@@ -25887,7 +25887,7 @@
         <v>3193</v>
       </c>
       <c r="B3193">
-        <v>16.6969018288219</v>
+        <v>16.69690182882189</v>
       </c>
     </row>
     <row r="3194" spans="1:2">
@@ -25911,7 +25911,7 @@
         <v>3196</v>
       </c>
       <c r="B3196">
-        <v>4.474784460904617</v>
+        <v>4.474784460904616</v>
       </c>
     </row>
     <row r="3197" spans="1:2">
@@ -25919,7 +25919,7 @@
         <v>3197</v>
       </c>
       <c r="B3197">
-        <v>4.104459896452141</v>
+        <v>4.10445989645214</v>
       </c>
     </row>
     <row r="3198" spans="1:2">
@@ -25983,7 +25983,7 @@
         <v>3205</v>
       </c>
       <c r="B3205">
-        <v>9.406349442666809</v>
+        <v>9.406349442666803</v>
       </c>
     </row>
     <row r="3206" spans="1:2">
@@ -26063,7 +26063,7 @@
         <v>3215</v>
       </c>
       <c r="B3215">
-        <v>37.1514432869441</v>
+        <v>37.15144328694409</v>
       </c>
     </row>
     <row r="3216" spans="1:2">
@@ -26103,7 +26103,7 @@
         <v>3220</v>
       </c>
       <c r="B3220">
-        <v>6.530707104217821</v>
+        <v>6.53070710421782</v>
       </c>
     </row>
     <row r="3221" spans="1:2">
@@ -26119,7 +26119,7 @@
         <v>3222</v>
       </c>
       <c r="B3222">
-        <v>5.048383097772602</v>
+        <v>5.048383097772601</v>
       </c>
     </row>
     <row r="3223" spans="1:2">
@@ -26127,7 +26127,7 @@
         <v>3223</v>
       </c>
       <c r="B3223">
-        <v>2.073486390660178</v>
+        <v>2.073486390660177</v>
       </c>
     </row>
     <row r="3224" spans="1:2">
@@ -26199,7 +26199,7 @@
         <v>3232</v>
       </c>
       <c r="B3232">
-        <v>58.56174801634868</v>
+        <v>58.56174801634867</v>
       </c>
     </row>
     <row r="3233" spans="1:2">
@@ -26231,7 +26231,7 @@
         <v>3236</v>
       </c>
       <c r="B3236">
-        <v>82.4980320279754</v>
+        <v>82.49803202797538</v>
       </c>
     </row>
     <row r="3237" spans="1:2">
@@ -26439,7 +26439,7 @@
         <v>3262</v>
       </c>
       <c r="B3262">
-        <v>63.21161311574959</v>
+        <v>63.21161311574958</v>
       </c>
     </row>
     <row r="3263" spans="1:2">
@@ -26591,7 +26591,7 @@
         <v>3281</v>
       </c>
       <c r="B3281">
-        <v>59.29559789715669</v>
+        <v>59.29559789715668</v>
       </c>
     </row>
     <row r="3282" spans="1:2">
@@ -26639,7 +26639,7 @@
         <v>3287</v>
       </c>
       <c r="B3287">
-        <v>52.91895823796314</v>
+        <v>52.91895823796313</v>
       </c>
     </row>
     <row r="3288" spans="1:2">
@@ -26767,7 +26767,7 @@
         <v>3303</v>
       </c>
       <c r="B3303">
-        <v>46.593019868458</v>
+        <v>46.59301986845799</v>
       </c>
     </row>
     <row r="3304" spans="1:2">
@@ -26775,7 +26775,7 @@
         <v>3304</v>
       </c>
       <c r="B3304">
-        <v>61.99859208673028</v>
+        <v>61.99859208673027</v>
       </c>
     </row>
     <row r="3305" spans="1:2">
@@ -26847,7 +26847,7 @@
         <v>3313</v>
       </c>
       <c r="B3313">
-        <v>44.04799096872288</v>
+        <v>44.04799096872287</v>
       </c>
     </row>
     <row r="3314" spans="1:2">
@@ -26927,7 +26927,7 @@
         <v>3323</v>
       </c>
       <c r="B3323">
-        <v>50.13947250729894</v>
+        <v>50.13947250729893</v>
       </c>
     </row>
     <row r="3324" spans="1:2">
@@ -26959,7 +26959,7 @@
         <v>3327</v>
       </c>
       <c r="B3327">
-        <v>68.87843471930536</v>
+        <v>68.87843471930535</v>
       </c>
     </row>
     <row r="3328" spans="1:2">
@@ -27047,7 +27047,7 @@
         <v>3338</v>
       </c>
       <c r="B3338">
-        <v>24.38459477946698</v>
+        <v>24.38459477946697</v>
       </c>
     </row>
     <row r="3339" spans="1:2">
@@ -27111,7 +27111,7 @@
         <v>3346</v>
       </c>
       <c r="B3346">
-        <v>39.69383454733127</v>
+        <v>39.69383454733126</v>
       </c>
     </row>
     <row r="3347" spans="1:2">
@@ -27191,7 +27191,7 @@
         <v>3356</v>
       </c>
       <c r="B3356">
-        <v>76.57799704701623</v>
+        <v>76.57799704701621</v>
       </c>
     </row>
     <row r="3357" spans="1:2">
@@ -27199,7 +27199,7 @@
         <v>3357</v>
       </c>
       <c r="B3357">
-        <v>62.90330238307785</v>
+        <v>62.90330238307784</v>
       </c>
     </row>
     <row r="3358" spans="1:2">
@@ -27495,7 +27495,7 @@
         <v>3394</v>
       </c>
       <c r="B3394">
-        <v>56.84493787187052</v>
+        <v>56.84493787187051</v>
       </c>
     </row>
     <row r="3395" spans="1:2">
@@ -27583,7 +27583,7 @@
         <v>3405</v>
       </c>
       <c r="B3405">
-        <v>100.2578438998143</v>
+        <v>100.2578438998142</v>
       </c>
     </row>
     <row r="3406" spans="1:2">
@@ -27695,7 +27695,7 @@
         <v>3419</v>
       </c>
       <c r="B3419">
-        <v>49.10493174082439</v>
+        <v>49.10493174082438</v>
       </c>
     </row>
     <row r="3420" spans="1:2">
@@ -27735,7 +27735,7 @@
         <v>3424</v>
       </c>
       <c r="B3424">
-        <v>75.31163708896055</v>
+        <v>75.31163708896054</v>
       </c>
     </row>
     <row r="3425" spans="1:2">
@@ -27743,7 +27743,7 @@
         <v>3425</v>
       </c>
       <c r="B3425">
-        <v>77.22509790038048</v>
+        <v>77.22509790038046</v>
       </c>
     </row>
     <row r="3426" spans="1:2">
@@ -27783,7 +27783,7 @@
         <v>3430</v>
       </c>
       <c r="B3430">
-        <v>55.69580632927939</v>
+        <v>55.69580632927938</v>
       </c>
     </row>
     <row r="3431" spans="1:2">
@@ -27887,7 +27887,7 @@
         <v>3443</v>
       </c>
       <c r="B3443">
-        <v>27.46538684497891</v>
+        <v>27.4653868449789</v>
       </c>
     </row>
     <row r="3444" spans="1:2">
@@ -27951,7 +27951,7 @@
         <v>3451</v>
       </c>
       <c r="B3451">
-        <v>92.25817682851418</v>
+        <v>92.25817682851417</v>
       </c>
     </row>
     <row r="3452" spans="1:2">
@@ -28071,7 +28071,7 @@
         <v>3466</v>
       </c>
       <c r="B3466">
-        <v>25.71156182831782</v>
+        <v>25.71156182831781</v>
       </c>
     </row>
     <row r="3467" spans="1:2">
@@ -28295,7 +28295,7 @@
         <v>3494</v>
       </c>
       <c r="B3494">
-        <v>45.94826358340304</v>
+        <v>45.94826358340303</v>
       </c>
     </row>
     <row r="3495" spans="1:2">
@@ -28303,7 +28303,7 @@
         <v>3495</v>
       </c>
       <c r="B3495">
-        <v>62.03962203214287</v>
+        <v>62.03962203214286</v>
       </c>
     </row>
     <row r="3496" spans="1:2">
@@ -28375,7 +28375,7 @@
         <v>3504</v>
       </c>
       <c r="B3504">
-        <v>62.56685683069463</v>
+        <v>62.56685683069462</v>
       </c>
     </row>
     <row r="3505" spans="1:2">
@@ -28383,7 +28383,7 @@
         <v>3505</v>
       </c>
       <c r="B3505">
-        <v>56.36049144496332</v>
+        <v>56.36049144496331</v>
       </c>
     </row>
     <row r="3506" spans="1:2">
@@ -28487,7 +28487,7 @@
         <v>3518</v>
       </c>
       <c r="B3518">
-        <v>72.88881881234721</v>
+        <v>72.8888188123472</v>
       </c>
     </row>
     <row r="3519" spans="1:2">
@@ -28559,7 +28559,7 @@
         <v>3527</v>
       </c>
       <c r="B3527">
-        <v>82.19265200569028</v>
+        <v>82.19265200569026</v>
       </c>
     </row>
     <row r="3528" spans="1:2">
@@ -28623,7 +28623,7 @@
         <v>3535</v>
       </c>
       <c r="B3535">
-        <v>7.223497732509374</v>
+        <v>7.223497732509373</v>
       </c>
     </row>
     <row r="3536" spans="1:2">
@@ -28631,7 +28631,7 @@
         <v>3536</v>
       </c>
       <c r="B3536">
-        <v>29.0774534002395</v>
+        <v>29.07745340023949</v>
       </c>
     </row>
     <row r="3537" spans="1:2">
@@ -28679,7 +28679,7 @@
         <v>3542</v>
       </c>
       <c r="B3542">
-        <v>71.04686733436066</v>
+        <v>71.04686733436064</v>
       </c>
     </row>
     <row r="3543" spans="1:2">
@@ -28839,7 +28839,7 @@
         <v>3562</v>
       </c>
       <c r="B3562">
-        <v>62.15685044760741</v>
+        <v>62.1568504476074</v>
       </c>
     </row>
     <row r="3563" spans="1:2">
@@ -28855,7 +28855,7 @@
         <v>3564</v>
       </c>
       <c r="B3564">
-        <v>69.21956940830717</v>
+        <v>69.21956940830715</v>
       </c>
     </row>
     <row r="3565" spans="1:2">
@@ -28935,7 +28935,7 @@
         <v>3574</v>
       </c>
       <c r="B3574">
-        <v>86.81379614330237</v>
+        <v>86.81379614330235</v>
       </c>
     </row>
     <row r="3575" spans="1:2">
@@ -28951,7 +28951,7 @@
         <v>3576</v>
       </c>
       <c r="B3576">
-        <v>59.39729354757218</v>
+        <v>59.39729354757217</v>
       </c>
     </row>
     <row r="3577" spans="1:2">
@@ -28999,7 +28999,7 @@
         <v>3582</v>
       </c>
       <c r="B3582">
-        <v>36.33611965738824</v>
+        <v>36.33611965738823</v>
       </c>
     </row>
     <row r="3583" spans="1:2">
@@ -29055,7 +29055,7 @@
         <v>3589</v>
       </c>
       <c r="B3589">
-        <v>61.5677776598981</v>
+        <v>61.56777765989809</v>
       </c>
     </row>
     <row r="3590" spans="1:2">
@@ -29087,7 +29087,7 @@
         <v>3593</v>
       </c>
       <c r="B3593">
-        <v>89.05315194971371</v>
+        <v>89.05315194971369</v>
       </c>
     </row>
     <row r="3594" spans="1:2">
@@ -29127,7 +29127,7 @@
         <v>3598</v>
       </c>
       <c r="B3598">
-        <v>81.88141056263193</v>
+        <v>81.88141056263191</v>
       </c>
     </row>
     <row r="3599" spans="1:2">
@@ -29351,7 +29351,7 @@
         <v>3626</v>
       </c>
       <c r="B3626">
-        <v>37.96149163780406</v>
+        <v>37.96149163780405</v>
       </c>
     </row>
     <row r="3627" spans="1:2">
@@ -29423,7 +29423,7 @@
         <v>3635</v>
       </c>
       <c r="B3635">
-        <v>49.58117217864908</v>
+        <v>49.58117217864907</v>
       </c>
     </row>
     <row r="3636" spans="1:2">
@@ -29519,7 +29519,7 @@
         <v>3647</v>
       </c>
       <c r="B3647">
-        <v>76.88806620591993</v>
+        <v>76.88806620591991</v>
       </c>
     </row>
     <row r="3648" spans="1:2">
@@ -29551,7 +29551,7 @@
         <v>3651</v>
       </c>
       <c r="B3651">
-        <v>41.65799664843961</v>
+        <v>41.6579966484396</v>
       </c>
     </row>
     <row r="3652" spans="1:2">
@@ -29735,7 +29735,7 @@
         <v>3674</v>
       </c>
       <c r="B3674">
-        <v>63.32854846017546</v>
+        <v>63.32854846017545</v>
       </c>
     </row>
     <row r="3675" spans="1:2">
@@ -29767,7 +29767,7 @@
         <v>3678</v>
       </c>
       <c r="B3678">
-        <v>56.93637603593286</v>
+        <v>56.93637603593285</v>
       </c>
     </row>
     <row r="3679" spans="1:2">
@@ -29943,7 +29943,7 @@
         <v>3700</v>
       </c>
       <c r="B3700">
-        <v>50.4044087262488</v>
+        <v>50.40440872624879</v>
       </c>
     </row>
     <row r="3701" spans="1:2">
@@ -30015,7 +30015,7 @@
         <v>3709</v>
       </c>
       <c r="B3709">
-        <v>71.38800202336246</v>
+        <v>71.38800202336245</v>
       </c>
     </row>
     <row r="3710" spans="1:2">
@@ -30143,7 +30143,7 @@
         <v>3725</v>
       </c>
       <c r="B3725">
-        <v>61.04552506900358</v>
+        <v>61.04552506900357</v>
       </c>
     </row>
     <row r="3726" spans="1:2">
@@ -30159,7 +30159,7 @@
         <v>3727</v>
       </c>
       <c r="B3727">
-        <v>8.758574525913636</v>
+        <v>8.758574525913634</v>
       </c>
     </row>
     <row r="3728" spans="1:2">
@@ -30287,7 +30287,7 @@
         <v>3743</v>
       </c>
       <c r="B3743">
-        <v>90.14601385288186</v>
+        <v>90.14601385288184</v>
       </c>
     </row>
     <row r="3744" spans="1:2">
@@ -30311,7 +30311,7 @@
         <v>3746</v>
       </c>
       <c r="B3746">
-        <v>58.09312742552919</v>
+        <v>58.09312742552918</v>
       </c>
     </row>
     <row r="3747" spans="1:2">
@@ -30559,7 +30559,7 @@
         <v>3777</v>
       </c>
       <c r="B3777">
-        <v>43.73704259670319</v>
+        <v>43.73704259670318</v>
       </c>
     </row>
     <row r="3778" spans="1:2">
@@ -30663,7 +30663,7 @@
         <v>3790</v>
       </c>
       <c r="B3790">
-        <v>98.28137281508216</v>
+        <v>98.28137281508214</v>
       </c>
     </row>
     <row r="3791" spans="1:2">
@@ -30727,7 +30727,7 @@
         <v>3798</v>
       </c>
       <c r="B3798">
-        <v>38.93712512550768</v>
+        <v>38.93712512550767</v>
       </c>
     </row>
     <row r="3799" spans="1:2">
@@ -30735,7 +30735,7 @@
         <v>3799</v>
       </c>
       <c r="B3799">
-        <v>7.232993234162002</v>
+        <v>7.232993234162001</v>
       </c>
     </row>
     <row r="3800" spans="1:2">
@@ -30871,7 +30871,7 @@
         <v>3816</v>
       </c>
       <c r="B3816">
-        <v>66.3814694699107</v>
+        <v>66.38146946991068</v>
       </c>
     </row>
     <row r="3817" spans="1:2">
@@ -30903,7 +30903,7 @@
         <v>3820</v>
       </c>
       <c r="B3820">
-        <v>39.84417999016454</v>
+        <v>39.84417999016453</v>
       </c>
     </row>
     <row r="3821" spans="1:2">
@@ -31119,7 +31119,7 @@
         <v>3847</v>
       </c>
       <c r="B3847">
-        <v>6.094676012897471</v>
+        <v>6.09467601289747</v>
       </c>
     </row>
     <row r="3848" spans="1:2">
@@ -31143,7 +31143,7 @@
         <v>3850</v>
       </c>
       <c r="B3850">
-        <v>30.78769875345165</v>
+        <v>30.78769875345164</v>
       </c>
     </row>
     <row r="3851" spans="1:2">
@@ -31287,7 +31287,7 @@
         <v>3868</v>
       </c>
       <c r="B3868">
-        <v>39.46963520275534</v>
+        <v>39.46963520275533</v>
       </c>
     </row>
     <row r="3869" spans="1:2">
@@ -31303,7 +31303,7 @@
         <v>3870</v>
       </c>
       <c r="B3870">
-        <v>39.65544224126664</v>
+        <v>39.65544224126663</v>
       </c>
     </row>
     <row r="3871" spans="1:2">
@@ -31327,7 +31327,7 @@
         <v>3873</v>
       </c>
       <c r="B3873">
-        <v>17.96534259125207</v>
+        <v>17.96534259125206</v>
       </c>
     </row>
     <row r="3874" spans="1:2">
@@ -31447,7 +31447,7 @@
         <v>3888</v>
       </c>
       <c r="B3888">
-        <v>63.71803987055639</v>
+        <v>63.71803987055638</v>
       </c>
     </row>
     <row r="3889" spans="1:2">
@@ -31495,7 +31495,7 @@
         <v>3894</v>
       </c>
       <c r="B3894">
-        <v>40.19586523655816</v>
+        <v>40.19586523655815</v>
       </c>
     </row>
     <row r="3895" spans="1:2">
@@ -31623,7 +31623,7 @@
         <v>3910</v>
       </c>
       <c r="B3910">
-        <v>85.69573013080934</v>
+        <v>85.69573013080932</v>
       </c>
     </row>
     <row r="3911" spans="1:2">
@@ -31655,7 +31655,7 @@
         <v>3914</v>
       </c>
       <c r="B3914">
-        <v>37.82902352832913</v>
+        <v>37.82902352832912</v>
       </c>
     </row>
     <row r="3915" spans="1:2">
@@ -31663,7 +31663,7 @@
         <v>3915</v>
       </c>
       <c r="B3915">
-        <v>31.15608904904896</v>
+        <v>31.15608904904895</v>
       </c>
     </row>
     <row r="3916" spans="1:2">
@@ -31687,7 +31687,7 @@
         <v>3918</v>
       </c>
       <c r="B3918">
-        <v>24.74466185756631</v>
+        <v>24.7446618575663</v>
       </c>
     </row>
     <row r="3919" spans="1:2">
@@ -31735,7 +31735,7 @@
         <v>3924</v>
       </c>
       <c r="B3924">
-        <v>40.36643258105906</v>
+        <v>40.36643258105905</v>
       </c>
     </row>
     <row r="3925" spans="1:2">
@@ -31775,7 +31775,7 @@
         <v>3929</v>
       </c>
       <c r="B3929">
-        <v>81.54291351297807</v>
+        <v>81.54291351297806</v>
       </c>
     </row>
     <row r="3930" spans="1:2">
@@ -31807,7 +31807,7 @@
         <v>3933</v>
       </c>
       <c r="B3933">
-        <v>86.0978235958527</v>
+        <v>86.09782359585269</v>
       </c>
     </row>
     <row r="3934" spans="1:2">
@@ -31831,7 +31831,7 @@
         <v>3936</v>
       </c>
       <c r="B3936">
-        <v>47.3163191918742</v>
+        <v>47.31631919187419</v>
       </c>
     </row>
     <row r="3937" spans="1:2">
@@ -31839,7 +31839,7 @@
         <v>3937</v>
       </c>
       <c r="B3937">
-        <v>39.44912023004905</v>
+        <v>39.44912023004904</v>
       </c>
     </row>
     <row r="3938" spans="1:2">
@@ -31863,7 +31863,7 @@
         <v>3940</v>
       </c>
       <c r="B3940">
-        <v>19.52565280108507</v>
+        <v>19.52565280108506</v>
       </c>
     </row>
     <row r="3941" spans="1:2">
@@ -31887,7 +31887,7 @@
         <v>3943</v>
       </c>
       <c r="B3943">
-        <v>6.826005482772992</v>
+        <v>6.826005482772991</v>
       </c>
     </row>
     <row r="3944" spans="1:2">
@@ -31999,7 +31999,7 @@
         <v>3957</v>
       </c>
       <c r="B3957">
-        <v>79.78976255970591</v>
+        <v>79.78976255970589</v>
       </c>
     </row>
     <row r="3958" spans="1:2">
@@ -32127,7 +32127,7 @@
         <v>3973</v>
       </c>
       <c r="B3973">
-        <v>25.7528555376652</v>
+        <v>25.75285553766519</v>
       </c>
     </row>
     <row r="3974" spans="1:2">
@@ -32151,7 +32151,7 @@
         <v>3976</v>
       </c>
       <c r="B3976">
-        <v>64.72298046212615</v>
+        <v>64.72298046212613</v>
       </c>
     </row>
     <row r="3977" spans="1:2">
@@ -32207,7 +32207,7 @@
         <v>3983</v>
       </c>
       <c r="B3983">
-        <v>51.88441747148859</v>
+        <v>51.88441747148858</v>
       </c>
     </row>
     <row r="3984" spans="1:2">
@@ -32319,7 +32319,7 @@
         <v>3997</v>
       </c>
       <c r="B3997">
-        <v>36.51196228058505</v>
+        <v>36.51196228058504</v>
       </c>
     </row>
     <row r="3998" spans="1:2">
@@ -32383,7 +32383,7 @@
         <v>4005</v>
       </c>
       <c r="B4005">
-        <v>83.04578179923345</v>
+        <v>83.04578179923344</v>
       </c>
     </row>
     <row r="4006" spans="1:2">
@@ -32407,7 +32407,7 @@
         <v>4008</v>
       </c>
       <c r="B4008">
-        <v>48.46017545576943</v>
+        <v>48.46017545576942</v>
       </c>
     </row>
     <row r="4009" spans="1:2">
@@ -32463,7 +32463,7 @@
         <v>4015</v>
       </c>
       <c r="B4015">
-        <v>5.929589096819535</v>
+        <v>5.929589096819534</v>
       </c>
     </row>
     <row r="4016" spans="1:2">
@@ -32479,7 +32479,7 @@
         <v>4017</v>
       </c>
       <c r="B4017">
-        <v>23.48489599788052</v>
+        <v>23.48489599788051</v>
       </c>
     </row>
     <row r="4018" spans="1:2">
@@ -32695,7 +32695,7 @@
         <v>4044</v>
       </c>
       <c r="B4044">
-        <v>48.02965409997592</v>
+        <v>48.02965409997591</v>
       </c>
     </row>
     <row r="4045" spans="1:2">
@@ -32711,7 +32711,7 @@
         <v>4046</v>
       </c>
       <c r="B4046">
-        <v>60.75245403034224</v>
+        <v>60.75245403034223</v>
       </c>
     </row>
     <row r="4047" spans="1:2">
@@ -32783,7 +32783,7 @@
         <v>4055</v>
       </c>
       <c r="B4055">
-        <v>79.1658143183959</v>
+        <v>79.16581431839589</v>
       </c>
     </row>
     <row r="4056" spans="1:2">
@@ -32799,7 +32799,7 @@
         <v>4057</v>
       </c>
       <c r="B4057">
-        <v>59.08165603893391</v>
+        <v>59.0816560389339</v>
       </c>
     </row>
     <row r="4058" spans="1:2">
@@ -32807,7 +32807,7 @@
         <v>4058</v>
       </c>
       <c r="B4058">
-        <v>50.49848452965909</v>
+        <v>50.49848452965908</v>
       </c>
     </row>
     <row r="4059" spans="1:2">
@@ -32823,7 +32823,7 @@
         <v>4060</v>
       </c>
       <c r="B4060">
-        <v>39.16630667774085</v>
+        <v>39.16630667774084</v>
       </c>
     </row>
     <row r="4061" spans="1:2">
@@ -32887,7 +32887,7 @@
         <v>4068</v>
       </c>
       <c r="B4068">
-        <v>60.47227811738199</v>
+        <v>60.47227811738198</v>
       </c>
     </row>
     <row r="4069" spans="1:2">
@@ -32927,7 +32927,7 @@
         <v>4073</v>
       </c>
       <c r="B4073">
-        <v>90.18499230102384</v>
+        <v>90.1849923010238</v>
       </c>
     </row>
     <row r="4074" spans="1:2">
@@ -33063,7 +33063,7 @@
         <v>4090</v>
       </c>
       <c r="B4090">
-        <v>52.83191613948072</v>
+        <v>52.83191613948071</v>
       </c>
     </row>
     <row r="4091" spans="1:2">
@@ -33071,7 +33071,7 @@
         <v>4091</v>
       </c>
       <c r="B4091">
-        <v>46.75362279764442</v>
+        <v>46.75362279764441</v>
       </c>
     </row>
     <row r="4092" spans="1:2">
@@ -33175,7 +33175,7 @@
         <v>4104</v>
       </c>
       <c r="B4104">
-        <v>74.2976112951923</v>
+        <v>74.29761129519228</v>
       </c>
     </row>
     <row r="4105" spans="1:2">
@@ -33231,7 +33231,7 @@
         <v>4111</v>
       </c>
       <c r="B4111">
-        <v>6.323740336715178</v>
+        <v>6.323740336715177</v>
       </c>
     </row>
     <row r="4112" spans="1:2">
@@ -33295,7 +33295,7 @@
         <v>4119</v>
       </c>
       <c r="B4119">
-        <v>77.0384116487532</v>
+        <v>77.03841164875318</v>
       </c>
     </row>
     <row r="4120" spans="1:2">
@@ -33399,7 +33399,7 @@
         <v>4132</v>
       </c>
       <c r="B4132">
-        <v>37.90522199838108</v>
+        <v>37.90522199838107</v>
       </c>
     </row>
     <row r="4133" spans="1:2">
@@ -33431,7 +33431,7 @@
         <v>4136</v>
       </c>
       <c r="B4136">
-        <v>31.83103165108604</v>
+        <v>31.83103165108603</v>
       </c>
     </row>
     <row r="4137" spans="1:2">
@@ -33455,7 +33455,7 @@
         <v>4139</v>
       </c>
       <c r="B4139">
-        <v>49.85138367629484</v>
+        <v>49.85138367629483</v>
       </c>
     </row>
     <row r="4140" spans="1:2">
@@ -33487,7 +33487,7 @@
         <v>4143</v>
       </c>
       <c r="B4143">
-        <v>88.9895555343242</v>
+        <v>88.98955553432418</v>
       </c>
     </row>
     <row r="4144" spans="1:2">
@@ -33615,7 +33615,7 @@
         <v>4159</v>
       </c>
       <c r="B4159">
-        <v>8.071235018941183</v>
+        <v>8.071235018941181</v>
       </c>
     </row>
     <row r="4160" spans="1:2">
@@ -33719,7 +33719,7 @@
         <v>4172</v>
       </c>
       <c r="B4172">
-        <v>92.68664668703708</v>
+        <v>92.68664668703704</v>
       </c>
     </row>
     <row r="4173" spans="1:2">
@@ -33743,7 +33743,7 @@
         <v>4175</v>
       </c>
       <c r="B4175">
-        <v>55.83354971745022</v>
+        <v>55.83354971745021</v>
       </c>
     </row>
     <row r="4176" spans="1:2">
@@ -33919,7 +33919,7 @@
         <v>4197</v>
       </c>
       <c r="B4197">
-        <v>84.13659220513098</v>
+        <v>84.13659220513097</v>
       </c>
     </row>
     <row r="4198" spans="1:2">
@@ -34007,7 +34007,7 @@
         <v>4208</v>
       </c>
       <c r="B4208">
-        <v>20.60389045942403</v>
+        <v>20.60389045942402</v>
       </c>
     </row>
     <row r="4209" spans="1:2">
@@ -34055,7 +34055,7 @@
         <v>4214</v>
       </c>
       <c r="B4214">
-        <v>56.12339697468629</v>
+        <v>56.12339697468628</v>
       </c>
     </row>
     <row r="4215" spans="1:2">
@@ -34071,7 +34071,7 @@
         <v>4216</v>
       </c>
       <c r="B4216">
-        <v>88.02124882258711</v>
+        <v>88.0212488225871</v>
       </c>
     </row>
     <row r="4217" spans="1:2">
@@ -34087,7 +34087,7 @@
         <v>4218</v>
       </c>
       <c r="B4218">
-        <v>154.5099822926479</v>
+        <v>154.5099822926478</v>
       </c>
     </row>
     <row r="4219" spans="1:2">
@@ -34167,7 +34167,7 @@
         <v>4228</v>
       </c>
       <c r="B4228">
-        <v>27.22767692552069</v>
+        <v>27.22767692552068</v>
       </c>
     </row>
     <row r="4229" spans="1:2">
@@ -34247,7 +34247,7 @@
         <v>4238</v>
       </c>
       <c r="B4238">
-        <v>55.77991771737519</v>
+        <v>55.77991771737518</v>
       </c>
     </row>
     <row r="4239" spans="1:2">
@@ -34279,7 +34279,7 @@
         <v>4242</v>
       </c>
       <c r="B4242">
-        <v>167.5824159721372</v>
+        <v>167.5824159721371</v>
       </c>
     </row>
     <row r="4243" spans="1:2">
@@ -34319,7 +34319,7 @@
         <v>4247</v>
       </c>
       <c r="B4247">
-        <v>86.59985428507959</v>
+        <v>86.59985428507957</v>
       </c>
     </row>
     <row r="4248" spans="1:2">
@@ -34383,7 +34383,7 @@
         <v>4255</v>
       </c>
       <c r="B4255">
-        <v>7.27077009104545</v>
+        <v>7.270770091045449</v>
       </c>
     </row>
     <row r="4256" spans="1:2">
@@ -34415,7 +34415,7 @@
         <v>4259</v>
       </c>
       <c r="B4259">
-        <v>50.13419722860304</v>
+        <v>50.13419722860303</v>
       </c>
     </row>
     <row r="4260" spans="1:2">
@@ -34511,7 +34511,7 @@
         <v>4271</v>
       </c>
       <c r="B4271">
-        <v>103.8986654131042</v>
+        <v>103.8986654131041</v>
       </c>
     </row>
     <row r="4272" spans="1:2">
@@ -34991,7 +34991,7 @@
         <v>4331</v>
       </c>
       <c r="B4331">
-        <v>83.71398376738132</v>
+        <v>83.71398376738131</v>
       </c>
     </row>
     <row r="4332" spans="1:2">
@@ -35023,7 +35023,7 @@
         <v>4335</v>
       </c>
       <c r="B4335">
-        <v>98.73973591954849</v>
+        <v>98.73973591954848</v>
       </c>
     </row>
     <row r="4336" spans="1:2">
@@ -35127,7 +35127,7 @@
         <v>4348</v>
       </c>
       <c r="B4348">
-        <v>56.18201118241856</v>
+        <v>56.18201118241855</v>
       </c>
     </row>
     <row r="4349" spans="1:2">
@@ -35295,7 +35295,7 @@
         <v>4369</v>
       </c>
       <c r="B4369">
-        <v>76.74299604178256</v>
+        <v>76.74299604178255</v>
       </c>
     </row>
     <row r="4370" spans="1:2">
@@ -35367,7 +35367,7 @@
         <v>4378</v>
       </c>
       <c r="B4378">
-        <v>36.01755143836336</v>
+        <v>36.01755143836335</v>
       </c>
     </row>
     <row r="4379" spans="1:2">
@@ -35383,7 +35383,7 @@
         <v>4380</v>
       </c>
       <c r="B4380">
-        <v>58.59515811475608</v>
+        <v>58.59515811475607</v>
       </c>
     </row>
     <row r="4381" spans="1:2">
@@ -35479,7 +35479,7 @@
         <v>4392</v>
       </c>
       <c r="B4392">
-        <v>93.60337289596976</v>
+        <v>93.60337289596974</v>
       </c>
     </row>
     <row r="4393" spans="1:2">
@@ -35495,7 +35495,7 @@
         <v>4394</v>
       </c>
       <c r="B4394">
-        <v>78.0497998031735</v>
+        <v>78.04979980317349</v>
       </c>
     </row>
     <row r="4395" spans="1:2">
@@ -35679,7 +35679,7 @@
         <v>4417</v>
       </c>
       <c r="B4417">
-        <v>80.82694096552841</v>
+        <v>80.82694096552839</v>
       </c>
     </row>
     <row r="4418" spans="1:2">
@@ -35687,7 +35687,7 @@
         <v>4418</v>
       </c>
       <c r="B4418">
-        <v>71.20981483185636</v>
+        <v>71.20981483185635</v>
       </c>
     </row>
     <row r="4419" spans="1:2">
@@ -35919,7 +35919,7 @@
         <v>4447</v>
       </c>
       <c r="B4447">
-        <v>8.955401035478594</v>
+        <v>8.955401035478593</v>
       </c>
     </row>
     <row r="4448" spans="1:2">
@@ -36023,7 +36023,7 @@
         <v>4460</v>
       </c>
       <c r="B4460">
-        <v>126.4074003954115</v>
+        <v>126.4074003954114</v>
       </c>
     </row>
     <row r="4461" spans="1:2">
@@ -36031,7 +36031,7 @@
         <v>4461</v>
       </c>
       <c r="B4461">
-        <v>108.9178000212184</v>
+        <v>108.9178000212183</v>
       </c>
     </row>
     <row r="4462" spans="1:2">
@@ -36047,7 +36047,7 @@
         <v>4463</v>
       </c>
       <c r="B4463">
-        <v>80.0930910847204</v>
+        <v>80.09309108472038</v>
       </c>
     </row>
     <row r="4464" spans="1:2">
@@ -36071,7 +36071,7 @@
         <v>4466</v>
       </c>
       <c r="B4466">
-        <v>52.72758284971728</v>
+        <v>52.72758284971727</v>
       </c>
     </row>
     <row r="4467" spans="1:2">
@@ -36135,7 +36135,7 @@
         <v>4474</v>
       </c>
       <c r="B4474">
-        <v>63.74646776130654</v>
+        <v>63.74646776130653</v>
       </c>
     </row>
     <row r="4475" spans="1:2">
@@ -36175,7 +36175,7 @@
         <v>4479</v>
       </c>
       <c r="B4479">
-        <v>83.61140890384985</v>
+        <v>83.61140890384983</v>
       </c>
     </row>
     <row r="4480" spans="1:2">
@@ -36239,7 +36239,7 @@
         <v>4487</v>
       </c>
       <c r="B4487">
-        <v>86.75078586999018</v>
+        <v>86.75078586999017</v>
       </c>
     </row>
     <row r="4488" spans="1:2">
@@ -36255,7 +36255,7 @@
         <v>4489</v>
       </c>
       <c r="B4489">
-        <v>66.00458011419221</v>
+        <v>66.00458011419219</v>
       </c>
     </row>
     <row r="4490" spans="1:2">
@@ -36279,7 +36279,7 @@
         <v>4492</v>
       </c>
       <c r="B4492">
-        <v>46.08571390053521</v>
+        <v>46.0857139005352</v>
       </c>
     </row>
     <row r="4493" spans="1:2">
@@ -36303,7 +36303,7 @@
         <v>4495</v>
       </c>
       <c r="B4495">
-        <v>7.493357544908742</v>
+        <v>7.493357544908741</v>
       </c>
     </row>
     <row r="4496" spans="1:2">
@@ -36327,7 +36327,7 @@
         <v>4498</v>
       </c>
       <c r="B4498">
-        <v>55.27788702814831</v>
+        <v>55.2778870281483</v>
       </c>
     </row>
     <row r="4499" spans="1:2">
@@ -36527,7 +36527,7 @@
         <v>4523</v>
       </c>
       <c r="B4523">
-        <v>62.26089066633218</v>
+        <v>62.26089066633217</v>
       </c>
     </row>
     <row r="4524" spans="1:2">
@@ -36535,7 +36535,7 @@
         <v>4524</v>
       </c>
       <c r="B4524">
-        <v>71.36221177196026</v>
+        <v>71.36221177196025</v>
       </c>
     </row>
     <row r="4525" spans="1:2">
@@ -36631,7 +36631,7 @@
         <v>4536</v>
       </c>
       <c r="B4536">
-        <v>79.72675228639372</v>
+        <v>79.7267522863937</v>
       </c>
     </row>
     <row r="4537" spans="1:2">
@@ -36647,7 +36647,7 @@
         <v>4538</v>
       </c>
       <c r="B4538">
-        <v>63.9249480238513</v>
+        <v>63.92494802385129</v>
       </c>
     </row>
     <row r="4539" spans="1:2">
@@ -36687,7 +36687,7 @@
         <v>4543</v>
       </c>
       <c r="B4543">
-        <v>9.768849010387024</v>
+        <v>9.768849010387022</v>
       </c>
     </row>
     <row r="4544" spans="1:2">
@@ -36863,7 +36863,7 @@
         <v>4565</v>
       </c>
       <c r="B4565">
-        <v>54.07512348548215</v>
+        <v>54.07512348548214</v>
       </c>
     </row>
     <row r="4566" spans="1:2">
@@ -36887,7 +36887,7 @@
         <v>4568</v>
       </c>
       <c r="B4568">
-        <v>23.46174338582627</v>
+        <v>23.46174338582626</v>
       </c>
     </row>
     <row r="4569" spans="1:2">
@@ -36943,7 +36943,7 @@
         <v>4575</v>
       </c>
       <c r="B4575">
-        <v>67.57690623661033</v>
+        <v>67.57690623661031</v>
       </c>
     </row>
     <row r="4576" spans="1:2">
@@ -36951,7 +36951,7 @@
         <v>4576</v>
       </c>
       <c r="B4576">
-        <v>80.6639934680327</v>
+        <v>80.66399346803269</v>
       </c>
     </row>
     <row r="4577" spans="1:2">
@@ -36959,7 +36959,7 @@
         <v>4577</v>
       </c>
       <c r="B4577">
-        <v>86.41111653618168</v>
+        <v>86.41111653618167</v>
       </c>
     </row>
     <row r="4578" spans="1:2">
@@ -37007,7 +37007,7 @@
         <v>4583</v>
       </c>
       <c r="B4583">
-        <v>94.66048013242124</v>
+        <v>94.6604801324212</v>
       </c>
     </row>
     <row r="4584" spans="1:2">
@@ -37103,7 +37103,7 @@
         <v>4595</v>
       </c>
       <c r="B4595">
-        <v>83.85377865282278</v>
+        <v>83.85377865282277</v>
       </c>
     </row>
     <row r="4596" spans="1:2">
@@ -37119,7 +37119,7 @@
         <v>4597</v>
       </c>
       <c r="B4597">
-        <v>82.95170599582316</v>
+        <v>82.95170599582315</v>
       </c>
     </row>
     <row r="4598" spans="1:2">
@@ -37175,7 +37175,7 @@
         <v>4604</v>
       </c>
       <c r="B4604">
-        <v>150.2246975653417</v>
+        <v>150.2246975653416</v>
       </c>
     </row>
     <row r="4605" spans="1:2">
@@ -37239,7 +37239,7 @@
         <v>4612</v>
       </c>
       <c r="B4612">
-        <v>57.76664628846045</v>
+        <v>57.76664628846044</v>
       </c>
     </row>
     <row r="4613" spans="1:2">
@@ -37247,7 +37247,7 @@
         <v>4613</v>
       </c>
       <c r="B4613">
-        <v>55.80746639500936</v>
+        <v>55.80746639500935</v>
       </c>
     </row>
     <row r="4614" spans="1:2">
@@ -37263,7 +37263,7 @@
         <v>4615</v>
       </c>
       <c r="B4615">
-        <v>8.674551059129428</v>
+        <v>8.674551059129426</v>
       </c>
     </row>
     <row r="4616" spans="1:2">
@@ -37287,7 +37287,7 @@
         <v>4618</v>
       </c>
       <c r="B4618">
-        <v>41.08504276785668</v>
+        <v>41.08504276785667</v>
       </c>
     </row>
     <row r="4619" spans="1:2">
@@ -37327,7 +37327,7 @@
         <v>4623</v>
       </c>
       <c r="B4623">
-        <v>52.42982267443736</v>
+        <v>52.42982267443735</v>
       </c>
     </row>
     <row r="4624" spans="1:2">
@@ -37343,7 +37343,7 @@
         <v>4625</v>
       </c>
       <c r="B4625">
-        <v>62.96895029573799</v>
+        <v>62.96895029573798</v>
       </c>
     </row>
     <row r="4626" spans="1:2">
@@ -37391,7 +37391,7 @@
         <v>4631</v>
       </c>
       <c r="B4631">
-        <v>73.06964364320126</v>
+        <v>73.06964364320125</v>
       </c>
     </row>
     <row r="4632" spans="1:2">
@@ -37495,7 +37495,7 @@
         <v>4644</v>
       </c>
       <c r="B4644">
-        <v>32.7896670185473</v>
+        <v>32.78966701854729</v>
       </c>
     </row>
     <row r="4645" spans="1:2">
@@ -37583,7 +37583,7 @@
         <v>4655</v>
       </c>
       <c r="B4655">
-        <v>89.3087098954264</v>
+        <v>89.30870989542639</v>
       </c>
     </row>
     <row r="4656" spans="1:2">
@@ -37711,7 +37711,7 @@
         <v>4671</v>
       </c>
       <c r="B4671">
-        <v>91.88920039083956</v>
+        <v>91.88920039083952</v>
       </c>
     </row>
     <row r="4672" spans="1:2">
@@ -37719,7 +37719,7 @@
         <v>4672</v>
       </c>
       <c r="B4672">
-        <v>102.9561489527693</v>
+        <v>102.9561489527692</v>
       </c>
     </row>
     <row r="4673" spans="1:2">
@@ -37727,7 +37727,7 @@
         <v>4673</v>
       </c>
       <c r="B4673">
-        <v>128.3695109992492</v>
+        <v>128.3695109992491</v>
       </c>
     </row>
     <row r="4674" spans="1:2">
@@ -37807,7 +37807,7 @@
         <v>4683</v>
       </c>
       <c r="B4683">
-        <v>73.96849251877561</v>
+        <v>73.96849251877559</v>
       </c>
     </row>
     <row r="4684" spans="1:2">
@@ -37831,7 +37831,7 @@
         <v>4686</v>
       </c>
       <c r="B4686">
-        <v>68.59562116699716</v>
+        <v>68.59562116699715</v>
       </c>
     </row>
     <row r="4687" spans="1:2">
@@ -37839,7 +37839,7 @@
         <v>4687</v>
       </c>
       <c r="B4687">
-        <v>25.17946205052428</v>
+        <v>25.17946205052427</v>
       </c>
     </row>
     <row r="4688" spans="1:2">
@@ -37911,7 +37911,7 @@
         <v>4696</v>
       </c>
       <c r="B4696">
-        <v>144.6211793061368</v>
+        <v>144.6211793061367</v>
       </c>
     </row>
     <row r="4697" spans="1:2">
@@ -38023,7 +38023,7 @@
         <v>4710</v>
       </c>
       <c r="B4710">
-        <v>75.29317361352489</v>
+        <v>75.29317361352487</v>
       </c>
     </row>
     <row r="4711" spans="1:2">
@@ -38255,7 +38255,7 @@
         <v>4739</v>
       </c>
       <c r="B4739">
-        <v>95.9148241778918</v>
+        <v>95.91482417789176</v>
       </c>
     </row>
     <row r="4740" spans="1:2">
@@ -38319,7 +38319,7 @@
         <v>4747</v>
       </c>
       <c r="B4747">
-        <v>170.6628856595066</v>
+        <v>170.6628856595065</v>
       </c>
     </row>
     <row r="4748" spans="1:2">
@@ -38383,7 +38383,7 @@
         <v>4755</v>
       </c>
       <c r="B4755">
-        <v>56.45251575110298</v>
+        <v>56.45251575110297</v>
       </c>
     </row>
     <row r="4756" spans="1:2">
@@ -38407,7 +38407,7 @@
         <v>4758</v>
       </c>
       <c r="B4758">
-        <v>50.79653777597768</v>
+        <v>50.79653777597767</v>
       </c>
     </row>
     <row r="4759" spans="1:2">
@@ -38439,7 +38439,7 @@
         <v>4762</v>
       </c>
       <c r="B4762">
-        <v>75.53290572314987</v>
+        <v>75.53290572314985</v>
       </c>
     </row>
     <row r="4763" spans="1:2">
@@ -38463,7 +38463,7 @@
         <v>4765</v>
       </c>
       <c r="B4765">
-        <v>68.59093203037858</v>
+        <v>68.59093203037857</v>
       </c>
     </row>
     <row r="4766" spans="1:2">
@@ -38543,7 +38543,7 @@
         <v>4775</v>
       </c>
       <c r="B4775">
-        <v>85.13274066554089</v>
+        <v>85.13274066554088</v>
       </c>
     </row>
     <row r="4776" spans="1:2">
@@ -38559,7 +38559,7 @@
         <v>4777</v>
       </c>
       <c r="B4777">
-        <v>66.4860958307128</v>
+        <v>66.48609583071278</v>
       </c>
     </row>
     <row r="4778" spans="1:2">
@@ -38575,7 +38575,7 @@
         <v>4779</v>
       </c>
       <c r="B4779">
-        <v>52.79909218315065</v>
+        <v>52.79909218315064</v>
       </c>
     </row>
     <row r="4780" spans="1:2">
@@ -38583,7 +38583,7 @@
         <v>4780</v>
       </c>
       <c r="B4780">
-        <v>48.14717558647912</v>
+        <v>48.14717558647911</v>
       </c>
     </row>
     <row r="4781" spans="1:2">
@@ -38711,7 +38711,7 @@
         <v>4796</v>
       </c>
       <c r="B4796">
-        <v>131.0587308500057</v>
+        <v>131.0587308500056</v>
       </c>
     </row>
     <row r="4797" spans="1:2">
@@ -38759,7 +38759,7 @@
         <v>4802</v>
       </c>
       <c r="B4802">
-        <v>56.93139382827562</v>
+        <v>56.93139382827561</v>
       </c>
     </row>
     <row r="4803" spans="1:2">
@@ -38839,7 +38839,7 @@
         <v>4812</v>
       </c>
       <c r="B4812">
-        <v>69.50560674204064</v>
+        <v>69.50560674204063</v>
       </c>
     </row>
     <row r="4813" spans="1:2">
@@ -38847,7 +38847,7 @@
         <v>4813</v>
       </c>
       <c r="B4813">
-        <v>55.97598224223963</v>
+        <v>55.97598224223962</v>
       </c>
     </row>
     <row r="4814" spans="1:2">
@@ -38943,7 +38943,7 @@
         <v>4825</v>
       </c>
       <c r="B4825">
-        <v>60.69413289364863</v>
+        <v>60.69413289364862</v>
       </c>
     </row>
     <row r="4826" spans="1:2">
@@ -38983,7 +38983,7 @@
         <v>4830</v>
       </c>
       <c r="B4830">
-        <v>38.12443913529977</v>
+        <v>38.12443913529976</v>
       </c>
     </row>
     <row r="4831" spans="1:2">
@@ -39215,7 +39215,7 @@
         <v>4859</v>
       </c>
       <c r="B4859">
-        <v>73.22731586200106</v>
+        <v>73.22731586200105</v>
       </c>
     </row>
     <row r="4860" spans="1:2">
@@ -39311,7 +39311,7 @@
         <v>4871</v>
       </c>
       <c r="B4871">
-        <v>81.96083281410915</v>
+        <v>81.96083281410914</v>
       </c>
     </row>
     <row r="4872" spans="1:2">
@@ -39343,7 +39343,7 @@
         <v>4875</v>
       </c>
       <c r="B4875">
-        <v>54.88575797841943</v>
+        <v>54.88575797841942</v>
       </c>
     </row>
     <row r="4876" spans="1:2">
@@ -39359,7 +39359,7 @@
         <v>4877</v>
       </c>
       <c r="B4877">
-        <v>48.92410690997034</v>
+        <v>48.92410690997033</v>
       </c>
     </row>
     <row r="4878" spans="1:2">
@@ -39367,7 +39367,7 @@
         <v>4878</v>
       </c>
       <c r="B4878">
-        <v>51.29856846520456</v>
+        <v>51.29856846520455</v>
       </c>
     </row>
     <row r="4879" spans="1:2">
@@ -39399,7 +39399,7 @@
         <v>4882</v>
       </c>
       <c r="B4882">
-        <v>84.45721192142649</v>
+        <v>84.45721192142648</v>
       </c>
     </row>
     <row r="4883" spans="1:2">
@@ -39471,7 +39471,7 @@
         <v>4891</v>
       </c>
       <c r="B4891">
-        <v>171.2504930920226</v>
+        <v>171.2504930920225</v>
       </c>
     </row>
     <row r="4892" spans="1:2">
@@ -39559,7 +39559,7 @@
         <v>4902</v>
       </c>
       <c r="B4902">
-        <v>50.5620809450486</v>
+        <v>50.56208094504859</v>
       </c>
     </row>
     <row r="4903" spans="1:2">
@@ -39591,7 +39591,7 @@
         <v>4906</v>
       </c>
       <c r="B4906">
-        <v>68.52206033629317</v>
+        <v>68.52206033629315</v>
       </c>
     </row>
     <row r="4907" spans="1:2">
@@ -39623,7 +39623,7 @@
         <v>4910</v>
       </c>
       <c r="B4910">
-        <v>73.2399179166635</v>
+        <v>73.23991791666349</v>
       </c>
     </row>
     <row r="4911" spans="1:2">
@@ -39631,7 +39631,7 @@
         <v>4911</v>
       </c>
       <c r="B4911">
-        <v>83.58151565790639</v>
+        <v>83.58151565790638</v>
       </c>
     </row>
     <row r="4912" spans="1:2">
@@ -39671,7 +39671,7 @@
         <v>4916</v>
       </c>
       <c r="B4916">
-        <v>144.5232935792239</v>
+        <v>144.5232935792238</v>
       </c>
     </row>
     <row r="4917" spans="1:2">
@@ -39695,7 +39695,7 @@
         <v>4919</v>
       </c>
       <c r="B4919">
-        <v>96.32688205824964</v>
+        <v>96.32688205824962</v>
       </c>
     </row>
     <row r="4920" spans="1:2">
@@ -39703,7 +39703,7 @@
         <v>4920</v>
       </c>
       <c r="B4920">
-        <v>84.27961087199772</v>
+        <v>84.2796108719977</v>
       </c>
     </row>
     <row r="4921" spans="1:2">
@@ -39743,7 +39743,7 @@
         <v>4925</v>
       </c>
       <c r="B4925">
-        <v>54.08801861118325</v>
+        <v>54.08801861118324</v>
       </c>
     </row>
     <row r="4926" spans="1:2">
@@ -39783,7 +39783,7 @@
         <v>4930</v>
       </c>
       <c r="B4930">
-        <v>49.13277348949722</v>
+        <v>49.13277348949721</v>
       </c>
     </row>
     <row r="4931" spans="1:2">
@@ -39855,7 +39855,7 @@
         <v>4939</v>
       </c>
       <c r="B4939">
-        <v>179.5130448850019</v>
+        <v>179.5130448850018</v>
       </c>
     </row>
     <row r="4940" spans="1:2">
@@ -39895,7 +39895,7 @@
         <v>4944</v>
       </c>
       <c r="B4944">
-        <v>98.27345989703829</v>
+        <v>98.27345989703828</v>
       </c>
     </row>
     <row r="4945" spans="1:2">
@@ -39927,7 +39927,7 @@
         <v>4948</v>
       </c>
       <c r="B4948">
-        <v>70.66675419721689</v>
+        <v>70.66675419721687</v>
       </c>
     </row>
     <row r="4949" spans="1:2">
@@ -39959,7 +39959,7 @@
         <v>4952</v>
       </c>
       <c r="B4952">
-        <v>36.52720197459544</v>
+        <v>36.52720197459543</v>
       </c>
     </row>
     <row r="4953" spans="1:2">
@@ -39967,7 +39967,7 @@
         <v>4953</v>
       </c>
       <c r="B4953">
-        <v>45.1941918009274</v>
+        <v>45.19419180092739</v>
       </c>
     </row>
     <row r="4954" spans="1:2">
@@ -40023,7 +40023,7 @@
         <v>4960</v>
       </c>
       <c r="B4960">
-        <v>103.9297309432023</v>
+        <v>103.9297309432022</v>
       </c>
     </row>
     <row r="4961" spans="1:2">
@@ -40055,7 +40055,7 @@
         <v>4964</v>
       </c>
       <c r="B4964">
-        <v>158.8110928560418</v>
+        <v>158.8110928560417</v>
       </c>
     </row>
     <row r="4965" spans="1:2">
@@ -40135,7 +40135,7 @@
         <v>4974</v>
       </c>
       <c r="B4974">
-        <v>69.08241216221366</v>
+        <v>69.08241216221364</v>
       </c>
     </row>
     <row r="4975" spans="1:2">
@@ -40167,7 +40167,7 @@
         <v>4978</v>
       </c>
       <c r="B4978">
-        <v>89.18620620126596</v>
+        <v>89.18620620126595</v>
       </c>
     </row>
     <row r="4979" spans="1:2">
@@ -40319,7 +40319,7 @@
         <v>4997</v>
       </c>
       <c r="B4997">
-        <v>67.38553084836447</v>
+        <v>67.38553084836445</v>
       </c>
     </row>
     <row r="4998" spans="1:2">
@@ -40343,7 +40343,7 @@
         <v>5000</v>
       </c>
       <c r="B5000">
-        <v>55.79515741138558</v>
+        <v>55.79515741138557</v>
       </c>
     </row>
     <row r="5001" spans="1:2">
@@ -40351,7 +40351,7 @@
         <v>5001</v>
       </c>
       <c r="B5001">
-        <v>86.78859203397749</v>
+        <v>86.78859203397748</v>
       </c>
     </row>
     <row r="5002" spans="1:2">
@@ -40367,7 +40367,7 @@
         <v>5003</v>
       </c>
       <c r="B5003">
-        <v>88.15430307413936</v>
+        <v>88.15430307413935</v>
       </c>
     </row>
     <row r="5004" spans="1:2">
@@ -40391,7 +40391,7 @@
         <v>5006</v>
       </c>
       <c r="B5006">
-        <v>87.68011413358531</v>
+        <v>87.68011413358529</v>
       </c>
     </row>
     <row r="5007" spans="1:2">
@@ -40463,7 +40463,7 @@
         <v>5015</v>
       </c>
       <c r="B5015">
-        <v>114.0582660393384</v>
+        <v>114.0582660393383</v>
       </c>
     </row>
     <row r="5016" spans="1:2">
@@ -40495,7 +40495,7 @@
         <v>5019</v>
       </c>
       <c r="B5019">
-        <v>78.5471413557818</v>
+        <v>78.54714135578179</v>
       </c>
     </row>
     <row r="5020" spans="1:2">
@@ -40559,7 +40559,7 @@
         <v>5027</v>
       </c>
       <c r="B5027">
-        <v>80.86005799289714</v>
+        <v>80.86005799289713</v>
       </c>
     </row>
     <row r="5028" spans="1:2">
@@ -40583,7 +40583,7 @@
         <v>5030</v>
       </c>
       <c r="B5030">
-        <v>86.49522792427749</v>
+        <v>86.49522792427747</v>
       </c>
     </row>
     <row r="5031" spans="1:2">
@@ -40703,7 +40703,7 @@
         <v>5045</v>
       </c>
       <c r="B5045">
-        <v>72.76631511818677</v>
+        <v>72.76631511818675</v>
       </c>
     </row>
     <row r="5046" spans="1:2">
@@ -40743,7 +40743,7 @@
         <v>5050</v>
       </c>
       <c r="B5050">
-        <v>66.5907221915149</v>
+        <v>66.59072219151489</v>
       </c>
     </row>
     <row r="5051" spans="1:2">
@@ -40759,7 +40759,7 @@
         <v>5052</v>
       </c>
       <c r="B5052">
-        <v>68.60880936373692</v>
+        <v>68.60880936373691</v>
       </c>
     </row>
     <row r="5053" spans="1:2">
@@ -40815,7 +40815,7 @@
         <v>5059</v>
       </c>
       <c r="B5059">
-        <v>204.7619940787928</v>
+        <v>204.7619940787927</v>
       </c>
     </row>
     <row r="5060" spans="1:2">
@@ -40839,7 +40839,7 @@
         <v>5062</v>
       </c>
       <c r="B5062">
-        <v>146.9267691672856</v>
+        <v>146.9267691672855</v>
       </c>
     </row>
     <row r="5063" spans="1:2">
@@ -41087,7 +41087,7 @@
         <v>5093</v>
       </c>
       <c r="B5093">
-        <v>85.32616755105738</v>
+        <v>85.32616755105737</v>
       </c>
     </row>
     <row r="5094" spans="1:2">
@@ -41095,7 +41095,7 @@
         <v>5094</v>
       </c>
       <c r="B5094">
-        <v>84.51348156084947</v>
+        <v>84.51348156084946</v>
       </c>
     </row>
     <row r="5095" spans="1:2">
@@ -41135,7 +41135,7 @@
         <v>5099</v>
       </c>
       <c r="B5099">
-        <v>86.54885992435251</v>
+        <v>86.5488599243525</v>
       </c>
     </row>
     <row r="5100" spans="1:2">
@@ -41143,7 +41143,7 @@
         <v>5100</v>
       </c>
       <c r="B5100">
-        <v>80.85009357758265</v>
+        <v>80.85009357758264</v>
       </c>
     </row>
     <row r="5101" spans="1:2">
@@ -41207,7 +41207,7 @@
         <v>5108</v>
       </c>
       <c r="B5108">
-        <v>194.837436425565</v>
+        <v>194.8374364255649</v>
       </c>
     </row>
     <row r="5109" spans="1:2">
@@ -41287,7 +41287,7 @@
         <v>5118</v>
       </c>
       <c r="B5118">
-        <v>86.62036925778588</v>
+        <v>86.62036925778587</v>
       </c>
     </row>
     <row r="5119" spans="1:2">
@@ -41359,7 +41359,7 @@
         <v>5127</v>
       </c>
       <c r="B5127">
-        <v>150.7630690633626</v>
+        <v>150.7630690633625</v>
       </c>
     </row>
     <row r="5128" spans="1:2">
@@ -41535,7 +41535,7 @@
         <v>5149</v>
       </c>
       <c r="B5149">
-        <v>75.65804705665826</v>
+        <v>75.65804705665825</v>
       </c>
     </row>
     <row r="5150" spans="1:2">
@@ -41543,7 +41543,7 @@
         <v>5150</v>
       </c>
       <c r="B5150">
-        <v>89.93207199465908</v>
+        <v>89.93207199465907</v>
       </c>
     </row>
     <row r="5151" spans="1:2">
@@ -41591,7 +41591,7 @@
         <v>5156</v>
       </c>
       <c r="B5156">
-        <v>176.7048381925489</v>
+        <v>176.7048381925488</v>
       </c>
     </row>
     <row r="5157" spans="1:2">
@@ -41671,7 +41671,7 @@
         <v>5166</v>
       </c>
       <c r="B5166">
-        <v>66.80993932843359</v>
+        <v>66.80993932843357</v>
       </c>
     </row>
     <row r="5167" spans="1:2">
@@ -41679,7 +41679,7 @@
         <v>5167</v>
       </c>
       <c r="B5167">
-        <v>15.7588986624824</v>
+        <v>15.75889866248239</v>
       </c>
     </row>
     <row r="5168" spans="1:2">
@@ -41775,7 +41775,7 @@
         <v>5179</v>
       </c>
       <c r="B5179">
-        <v>209.1768162051873</v>
+        <v>209.1768162051872</v>
       </c>
     </row>
     <row r="5180" spans="1:2">
@@ -41847,7 +41847,7 @@
         <v>5188</v>
       </c>
       <c r="B5188">
-        <v>75.08978231269391</v>
+        <v>75.0897823126939</v>
       </c>
     </row>
     <row r="5189" spans="1:2">
@@ -41903,7 +41903,7 @@
         <v>5195</v>
       </c>
       <c r="B5195">
-        <v>63.93989464682303</v>
+        <v>63.93989464682302</v>
       </c>
     </row>
     <row r="5196" spans="1:2">
@@ -41935,7 +41935,7 @@
         <v>5199</v>
       </c>
       <c r="B5199">
-        <v>87.20651133510857</v>
+        <v>87.20651133510856</v>
       </c>
     </row>
     <row r="5200" spans="1:2">
@@ -41967,7 +41967,7 @@
         <v>5203</v>
       </c>
       <c r="B5203">
-        <v>171.5901624258311</v>
+        <v>171.590162425831</v>
       </c>
     </row>
     <row r="5204" spans="1:2">
@@ -42031,7 +42031,7 @@
         <v>5211</v>
       </c>
       <c r="B5211">
-        <v>72.69011664813482</v>
+        <v>72.6901166481348</v>
       </c>
     </row>
     <row r="5212" spans="1:2">
@@ -42079,7 +42079,7 @@
         <v>5217</v>
       </c>
       <c r="B5217">
-        <v>71.94630235201232</v>
+        <v>71.94630235201231</v>
       </c>
     </row>
     <row r="5218" spans="1:2">
@@ -42215,7 +42215,7 @@
         <v>5234</v>
       </c>
       <c r="B5234">
-        <v>81.9787101474675</v>
+        <v>81.97871014746748</v>
       </c>
     </row>
     <row r="5235" spans="1:2">
@@ -42223,7 +42223,7 @@
         <v>5235</v>
       </c>
       <c r="B5235">
-        <v>74.59771603878151</v>
+        <v>74.5977160387815</v>
       </c>
     </row>
     <row r="5236" spans="1:2">
@@ -42271,7 +42271,7 @@
         <v>5241</v>
       </c>
       <c r="B5241">
-        <v>62.36258631674767</v>
+        <v>62.36258631674766</v>
       </c>
     </row>
     <row r="5242" spans="1:2">
@@ -42279,7 +42279,7 @@
         <v>5242</v>
       </c>
       <c r="B5242">
-        <v>83.29811596352087</v>
+        <v>83.29811596352086</v>
       </c>
     </row>
     <row r="5243" spans="1:2">
@@ -42399,7 +42399,7 @@
         <v>5257</v>
       </c>
       <c r="B5257">
-        <v>59.29266718677008</v>
+        <v>59.29266718677007</v>
       </c>
     </row>
     <row r="5258" spans="1:2">
@@ -42463,7 +42463,7 @@
         <v>5265</v>
       </c>
       <c r="B5265">
-        <v>35.34495340463557</v>
+        <v>35.34495340463556</v>
       </c>
     </row>
     <row r="5266" spans="1:2">
@@ -42487,7 +42487,7 @@
         <v>5268</v>
       </c>
       <c r="B5268">
-        <v>46.36120067687688</v>
+        <v>46.36120067687687</v>
       </c>
     </row>
     <row r="5269" spans="1:2">
@@ -42503,7 +42503,7 @@
         <v>5270</v>
       </c>
       <c r="B5270">
-        <v>59.23932825773371</v>
+        <v>59.2393282577337</v>
       </c>
     </row>
     <row r="5271" spans="1:2">
@@ -42519,7 +42519,7 @@
         <v>5272</v>
       </c>
       <c r="B5272">
-        <v>83.95049209558103</v>
+        <v>83.95049209558101</v>
       </c>
     </row>
     <row r="5273" spans="1:2">
@@ -42527,7 +42527,7 @@
         <v>5273</v>
       </c>
       <c r="B5273">
-        <v>86.17724584732993</v>
+        <v>86.17724584732991</v>
       </c>
     </row>
     <row r="5274" spans="1:2">
@@ -42623,7 +42623,7 @@
         <v>5285</v>
       </c>
       <c r="B5285">
-        <v>20.51189546038823</v>
+        <v>20.51189546038822</v>
       </c>
     </row>
     <row r="5286" spans="1:2">
@@ -42711,7 +42711,7 @@
         <v>5296</v>
       </c>
       <c r="B5296">
-        <v>78.99495390285634</v>
+        <v>78.99495390285632</v>
       </c>
     </row>
     <row r="5297" spans="1:2">
@@ -42751,7 +42751,7 @@
         <v>5301</v>
       </c>
       <c r="B5301">
-        <v>82.81132496830438</v>
+        <v>82.81132496830436</v>
       </c>
     </row>
     <row r="5302" spans="1:2">
@@ -42935,7 +42935,7 @@
         <v>5324</v>
       </c>
       <c r="B5324">
-        <v>88.89284209156595</v>
+        <v>88.89284209156594</v>
       </c>
     </row>
     <row r="5325" spans="1:2">
@@ -42999,7 +42999,7 @@
         <v>5332</v>
       </c>
       <c r="B5332">
-        <v>25.09910197172334</v>
+        <v>25.09910197172333</v>
       </c>
     </row>
     <row r="5333" spans="1:2">
@@ -43255,7 +43255,7 @@
         <v>5364</v>
       </c>
       <c r="B5364">
-        <v>59.69534679389077</v>
+        <v>59.69534679389076</v>
       </c>
     </row>
     <row r="5365" spans="1:2">
@@ -43303,7 +43303,7 @@
         <v>5370</v>
       </c>
       <c r="B5370">
-        <v>156.5570834976974</v>
+        <v>156.5570834976973</v>
       </c>
     </row>
     <row r="5371" spans="1:2">
@@ -43335,7 +43335,7 @@
         <v>5374</v>
       </c>
       <c r="B5374">
-        <v>90.37841918654031</v>
+        <v>90.3784191865403</v>
       </c>
     </row>
     <row r="5375" spans="1:2">
@@ -43343,7 +43343,7 @@
         <v>5375</v>
       </c>
       <c r="B5375">
-        <v>77.67027280810706</v>
+        <v>77.67027280810704</v>
       </c>
     </row>
     <row r="5376" spans="1:2">
@@ -43351,7 +43351,7 @@
         <v>5376</v>
       </c>
       <c r="B5376">
-        <v>70.74881408804207</v>
+        <v>70.74881408804205</v>
       </c>
     </row>
     <row r="5377" spans="1:2">
@@ -43407,7 +43407,7 @@
         <v>5383</v>
       </c>
       <c r="B5383">
-        <v>6.591343502116852</v>
+        <v>6.591343502116851</v>
       </c>
     </row>
     <row r="5384" spans="1:2">
@@ -43487,7 +43487,7 @@
         <v>5393</v>
       </c>
       <c r="B5393">
-        <v>80.05469877865576</v>
+        <v>80.05469877865575</v>
       </c>
     </row>
     <row r="5394" spans="1:2">
@@ -43727,7 +43727,7 @@
         <v>5423</v>
       </c>
       <c r="B5423">
-        <v>92.47739396543288</v>
+        <v>92.47739396543284</v>
       </c>
     </row>
     <row r="5424" spans="1:2">
@@ -43999,7 +43999,7 @@
         <v>5457</v>
       </c>
       <c r="B5457">
-        <v>40.95726379500033</v>
+        <v>40.95726379500032</v>
       </c>
     </row>
     <row r="5458" spans="1:2">
@@ -44007,7 +44007,7 @@
         <v>5458</v>
       </c>
       <c r="B5458">
-        <v>38.54470300474014</v>
+        <v>38.54470300474013</v>
       </c>
     </row>
     <row r="5459" spans="1:2">
@@ -44119,7 +44119,7 @@
         <v>5472</v>
       </c>
       <c r="B5472">
-        <v>72.49874125988896</v>
+        <v>72.49874125988894</v>
       </c>
     </row>
     <row r="5473" spans="1:2">
@@ -44127,7 +44127,7 @@
         <v>5473</v>
       </c>
       <c r="B5473">
-        <v>66.68479799492519</v>
+        <v>66.68479799492518</v>
       </c>
     </row>
     <row r="5474" spans="1:2">
@@ -44143,7 +44143,7 @@
         <v>5475</v>
       </c>
       <c r="B5475">
-        <v>53.79230993317395</v>
+        <v>53.79230993317394</v>
       </c>
     </row>
     <row r="5476" spans="1:2">
@@ -44151,7 +44151,7 @@
         <v>5476</v>
       </c>
       <c r="B5476">
-        <v>49.46658140253249</v>
+        <v>49.46658140253248</v>
       </c>
     </row>
     <row r="5477" spans="1:2">
@@ -44207,7 +44207,7 @@
         <v>5483</v>
       </c>
       <c r="B5483">
-        <v>35.97417692464148</v>
+        <v>35.97417692464147</v>
       </c>
     </row>
     <row r="5484" spans="1:2">
@@ -44223,7 +44223,7 @@
         <v>5485</v>
       </c>
       <c r="B5485">
-        <v>40.86582563093799</v>
+        <v>40.86582563093798</v>
       </c>
     </row>
     <row r="5486" spans="1:2">
@@ -44407,7 +44407,7 @@
         <v>5508</v>
       </c>
       <c r="B5508">
-        <v>73.52536910831965</v>
+        <v>73.52536910831964</v>
       </c>
     </row>
     <row r="5509" spans="1:2">
@@ -44583,7 +44583,7 @@
         <v>5530</v>
       </c>
       <c r="B5530">
-        <v>60.28676414990936</v>
+        <v>60.28676414990935</v>
       </c>
     </row>
     <row r="5531" spans="1:2">
@@ -44655,7 +44655,7 @@
         <v>5539</v>
       </c>
       <c r="B5539">
-        <v>153.9686800842404</v>
+        <v>153.9686800842403</v>
       </c>
     </row>
     <row r="5540" spans="1:2">
@@ -44695,7 +44695,7 @@
         <v>5544</v>
       </c>
       <c r="B5544">
-        <v>83.38955412758321</v>
+        <v>83.3895541275832</v>
       </c>
     </row>
     <row r="5545" spans="1:2">
@@ -44935,7 +44935,7 @@
         <v>5574</v>
       </c>
       <c r="B5574">
-        <v>51.72908982099808</v>
+        <v>51.72908982099807</v>
       </c>
     </row>
     <row r="5575" spans="1:2">
@@ -44943,7 +44943,7 @@
         <v>5575</v>
       </c>
       <c r="B5575">
-        <v>5.133256470568928</v>
+        <v>5.133256470568927</v>
       </c>
     </row>
     <row r="5576" spans="1:2">
@@ -44983,7 +44983,7 @@
         <v>5580</v>
       </c>
       <c r="B5580">
-        <v>41.57154069203451</v>
+        <v>41.5715406920345</v>
       </c>
     </row>
     <row r="5581" spans="1:2">
@@ -45015,7 +45015,7 @@
         <v>5584</v>
       </c>
       <c r="B5584">
-        <v>68.07893692583721</v>
+        <v>68.0789369258372</v>
       </c>
     </row>
     <row r="5585" spans="1:2">
@@ -45023,7 +45023,7 @@
         <v>5585</v>
       </c>
       <c r="B5585">
-        <v>68.43531130884941</v>
+        <v>68.43531130884939</v>
       </c>
     </row>
     <row r="5586" spans="1:2">
@@ -45311,7 +45311,7 @@
         <v>5621</v>
       </c>
       <c r="B5621">
-        <v>20.86073791770683</v>
+        <v>20.86073791770682</v>
       </c>
     </row>
     <row r="5622" spans="1:2">
@@ -45359,7 +45359,7 @@
         <v>5627</v>
       </c>
       <c r="B5627">
-        <v>47.80809239474794</v>
+        <v>47.80809239474793</v>
       </c>
     </row>
     <row r="5628" spans="1:2">
@@ -45399,7 +45399,7 @@
         <v>5632</v>
       </c>
       <c r="B5632">
-        <v>87.7264193576938</v>
+        <v>87.72641935769379</v>
       </c>
     </row>
     <row r="5633" spans="1:2">
@@ -45495,7 +45495,7 @@
         <v>5644</v>
       </c>
       <c r="B5644">
-        <v>29.62244830373414</v>
+        <v>29.62244830373413</v>
       </c>
     </row>
     <row r="5645" spans="1:2">
@@ -45567,7 +45567,7 @@
         <v>5653</v>
       </c>
       <c r="B5653">
-        <v>40.07072390304976</v>
+        <v>40.07072390304975</v>
       </c>
     </row>
     <row r="5654" spans="1:2">
@@ -45591,7 +45591,7 @@
         <v>5656</v>
       </c>
       <c r="B5656">
-        <v>85.40236602110933</v>
+        <v>85.40236602110932</v>
       </c>
     </row>
     <row r="5657" spans="1:2">
@@ -45927,7 +45927,7 @@
         <v>5698</v>
       </c>
       <c r="B5698">
-        <v>74.03267507624244</v>
+        <v>74.03267507624243</v>
       </c>
     </row>
     <row r="5699" spans="1:2">
@@ -46127,7 +46127,7 @@
         <v>5723</v>
       </c>
       <c r="B5723">
-        <v>27.74362848908399</v>
+        <v>27.74362848908398</v>
       </c>
     </row>
     <row r="5724" spans="1:2">
@@ -46311,7 +46311,7 @@
         <v>5746</v>
       </c>
       <c r="B5746">
-        <v>46.11912399894261</v>
+        <v>46.1191239989426</v>
       </c>
     </row>
     <row r="5747" spans="1:2">
@@ -46335,7 +46335,7 @@
         <v>5749</v>
       </c>
       <c r="B5749">
-        <v>52.74311561476633</v>
+        <v>52.74311561476632</v>
       </c>
     </row>
     <row r="5750" spans="1:2">
@@ -46383,7 +46383,7 @@
         <v>5755</v>
       </c>
       <c r="B5755">
-        <v>162.2479369264234</v>
+        <v>162.2479369264233</v>
       </c>
     </row>
     <row r="5756" spans="1:2">
@@ -46423,7 +46423,7 @@
         <v>5760</v>
       </c>
       <c r="B5760">
-        <v>83.16564785404594</v>
+        <v>83.16564785404593</v>
       </c>
     </row>
     <row r="5761" spans="1:2">
@@ -46447,7 +46447,7 @@
         <v>5763</v>
       </c>
       <c r="B5763">
-        <v>59.4456502689513</v>
+        <v>59.44565026895129</v>
       </c>
     </row>
     <row r="5764" spans="1:2">
@@ -46471,7 +46471,7 @@
         <v>5766</v>
       </c>
       <c r="B5766">
-        <v>50.28424960039765</v>
+        <v>50.28424960039764</v>
       </c>
     </row>
     <row r="5767" spans="1:2">
@@ -46607,7 +46607,7 @@
         <v>5783</v>
       </c>
       <c r="B5783">
-        <v>80.84276680161612</v>
+        <v>80.84276680161611</v>
       </c>
     </row>
     <row r="5784" spans="1:2">
@@ -46687,7 +46687,7 @@
         <v>5793</v>
       </c>
       <c r="B5793">
-        <v>36.89119620461283</v>
+        <v>36.89119620461282</v>
       </c>
     </row>
     <row r="5794" spans="1:2">
@@ -46791,7 +46791,7 @@
         <v>5806</v>
       </c>
       <c r="B5806">
-        <v>78.97238743287942</v>
+        <v>78.9723874328794</v>
       </c>
     </row>
     <row r="5807" spans="1:2">
@@ -46991,7 +46991,7 @@
         <v>5831</v>
       </c>
       <c r="B5831">
-        <v>59.23200148176718</v>
+        <v>59.23200148176717</v>
       </c>
     </row>
     <row r="5832" spans="1:2">
@@ -47007,7 +47007,7 @@
         <v>5833</v>
       </c>
       <c r="B5833">
-        <v>42.55215638739537</v>
+        <v>42.55215638739536</v>
       </c>
     </row>
     <row r="5834" spans="1:2">
@@ -47231,7 +47231,7 @@
         <v>5861</v>
       </c>
       <c r="B5861">
-        <v>54.13666840360103</v>
+        <v>54.13666840360102</v>
       </c>
     </row>
     <row r="5862" spans="1:2">
@@ -47287,7 +47287,7 @@
         <v>5868</v>
       </c>
       <c r="B5868">
-        <v>94.31934544341942</v>
+        <v>94.31934544341939</v>
       </c>
     </row>
     <row r="5869" spans="1:2">
@@ -47399,7 +47399,7 @@
         <v>5882</v>
       </c>
       <c r="B5882">
-        <v>54.9185819347495</v>
+        <v>54.91858193474949</v>
       </c>
     </row>
     <row r="5883" spans="1:2">
@@ -47503,7 +47503,7 @@
         <v>5895</v>
       </c>
       <c r="B5895">
-        <v>76.57535940766827</v>
+        <v>76.57535940766826</v>
       </c>
     </row>
     <row r="5896" spans="1:2">
@@ -47519,7 +47519,7 @@
         <v>5897</v>
       </c>
       <c r="B5897">
-        <v>93.42254806511571</v>
+        <v>93.42254806511568</v>
       </c>
     </row>
     <row r="5898" spans="1:2">
@@ -47703,7 +47703,7 @@
         <v>5920</v>
       </c>
       <c r="B5920">
-        <v>99.86307721073744</v>
+        <v>99.86307721073742</v>
       </c>
     </row>
     <row r="5921" spans="1:2">
@@ -47735,7 +47735,7 @@
         <v>5924</v>
       </c>
       <c r="B5924">
-        <v>109.9139484816283</v>
+        <v>109.9139484816282</v>
       </c>
     </row>
     <row r="5925" spans="1:2">
@@ -47751,7 +47751,7 @@
         <v>5926</v>
       </c>
       <c r="B5926">
-        <v>86.20039845938417</v>
+        <v>86.20039845938416</v>
       </c>
     </row>
     <row r="5927" spans="1:2">
@@ -47791,7 +47791,7 @@
         <v>5931</v>
       </c>
       <c r="B5931">
-        <v>38.73842296129529</v>
+        <v>38.73842296129528</v>
       </c>
     </row>
     <row r="5932" spans="1:2">
@@ -47943,7 +47943,7 @@
         <v>5950</v>
       </c>
       <c r="B5950">
-        <v>99.89883187745411</v>
+        <v>99.8988318774541</v>
       </c>
     </row>
     <row r="5951" spans="1:2">
@@ -47967,7 +47967,7 @@
         <v>5953</v>
       </c>
       <c r="B5953">
-        <v>66.21910811449231</v>
+        <v>66.2191081144923</v>
       </c>
     </row>
     <row r="5954" spans="1:2">
@@ -47999,7 +47999,7 @@
         <v>5957</v>
       </c>
       <c r="B5957">
-        <v>46.92155250279737</v>
+        <v>46.92155250279736</v>
       </c>
     </row>
     <row r="5958" spans="1:2">
@@ -48023,7 +48023,7 @@
         <v>5960</v>
       </c>
       <c r="B5960">
-        <v>12.15755381810019</v>
+        <v>12.15755381810018</v>
       </c>
     </row>
     <row r="5961" spans="1:2">
@@ -48071,7 +48071,7 @@
         <v>5966</v>
       </c>
       <c r="B5966">
-        <v>64.82496918358029</v>
+        <v>64.82496918358028</v>
       </c>
     </row>
     <row r="5967" spans="1:2">
@@ -48207,7 +48207,7 @@
         <v>5983</v>
       </c>
       <c r="B5983">
-        <v>7.026876372671478</v>
+        <v>7.026876372671477</v>
       </c>
     </row>
     <row r="5984" spans="1:2">
@@ -48231,7 +48231,7 @@
         <v>5986</v>
       </c>
       <c r="B5986">
-        <v>70.06595856796113</v>
+        <v>70.06595856796112</v>
       </c>
     </row>
     <row r="5987" spans="1:2">
@@ -48247,7 +48247,7 @@
         <v>5988</v>
       </c>
       <c r="B5988">
-        <v>82.69673419218779</v>
+        <v>82.69673419218778</v>
       </c>
     </row>
     <row r="5989" spans="1:2">
@@ -48255,7 +48255,7 @@
         <v>5989</v>
       </c>
       <c r="B5989">
-        <v>87.62648213351028</v>
+        <v>87.62648213351027</v>
       </c>
     </row>
     <row r="5990" spans="1:2">
@@ -48335,7 +48335,7 @@
         <v>5999</v>
       </c>
       <c r="B5999">
-        <v>85.10958805348665</v>
+        <v>85.10958805348663</v>
       </c>
     </row>
     <row r="6000" spans="1:2">
@@ -48407,7 +48407,7 @@
         <v>6008</v>
       </c>
       <c r="B6008">
-        <v>27.31946677482942</v>
+        <v>27.31946677482941</v>
       </c>
     </row>
     <row r="6009" spans="1:2">
@@ -48527,7 +48527,7 @@
         <v>6023</v>
       </c>
       <c r="B6023">
-        <v>80.19507980617455</v>
+        <v>80.19507980617453</v>
       </c>
     </row>
     <row r="6024" spans="1:2">
@@ -48711,7 +48711,7 @@
         <v>6046</v>
       </c>
       <c r="B6046">
-        <v>80.44008719449543</v>
+        <v>80.44008719449542</v>
       </c>
     </row>
     <row r="6047" spans="1:2">
@@ -48735,7 +48735,7 @@
         <v>6049</v>
       </c>
       <c r="B6049">
-        <v>54.41391360617466</v>
+        <v>54.41391360617465</v>
       </c>
     </row>
     <row r="6050" spans="1:2">
@@ -48927,7 +48927,7 @@
         <v>6073</v>
       </c>
       <c r="B6073">
-        <v>52.47026647777262</v>
+        <v>52.47026647777261</v>
       </c>
     </row>
     <row r="6074" spans="1:2">
@@ -48951,7 +48951,7 @@
         <v>6076</v>
       </c>
       <c r="B6076">
-        <v>33.11849272392533</v>
+        <v>33.11849272392532</v>
       </c>
     </row>
     <row r="6077" spans="1:2">
@@ -48975,7 +48975,7 @@
         <v>6079</v>
       </c>
       <c r="B6079">
-        <v>3.172376765093599</v>
+        <v>3.172376765093598</v>
       </c>
     </row>
     <row r="6080" spans="1:2">
@@ -49039,7 +49039,7 @@
         <v>6087</v>
       </c>
       <c r="B6087">
-        <v>71.97619559795578</v>
+        <v>71.97619559795577</v>
       </c>
     </row>
     <row r="6088" spans="1:2">
@@ -49095,7 +49095,7 @@
         <v>6094</v>
       </c>
       <c r="B6094">
-        <v>89.91946993999665</v>
+        <v>89.91946993999663</v>
       </c>
     </row>
     <row r="6095" spans="1:2">
@@ -49111,7 +49111,7 @@
         <v>6096</v>
       </c>
       <c r="B6096">
-        <v>62.73244196753829</v>
+        <v>62.73244196753828</v>
       </c>
     </row>
     <row r="6097" spans="1:2">
@@ -49199,7 +49199,7 @@
         <v>6107</v>
       </c>
       <c r="B6107">
-        <v>37.63002829307808</v>
+        <v>37.63002829307807</v>
       </c>
     </row>
     <row r="6108" spans="1:2">
@@ -49207,7 +49207,7 @@
         <v>6108</v>
       </c>
       <c r="B6108">
-        <v>35.37572586369501</v>
+        <v>35.375725863695</v>
       </c>
     </row>
     <row r="6109" spans="1:2">
@@ -49223,7 +49223,7 @@
         <v>6110</v>
       </c>
       <c r="B6110">
-        <v>47.91271875555004</v>
+        <v>47.91271875555003</v>
       </c>
     </row>
     <row r="6111" spans="1:2">
@@ -49271,7 +49271,7 @@
         <v>6116</v>
       </c>
       <c r="B6116">
-        <v>96.92826382958272</v>
+        <v>96.9282638295827</v>
       </c>
     </row>
     <row r="6117" spans="1:2">
@@ -49351,7 +49351,7 @@
         <v>6126</v>
       </c>
       <c r="B6126">
-        <v>24.51574406926793</v>
+        <v>24.51574406926792</v>
       </c>
     </row>
     <row r="6127" spans="1:2">
@@ -49423,7 +49423,7 @@
         <v>6135</v>
       </c>
       <c r="B6135">
-        <v>65.61772634315923</v>
+        <v>65.61772634315922</v>
       </c>
     </row>
     <row r="6136" spans="1:2">
@@ -49431,7 +49431,7 @@
         <v>6136</v>
       </c>
       <c r="B6136">
-        <v>84.97711994401172</v>
+        <v>84.9771199440117</v>
       </c>
     </row>
     <row r="6137" spans="1:2">
@@ -49455,7 +49455,7 @@
         <v>6139</v>
       </c>
       <c r="B6139">
-        <v>121.8014959518098</v>
+        <v>121.8014959518097</v>
       </c>
     </row>
     <row r="6140" spans="1:2">
@@ -49679,7 +49679,7 @@
         <v>6167</v>
       </c>
       <c r="B6167">
-        <v>87.77682757634355</v>
+        <v>87.77682757634354</v>
       </c>
     </row>
     <row r="6168" spans="1:2">
@@ -49711,7 +49711,7 @@
         <v>6171</v>
       </c>
       <c r="B6171">
-        <v>58.64087719678725</v>
+        <v>58.64087719678724</v>
       </c>
     </row>
     <row r="6172" spans="1:2">
@@ -49831,7 +49831,7 @@
         <v>6186</v>
       </c>
       <c r="B6186">
-        <v>150.207992516138</v>
+        <v>150.2079925161379</v>
       </c>
     </row>
     <row r="6187" spans="1:2">
@@ -49863,7 +49863,7 @@
         <v>6190</v>
       </c>
       <c r="B6190">
-        <v>85.67990429472162</v>
+        <v>85.67990429472161</v>
       </c>
     </row>
     <row r="6191" spans="1:2">
@@ -49879,7 +49879,7 @@
         <v>6192</v>
       </c>
       <c r="B6192">
-        <v>62.78050561787875</v>
+        <v>62.78050561787874</v>
       </c>
     </row>
     <row r="6193" spans="1:2">
@@ -49895,7 +49895,7 @@
         <v>6194</v>
       </c>
       <c r="B6194">
-        <v>48.12402297442487</v>
+        <v>48.12402297442486</v>
       </c>
     </row>
     <row r="6195" spans="1:2">
@@ -49911,7 +49911,7 @@
         <v>6196</v>
       </c>
       <c r="B6196">
-        <v>36.6927871114391</v>
+        <v>36.69278711143909</v>
       </c>
     </row>
     <row r="6197" spans="1:2">
@@ -49959,7 +49959,7 @@
         <v>6202</v>
       </c>
       <c r="B6202">
-        <v>45.65050340812312</v>
+        <v>45.65050340812311</v>
       </c>
     </row>
     <row r="6203" spans="1:2">
@@ -49991,7 +49991,7 @@
         <v>6206</v>
       </c>
       <c r="B6206">
-        <v>57.19896768657343</v>
+        <v>57.19896768657342</v>
       </c>
     </row>
     <row r="6207" spans="1:2">
@@ -50071,7 +50071,7 @@
         <v>6216</v>
       </c>
       <c r="B6216">
-        <v>69.46985207532396</v>
+        <v>69.46985207532394</v>
       </c>
     </row>
     <row r="6217" spans="1:2">
@@ -50087,7 +50087,7 @@
         <v>6218</v>
       </c>
       <c r="B6218">
-        <v>57.24966897626184</v>
+        <v>57.24966897626183</v>
       </c>
     </row>
     <row r="6219" spans="1:2">
@@ -50135,7 +50135,7 @@
         <v>6224</v>
       </c>
       <c r="B6224">
-        <v>11.40770225858127</v>
+        <v>11.40770225858126</v>
       </c>
     </row>
     <row r="6225" spans="1:2">
@@ -50183,7 +50183,7 @@
         <v>6230</v>
       </c>
       <c r="B6230">
-        <v>50.93398809310985</v>
+        <v>50.93398809310984</v>
       </c>
     </row>
     <row r="6231" spans="1:2">
@@ -50199,7 +50199,7 @@
         <v>6232</v>
       </c>
       <c r="B6232">
-        <v>82.66947858559229</v>
+        <v>82.66947858559227</v>
       </c>
     </row>
     <row r="6233" spans="1:2">
@@ -50207,7 +50207,7 @@
         <v>6233</v>
       </c>
       <c r="B6233">
-        <v>80.87793532625548</v>
+        <v>80.87793532625547</v>
       </c>
     </row>
     <row r="6234" spans="1:2">
@@ -50255,7 +50255,7 @@
         <v>6239</v>
       </c>
       <c r="B6239">
-        <v>92.72503899310171</v>
+        <v>92.72503899310168</v>
       </c>
     </row>
     <row r="6240" spans="1:2">
@@ -50303,7 +50303,7 @@
         <v>6245</v>
       </c>
       <c r="B6245">
-        <v>58.91841547039954</v>
+        <v>58.91841547039953</v>
       </c>
     </row>
     <row r="6246" spans="1:2">
@@ -50335,7 +50335,7 @@
         <v>6249</v>
       </c>
       <c r="B6249">
-        <v>24.78651240188715</v>
+        <v>24.78651240188714</v>
       </c>
     </row>
     <row r="6250" spans="1:2">
@@ -50343,7 +50343,7 @@
         <v>6250</v>
       </c>
       <c r="B6250">
-        <v>50.17757174232492</v>
+        <v>50.17757174232491</v>
       </c>
     </row>
     <row r="6251" spans="1:2">
@@ -50431,7 +50431,7 @@
         <v>6261</v>
       </c>
       <c r="B6261">
-        <v>106.7857082149571</v>
+        <v>106.785708214957</v>
       </c>
     </row>
     <row r="6262" spans="1:2">
@@ -50479,7 +50479,7 @@
         <v>6267</v>
       </c>
       <c r="B6267">
-        <v>46.90601973774832</v>
+        <v>46.90601973774831</v>
       </c>
     </row>
     <row r="6268" spans="1:2">
@@ -50551,7 +50551,7 @@
         <v>6276</v>
       </c>
       <c r="B6276">
-        <v>56.37338657066442</v>
+        <v>56.37338657066441</v>
       </c>
     </row>
     <row r="6277" spans="1:2">
@@ -50615,7 +50615,7 @@
         <v>6284</v>
       </c>
       <c r="B6284">
-        <v>87.11448702896891</v>
+        <v>87.1144870289689</v>
       </c>
     </row>
     <row r="6285" spans="1:2">
@@ -50687,7 +50687,7 @@
         <v>6293</v>
       </c>
       <c r="B6293">
-        <v>8.431888239117834</v>
+        <v>8.431888239117832</v>
       </c>
     </row>
     <row r="6294" spans="1:2">
@@ -50695,7 +50695,7 @@
         <v>6294</v>
       </c>
       <c r="B6294">
-        <v>6.673725771084557</v>
+        <v>6.673725771084556</v>
       </c>
     </row>
     <row r="6295" spans="1:2">
@@ -50767,7 +50767,7 @@
         <v>6303</v>
       </c>
       <c r="B6303">
-        <v>16.31183579112476</v>
+        <v>16.31183579112475</v>
       </c>
     </row>
     <row r="6304" spans="1:2">
@@ -50823,7 +50823,7 @@
         <v>6310</v>
       </c>
       <c r="B6310">
-        <v>40.78669645049943</v>
+        <v>40.78669645049942</v>
       </c>
     </row>
     <row r="6311" spans="1:2">
@@ -50831,7 +50831,7 @@
         <v>6311</v>
       </c>
       <c r="B6311">
-        <v>29.76253626021426</v>
+        <v>29.76253626021425</v>
       </c>
     </row>
     <row r="6312" spans="1:2">
@@ -50839,7 +50839,7 @@
         <v>6312</v>
       </c>
       <c r="B6312">
-        <v>21.65331923466257</v>
+        <v>21.65331923466256</v>
       </c>
     </row>
     <row r="6313" spans="1:2">
@@ -50855,7 +50855,7 @@
         <v>6314</v>
       </c>
       <c r="B6314">
-        <v>10.26498897173682</v>
+        <v>10.26498897173681</v>
       </c>
     </row>
     <row r="6315" spans="1:2">
@@ -50959,7 +50959,7 @@
         <v>6327</v>
       </c>
       <c r="B6327">
-        <v>30.84133075352668</v>
+        <v>30.84133075352667</v>
       </c>
     </row>
     <row r="6328" spans="1:2">
@@ -50983,7 +50983,7 @@
         <v>6330</v>
       </c>
       <c r="B6330">
-        <v>94.34513569482162</v>
+        <v>94.34513569482159</v>
       </c>
     </row>
     <row r="6331" spans="1:2">
@@ -51015,7 +51015,7 @@
         <v>6334</v>
       </c>
       <c r="B6334">
-        <v>46.62349925647878</v>
+        <v>46.62349925647877</v>
       </c>
     </row>
     <row r="6335" spans="1:2">
@@ -51071,7 +51071,7 @@
         <v>6341</v>
       </c>
       <c r="B6341">
-        <v>6.99387657371821</v>
+        <v>6.993876573718209</v>
       </c>
     </row>
     <row r="6342" spans="1:2">
@@ -51367,7 +51367,7 @@
         <v>6378</v>
       </c>
       <c r="B6378">
-        <v>96.58390535915564</v>
+        <v>96.58390535915562</v>
       </c>
     </row>
     <row r="6379" spans="1:2">
@@ -51415,7 +51415,7 @@
         <v>6384</v>
       </c>
       <c r="B6384">
-        <v>34.39979930495273</v>
+        <v>34.39979930495272</v>
       </c>
     </row>
     <row r="6385" spans="1:2">
@@ -51463,7 +51463,7 @@
         <v>6390</v>
       </c>
       <c r="B6390">
-        <v>8.423623635827584</v>
+        <v>8.423623635827582</v>
       </c>
     </row>
     <row r="6391" spans="1:2">
@@ -51495,7 +51495,7 @@
         <v>6394</v>
       </c>
       <c r="B6394">
-        <v>5.239934328641658</v>
+        <v>5.239934328641657</v>
       </c>
     </row>
     <row r="6395" spans="1:2">
@@ -51599,7 +51599,7 @@
         <v>6407</v>
       </c>
       <c r="B6407">
-        <v>44.76103280578593</v>
+        <v>44.76103280578592</v>
       </c>
     </row>
     <row r="6408" spans="1:2">
@@ -51607,7 +51607,7 @@
         <v>6408</v>
       </c>
       <c r="B6408">
-        <v>37.02395738512642</v>
+        <v>37.02395738512641</v>
       </c>
     </row>
     <row r="6409" spans="1:2">
@@ -51655,7 +51655,7 @@
         <v>6414</v>
       </c>
       <c r="B6414">
-        <v>12.41108957364612</v>
+        <v>12.41108957364611</v>
       </c>
     </row>
     <row r="6415" spans="1:2">
@@ -51679,7 +51679,7 @@
         <v>6417</v>
       </c>
       <c r="B6417">
-        <v>3.069420909211868</v>
+        <v>3.069420909211867</v>
       </c>
     </row>
     <row r="6418" spans="1:2">
@@ -51687,7 +51687,7 @@
         <v>6418</v>
       </c>
       <c r="B6418">
-        <v>8.392323648898552</v>
+        <v>8.39232364889855</v>
       </c>
     </row>
     <row r="6419" spans="1:2">
@@ -51767,7 +51767,7 @@
         <v>6428</v>
       </c>
       <c r="B6428">
-        <v>72.8047074242514</v>
+        <v>72.80470742425139</v>
       </c>
     </row>
     <row r="6429" spans="1:2">
@@ -51959,7 +51959,7 @@
         <v>6452</v>
       </c>
       <c r="B6452">
-        <v>89.09213039785567</v>
+        <v>89.09213039785566</v>
       </c>
     </row>
     <row r="6453" spans="1:2">
@@ -51967,7 +51967,7 @@
         <v>6453</v>
       </c>
       <c r="B6453">
-        <v>80.31289436371641</v>
+        <v>80.3128943637164</v>
       </c>
     </row>
     <row r="6454" spans="1:2">
@@ -51991,7 +51991,7 @@
         <v>6456</v>
       </c>
       <c r="B6456">
-        <v>48.99766774067434</v>
+        <v>48.99766774067433</v>
       </c>
     </row>
     <row r="6457" spans="1:2">
@@ -52039,7 +52039,7 @@
         <v>6462</v>
       </c>
       <c r="B6462">
-        <v>22.02384894884211</v>
+        <v>22.0238489488421</v>
       </c>
     </row>
     <row r="6463" spans="1:2">
@@ -52095,7 +52095,7 @@
         <v>6469</v>
       </c>
       <c r="B6469">
-        <v>37.56906951703652</v>
+        <v>37.56906951703651</v>
       </c>
     </row>
     <row r="6470" spans="1:2">
@@ -52103,7 +52103,7 @@
         <v>6470</v>
       </c>
       <c r="B6470">
-        <v>47.88956614349579</v>
+        <v>47.88956614349578</v>
       </c>
     </row>
     <row r="6471" spans="1:2">
@@ -52207,7 +52207,7 @@
         <v>6483</v>
       </c>
       <c r="B6483">
-        <v>34.43819161101737</v>
+        <v>34.43819161101736</v>
       </c>
     </row>
     <row r="6484" spans="1:2">
@@ -52215,7 +52215,7 @@
         <v>6484</v>
       </c>
       <c r="B6484">
-        <v>30.5151426874966</v>
+        <v>30.51514268749659</v>
       </c>
     </row>
     <row r="6485" spans="1:2">
@@ -52543,7 +52543,7 @@
         <v>6525</v>
       </c>
       <c r="B6525">
-        <v>84.50087950618703</v>
+        <v>84.50087950618702</v>
       </c>
     </row>
     <row r="6526" spans="1:2">
@@ -52567,7 +52567,7 @@
         <v>6528</v>
       </c>
       <c r="B6528">
-        <v>58.5312686283279</v>
+        <v>58.53126862832789</v>
       </c>
     </row>
     <row r="6529" spans="1:2">
@@ -52583,7 +52583,7 @@
         <v>6530</v>
       </c>
       <c r="B6530">
-        <v>47.84384706146462</v>
+        <v>47.84384706146461</v>
       </c>
     </row>
     <row r="6531" spans="1:2">
@@ -52623,7 +52623,7 @@
         <v>6535</v>
       </c>
       <c r="B6535">
-        <v>4.377953789730909</v>
+        <v>4.377953789730908</v>
       </c>
     </row>
     <row r="6536" spans="1:2">
@@ -52679,7 +52679,7 @@
         <v>6542</v>
       </c>
       <c r="B6542">
-        <v>59.01512891315778</v>
+        <v>59.01512891315777</v>
       </c>
     </row>
     <row r="6543" spans="1:2">
@@ -52791,7 +52791,7 @@
         <v>6556</v>
       </c>
       <c r="B6556">
-        <v>15.63076800437966</v>
+        <v>15.63076800437965</v>
       </c>
     </row>
     <row r="6557" spans="1:2">
@@ -52839,7 +52839,7 @@
         <v>6562</v>
       </c>
       <c r="B6562">
-        <v>5.495052667796359</v>
+        <v>5.495052667796358</v>
       </c>
     </row>
     <row r="6563" spans="1:2">
@@ -53079,7 +53079,7 @@
         <v>6592</v>
       </c>
       <c r="B6592">
-        <v>37.48232048959276</v>
+        <v>37.48232048959275</v>
       </c>
     </row>
     <row r="6593" spans="1:2">
@@ -53087,7 +53087,7 @@
         <v>6593</v>
       </c>
       <c r="B6593">
-        <v>35.46218182010011</v>
+        <v>35.4621818201001</v>
       </c>
     </row>
     <row r="6594" spans="1:2">
@@ -53199,7 +53199,7 @@
         <v>6607</v>
       </c>
       <c r="B6607">
-        <v>0.7306378222242803</v>
+        <v>0.7306378222242802</v>
       </c>
     </row>
     <row r="6608" spans="1:2">
@@ -53215,7 +53215,7 @@
         <v>6609</v>
       </c>
       <c r="B6609">
-        <v>3.501876533860549</v>
+        <v>3.501876533860548</v>
       </c>
     </row>
     <row r="6610" spans="1:2">
@@ -53311,7 +53311,7 @@
         <v>6621</v>
       </c>
       <c r="B6621">
-        <v>34.49915038705893</v>
+        <v>34.49915038705892</v>
       </c>
     </row>
     <row r="6622" spans="1:2">
@@ -53335,7 +53335,7 @@
         <v>6624</v>
       </c>
       <c r="B6624">
-        <v>9.774329438809993</v>
+        <v>9.774329438809991</v>
       </c>
     </row>
     <row r="6625" spans="1:2">
@@ -53447,7 +53447,7 @@
         <v>6638</v>
       </c>
       <c r="B6638">
-        <v>18.58984766753553</v>
+        <v>18.58984766753552</v>
       </c>
     </row>
     <row r="6639" spans="1:2">
@@ -53487,7 +53487,7 @@
         <v>6643</v>
       </c>
       <c r="B6643">
-        <v>62.92879956344139</v>
+        <v>62.92879956344138</v>
       </c>
     </row>
     <row r="6644" spans="1:2">
@@ -53511,7 +53511,7 @@
         <v>6646</v>
       </c>
       <c r="B6646">
-        <v>37.82374824963323</v>
+        <v>37.82374824963322</v>
       </c>
     </row>
     <row r="6647" spans="1:2">
@@ -53527,7 +53527,7 @@
         <v>6648</v>
       </c>
       <c r="B6648">
-        <v>21.01266594414887</v>
+        <v>21.01266594414886</v>
       </c>
     </row>
     <row r="6649" spans="1:2">
@@ -53639,7 +53639,7 @@
         <v>6662</v>
       </c>
       <c r="B6662">
-        <v>37.88734466502274</v>
+        <v>37.88734466502273</v>
       </c>
     </row>
     <row r="6663" spans="1:2">
@@ -53663,7 +53663,7 @@
         <v>6665</v>
       </c>
       <c r="B6665">
-        <v>48.34324011134356</v>
+        <v>48.34324011134355</v>
       </c>
     </row>
     <row r="6666" spans="1:2">
@@ -53687,7 +53687,7 @@
         <v>6668</v>
       </c>
       <c r="B6668">
-        <v>62.76057678724978</v>
+        <v>62.76057678724977</v>
       </c>
     </row>
     <row r="6669" spans="1:2">
@@ -53735,7 +53735,7 @@
         <v>6674</v>
       </c>
       <c r="B6674">
-        <v>18.57824205440454</v>
+        <v>18.57824205440453</v>
       </c>
     </row>
     <row r="6675" spans="1:2">
@@ -53927,7 +53927,7 @@
         <v>6698</v>
       </c>
       <c r="B6698">
-        <v>16.52958757285014</v>
+        <v>16.52958757285013</v>
       </c>
     </row>
     <row r="6699" spans="1:2">
@@ -54015,7 +54015,7 @@
         <v>6709</v>
       </c>
       <c r="B6709">
-        <v>34.96542640956913</v>
+        <v>34.96542640956912</v>
       </c>
     </row>
     <row r="6710" spans="1:2">
@@ -54039,7 +54039,7 @@
         <v>6712</v>
       </c>
       <c r="B6712">
-        <v>68.48630566957648</v>
+        <v>68.48630566957647</v>
       </c>
     </row>
     <row r="6713" spans="1:2">
@@ -54047,7 +54047,7 @@
         <v>6713</v>
       </c>
       <c r="B6713">
-        <v>63.6239640671461</v>
+        <v>63.62396406714609</v>
       </c>
     </row>
     <row r="6714" spans="1:2">
@@ -54063,7 +54063,7 @@
         <v>6715</v>
       </c>
       <c r="B6715">
-        <v>91.41295995301486</v>
+        <v>91.41295995301483</v>
       </c>
     </row>
     <row r="6716" spans="1:2">
@@ -54119,7 +54119,7 @@
         <v>6722</v>
       </c>
       <c r="B6722">
-        <v>32.96814728109206</v>
+        <v>32.96814728109205</v>
       </c>
     </row>
     <row r="6723" spans="1:2">
@@ -54127,7 +54127,7 @@
         <v>6723</v>
       </c>
       <c r="B6723">
-        <v>28.91561957269071</v>
+        <v>28.9156195726907</v>
       </c>
     </row>
     <row r="6724" spans="1:2">
@@ -54167,7 +54167,7 @@
         <v>6728</v>
       </c>
       <c r="B6728">
-        <v>7.09653935856128</v>
+        <v>7.096539358561279</v>
       </c>
     </row>
     <row r="6729" spans="1:2">
@@ -54199,7 +54199,7 @@
         <v>6732</v>
       </c>
       <c r="B6732">
-        <v>46.56224740939856</v>
+        <v>46.56224740939855</v>
       </c>
     </row>
     <row r="6733" spans="1:2">
@@ -54231,7 +54231,7 @@
         <v>6736</v>
       </c>
       <c r="B6736">
-        <v>70.49120464505874</v>
+        <v>70.49120464505873</v>
       </c>
     </row>
     <row r="6737" spans="1:2">
@@ -54239,7 +54239,7 @@
         <v>6737</v>
       </c>
       <c r="B6737">
-        <v>65.07466570851976</v>
+        <v>65.07466570851975</v>
       </c>
     </row>
     <row r="6738" spans="1:2">
@@ -54271,7 +54271,7 @@
         <v>6741</v>
       </c>
       <c r="B6741">
-        <v>74.06842974295913</v>
+        <v>74.06842974295911</v>
       </c>
     </row>
     <row r="6742" spans="1:2">
@@ -54351,7 +54351,7 @@
         <v>6751</v>
       </c>
       <c r="B6751">
-        <v>2.992431147355533</v>
+        <v>2.992431147355532</v>
       </c>
     </row>
     <row r="6752" spans="1:2">
@@ -54391,7 +54391,7 @@
         <v>6756</v>
       </c>
       <c r="B6756">
-        <v>38.68508403225892</v>
+        <v>38.68508403225891</v>
       </c>
     </row>
     <row r="6757" spans="1:2">
@@ -54407,7 +54407,7 @@
         <v>6758</v>
       </c>
       <c r="B6758">
-        <v>50.11895753459265</v>
+        <v>50.11895753459264</v>
       </c>
     </row>
     <row r="6759" spans="1:2">
@@ -54415,7 +54415,7 @@
         <v>6759</v>
       </c>
       <c r="B6759">
-        <v>54.91623736644021</v>
+        <v>54.9162373664402</v>
       </c>
     </row>
     <row r="6760" spans="1:2">
@@ -54487,7 +54487,7 @@
         <v>6768</v>
       </c>
       <c r="B6768">
-        <v>22.0484376089858</v>
+        <v>22.04843760898579</v>
       </c>
     </row>
     <row r="6769" spans="1:2">
@@ -54599,7 +54599,7 @@
         <v>6782</v>
       </c>
       <c r="B6782">
-        <v>15.99256420160709</v>
+        <v>15.99256420160708</v>
       </c>
     </row>
     <row r="6783" spans="1:2">
@@ -54695,7 +54695,7 @@
         <v>6794</v>
       </c>
       <c r="B6794">
-        <v>3.997664809963947</v>
+        <v>3.997664809963946</v>
       </c>
     </row>
     <row r="6795" spans="1:2">
@@ -54735,7 +54735,7 @@
         <v>6799</v>
       </c>
       <c r="B6799">
-        <v>0.8265248046534992</v>
+        <v>0.8265248046534991</v>
       </c>
     </row>
     <row r="6800" spans="1:2">
@@ -54775,7 +54775,7 @@
         <v>6804</v>
       </c>
       <c r="B6804">
-        <v>9.338210426178044</v>
+        <v>9.338210426178042</v>
       </c>
     </row>
     <row r="6805" spans="1:2">
@@ -54871,7 +54871,7 @@
         <v>6816</v>
       </c>
       <c r="B6816">
-        <v>4.8612865466912</v>
+        <v>4.861286546691199</v>
       </c>
     </row>
     <row r="6817" spans="1:2">
@@ -54903,7 +54903,7 @@
         <v>6820</v>
       </c>
       <c r="B6820">
-        <v>0.886627813262168</v>
+        <v>0.8866278132621679</v>
       </c>
     </row>
     <row r="6821" spans="1:2">
@@ -54927,7 +54927,7 @@
         <v>6823</v>
       </c>
       <c r="B6823">
-        <v>0.604623137020675</v>
+        <v>0.6046231370206749</v>
       </c>
     </row>
     <row r="6824" spans="1:2">
@@ -55279,7 +55279,7 @@
         <v>6867</v>
       </c>
       <c r="B6867">
-        <v>0.8402669056563298</v>
+        <v>0.8402669056563297</v>
       </c>
     </row>
     <row r="6868" spans="1:2">
@@ -55287,7 +55287,7 @@
         <v>6868</v>
       </c>
       <c r="B6868">
-        <v>0.6100009905801107</v>
+        <v>0.6100009905801106</v>
       </c>
     </row>
     <row r="6869" spans="1:2">
@@ -55319,7 +55319,7 @@
         <v>6872</v>
       </c>
       <c r="B6872">
-        <v>0.4686323136610376</v>
+        <v>0.4686323136610375</v>
       </c>
     </row>
     <row r="6873" spans="1:2">
@@ -55343,7 +55343,7 @@
         <v>6875</v>
       </c>
       <c r="B6875">
-        <v>1.074870272104737</v>
+        <v>1.074870272104736</v>
       </c>
     </row>
     <row r="6876" spans="1:2">
@@ -55399,7 +55399,7 @@
         <v>6882</v>
       </c>
       <c r="B6882">
-        <v>29.08999684069421</v>
+        <v>29.0899968406942</v>
       </c>
     </row>
     <row r="6883" spans="1:2">
@@ -55431,7 +55431,7 @@
         <v>6886</v>
       </c>
       <c r="B6886">
-        <v>7.53362550562081</v>
+        <v>7.533625505620809</v>
       </c>
     </row>
     <row r="6887" spans="1:2">
@@ -55471,7 +55471,7 @@
         <v>6891</v>
       </c>
       <c r="B6891">
-        <v>0.5860922552461182</v>
+        <v>0.5860922552461181</v>
       </c>
     </row>
     <row r="6892" spans="1:2">
@@ -55503,7 +55503,7 @@
         <v>6895</v>
       </c>
       <c r="B6895">
-        <v>0.4469978095870571</v>
+        <v>0.446997809587057</v>
       </c>
     </row>
     <row r="6896" spans="1:2">
@@ -55511,7 +55511,7 @@
         <v>6896</v>
       </c>
       <c r="B6896">
-        <v>0.327729619693436</v>
+        <v>0.3277296196934359</v>
       </c>
     </row>
     <row r="6897" spans="1:2">
@@ -55543,7 +55543,7 @@
         <v>6900</v>
       </c>
       <c r="B6900">
-        <v>6.288806268906746</v>
+        <v>6.288806268906745</v>
       </c>
     </row>
     <row r="6901" spans="1:2">
@@ -55791,7 +55791,7 @@
         <v>6931</v>
       </c>
       <c r="B6931">
-        <v>52.83455377882867</v>
+        <v>52.83455377882866</v>
       </c>
     </row>
     <row r="6932" spans="1:2">
@@ -55839,7 +55839,7 @@
         <v>6937</v>
       </c>
       <c r="B6937">
-        <v>5.625058980546531</v>
+        <v>5.62505898054653</v>
       </c>
     </row>
     <row r="6938" spans="1:2">
@@ -55895,7 +55895,7 @@
         <v>6944</v>
       </c>
       <c r="B6944">
-        <v>0.4730371713721176</v>
+        <v>0.4730371713721175</v>
       </c>
     </row>
     <row r="6945" spans="1:2">
@@ -55943,7 +55943,7 @@
         <v>6950</v>
       </c>
       <c r="B6950">
-        <v>10.90997971362271</v>
+        <v>10.9099797136227</v>
       </c>
     </row>
     <row r="6951" spans="1:2">
@@ -55959,7 +55959,7 @@
         <v>6952</v>
       </c>
       <c r="B6952">
-        <v>29.37656170229727</v>
+        <v>29.37656170229726</v>
       </c>
     </row>
     <row r="6953" spans="1:2">
@@ -55983,7 +55983,7 @@
         <v>6955</v>
       </c>
       <c r="B6955">
-        <v>53.28793467563777</v>
+        <v>53.28793467563776</v>
       </c>
     </row>
     <row r="6956" spans="1:2">
@@ -56151,7 +56151,7 @@
         <v>6976</v>
       </c>
       <c r="B6976">
-        <v>43.42873186403146</v>
+        <v>43.42873186403145</v>
       </c>
     </row>
     <row r="6977" spans="1:2">
@@ -56191,7 +56191,7 @@
         <v>6981</v>
       </c>
       <c r="B6981">
-        <v>50.69484212556219</v>
+        <v>50.69484212556218</v>
       </c>
     </row>
     <row r="6982" spans="1:2">
@@ -56215,7 +56215,7 @@
         <v>6984</v>
       </c>
       <c r="B6984">
-        <v>25.70282831136571</v>
+        <v>25.7028283113657</v>
       </c>
     </row>
     <row r="6985" spans="1:2">
@@ -56231,7 +56231,7 @@
         <v>6986</v>
       </c>
       <c r="B6986">
-        <v>14.62565157018671</v>
+        <v>14.6256515701867</v>
       </c>
     </row>
     <row r="6987" spans="1:2">
@@ -56247,7 +56247,7 @@
         <v>6988</v>
       </c>
       <c r="B6988">
-        <v>8.652189738879567</v>
+        <v>8.652189738879565</v>
       </c>
     </row>
     <row r="6989" spans="1:2">
@@ -56343,7 +56343,7 @@
         <v>7000</v>
       </c>
       <c r="B7000">
-        <v>53.02299845668792</v>
+        <v>53.02299845668791</v>
       </c>
     </row>
     <row r="7001" spans="1:2">
@@ -56399,7 +56399,7 @@
         <v>7007</v>
       </c>
       <c r="B7007">
-        <v>42.56505151309647</v>
+        <v>42.56505151309646</v>
       </c>
     </row>
     <row r="7008" spans="1:2">
@@ -56407,7 +56407,7 @@
         <v>7008</v>
       </c>
       <c r="B7008">
-        <v>34.23157652876112</v>
+        <v>34.23157652876111</v>
       </c>
     </row>
     <row r="7009" spans="1:2">
@@ -56415,7 +56415,7 @@
         <v>7009</v>
       </c>
       <c r="B7009">
-        <v>28.30869875872693</v>
+        <v>28.30869875872692</v>
       </c>
     </row>
     <row r="7010" spans="1:2">
@@ -56447,7 +56447,7 @@
         <v>7013</v>
       </c>
       <c r="B7013">
-        <v>11.13857512377856</v>
+        <v>11.13857512377855</v>
       </c>
     </row>
     <row r="7014" spans="1:2">
@@ -56463,7 +56463,7 @@
         <v>7015</v>
       </c>
       <c r="B7015">
-        <v>1.558305603928559</v>
+        <v>1.558305603928558</v>
       </c>
     </row>
     <row r="7016" spans="1:2">
@@ -56503,7 +56503,7 @@
         <v>7020</v>
       </c>
       <c r="B7020">
-        <v>27.34607762513987</v>
+        <v>27.34607762513986</v>
       </c>
     </row>
     <row r="7021" spans="1:2">
@@ -56551,7 +56551,7 @@
         <v>7026</v>
       </c>
       <c r="B7026">
-        <v>96.90247357818052</v>
+        <v>96.9024735781805</v>
       </c>
     </row>
     <row r="7027" spans="1:2">
@@ -56575,7 +56575,7 @@
         <v>7029</v>
       </c>
       <c r="B7029">
-        <v>59.01014670550054</v>
+        <v>59.01014670550053</v>
       </c>
     </row>
     <row r="7030" spans="1:2">
@@ -56711,7 +56711,7 @@
         <v>7046</v>
       </c>
       <c r="B7046">
-        <v>38.68479096122026</v>
+        <v>38.68479096122025</v>
       </c>
     </row>
     <row r="7047" spans="1:2">
@@ -56935,7 +56935,7 @@
         <v>7074</v>
       </c>
       <c r="B7074">
-        <v>89.39956191741142</v>
+        <v>89.3995619174114</v>
       </c>
     </row>
     <row r="7075" spans="1:2">
@@ -56991,7 +56991,7 @@
         <v>7081</v>
       </c>
       <c r="B7081">
-        <v>29.11502510739589</v>
+        <v>29.11502510739588</v>
       </c>
     </row>
     <row r="7082" spans="1:2">
@@ -57023,7 +57023,7 @@
         <v>7085</v>
       </c>
       <c r="B7085">
-        <v>14.36150664304124</v>
+        <v>14.36150664304123</v>
       </c>
     </row>
     <row r="7086" spans="1:2">
@@ -57135,7 +57135,7 @@
         <v>7099</v>
       </c>
       <c r="B7099">
-        <v>85.45658416326168</v>
+        <v>85.45658416326167</v>
       </c>
     </row>
     <row r="7100" spans="1:2">
@@ -57159,7 +57159,7 @@
         <v>7102</v>
       </c>
       <c r="B7102">
-        <v>61.41274308044625</v>
+        <v>61.41274308044624</v>
       </c>
     </row>
     <row r="7103" spans="1:2">
@@ -57287,7 +57287,7 @@
         <v>7118</v>
       </c>
       <c r="B7118">
-        <v>56.4827020680851</v>
+        <v>56.48270206808509</v>
       </c>
     </row>
     <row r="7119" spans="1:2">
@@ -57327,7 +57327,7 @@
         <v>7123</v>
       </c>
       <c r="B7123">
-        <v>95.06315973954192</v>
+        <v>95.0631597395419</v>
       </c>
     </row>
     <row r="7124" spans="1:2">
@@ -57359,7 +57359,7 @@
         <v>7127</v>
       </c>
       <c r="B7127">
-        <v>50.40909786286738</v>
+        <v>50.40909786286737</v>
       </c>
     </row>
     <row r="7128" spans="1:2">
@@ -57487,7 +57487,7 @@
         <v>7143</v>
       </c>
       <c r="B7143">
-        <v>49.97359429941662</v>
+        <v>49.97359429941661</v>
       </c>
     </row>
     <row r="7144" spans="1:2">
@@ -57591,7 +57591,7 @@
         <v>7156</v>
       </c>
       <c r="B7156">
-        <v>2.456442316878958</v>
+        <v>2.456442316878957</v>
       </c>
     </row>
     <row r="7157" spans="1:2">
@@ -57623,7 +57623,7 @@
         <v>7160</v>
       </c>
       <c r="B7160">
-        <v>0.5016614197181712</v>
+        <v>0.5016614197181711</v>
       </c>
     </row>
     <row r="7161" spans="1:2">
@@ -57647,7 +57647,7 @@
         <v>7163</v>
       </c>
       <c r="B7163">
-        <v>4.787256802325343</v>
+        <v>4.787256802325342</v>
       </c>
     </row>
     <row r="7164" spans="1:2">
@@ -57655,7 +57655,7 @@
         <v>7164</v>
       </c>
       <c r="B7164">
-        <v>4.450899171253718</v>
+        <v>4.450899171253717</v>
       </c>
     </row>
     <row r="7165" spans="1:2">
@@ -57951,7 +57951,7 @@
         <v>7201</v>
       </c>
       <c r="B7201">
-        <v>6.190129250189471</v>
+        <v>6.19012925018947</v>
       </c>
     </row>
     <row r="7202" spans="1:2">
@@ -58151,7 +58151,7 @@
         <v>7226</v>
       </c>
       <c r="B7226">
-        <v>2.972824694869089</v>
+        <v>2.972824694869088</v>
       </c>
     </row>
     <row r="7227" spans="1:2">
@@ -58175,7 +58175,7 @@
         <v>7229</v>
       </c>
       <c r="B7229">
-        <v>1.284512778190357</v>
+        <v>1.284512778190356</v>
       </c>
     </row>
     <row r="7230" spans="1:2">
@@ -58223,7 +58223,7 @@
         <v>7235</v>
       </c>
       <c r="B7235">
-        <v>4.955303735893759</v>
+        <v>4.955303735893758</v>
       </c>
     </row>
     <row r="7236" spans="1:2">
@@ -58231,7 +58231,7 @@
         <v>7236</v>
       </c>
       <c r="B7236">
-        <v>5.740675505298432</v>
+        <v>5.740675505298431</v>
       </c>
     </row>
     <row r="7237" spans="1:2">
@@ -58247,7 +58247,7 @@
         <v>7238</v>
       </c>
       <c r="B7238">
-        <v>9.371327453546776</v>
+        <v>9.371327453546774</v>
       </c>
     </row>
     <row r="7239" spans="1:2">
@@ -58431,7 +58431,7 @@
         <v>7261</v>
       </c>
       <c r="B7261">
-        <v>4.718121344305132</v>
+        <v>4.718121344305131</v>
       </c>
     </row>
     <row r="7262" spans="1:2">
@@ -58447,7 +58447,7 @@
         <v>7263</v>
       </c>
       <c r="B7263">
-        <v>7.441601199481148</v>
+        <v>7.441601199481147</v>
       </c>
     </row>
     <row r="7264" spans="1:2">
@@ -58487,7 +58487,7 @@
         <v>7268</v>
       </c>
       <c r="B7268">
-        <v>16.34131873761409</v>
+        <v>16.34131873761408</v>
       </c>
     </row>
     <row r="7269" spans="1:2">
@@ -58535,7 +58535,7 @@
         <v>7274</v>
       </c>
       <c r="B7274">
-        <v>0.6862580748397928</v>
+        <v>0.6862580748397927</v>
       </c>
     </row>
     <row r="7275" spans="1:2">
@@ -58559,7 +58559,7 @@
         <v>7277</v>
       </c>
       <c r="B7277">
-        <v>0.5646892772926801</v>
+        <v>0.56468927729268</v>
       </c>
     </row>
     <row r="7278" spans="1:2">
@@ -58655,7 +58655,7 @@
         <v>7289</v>
       </c>
       <c r="B7289">
-        <v>8.998101485811553</v>
+        <v>8.998101485811551</v>
       </c>
     </row>
     <row r="7290" spans="1:2">
@@ -58687,7 +58687,7 @@
         <v>7293</v>
       </c>
       <c r="B7293">
-        <v>18.79197876290026</v>
+        <v>18.79197876290025</v>
       </c>
     </row>
     <row r="7294" spans="1:2">
@@ -58703,7 +58703,7 @@
         <v>7295</v>
       </c>
       <c r="B7295">
-        <v>6.930104315705502</v>
+        <v>6.930104315705501</v>
       </c>
     </row>
     <row r="7296" spans="1:2">
@@ -58775,7 +58775,7 @@
         <v>7304</v>
       </c>
       <c r="B7304">
-        <v>0.4429622213846904</v>
+        <v>0.4429622213846903</v>
       </c>
     </row>
     <row r="7305" spans="1:2">
@@ -58839,7 +58839,7 @@
         <v>7312</v>
       </c>
       <c r="B7312">
-        <v>6.761764311098425</v>
+        <v>6.761764311098424</v>
       </c>
     </row>
     <row r="7313" spans="1:2">
@@ -58887,7 +58887,7 @@
         <v>7318</v>
       </c>
       <c r="B7318">
-        <v>7.609267140699304</v>
+        <v>7.609267140699303</v>
       </c>
     </row>
     <row r="7319" spans="1:2">
@@ -58951,7 +58951,7 @@
         <v>7326</v>
       </c>
       <c r="B7326">
-        <v>0.4628353685163162</v>
+        <v>0.4628353685163161</v>
       </c>
     </row>
     <row r="7327" spans="1:2">
@@ -58967,7 +58967,7 @@
         <v>7328</v>
       </c>
       <c r="B7328">
-        <v>0.2048686719368655</v>
+        <v>0.2048686719368654</v>
       </c>
     </row>
     <row r="7329" spans="1:2">
@@ -59023,7 +59023,7 @@
         <v>7335</v>
       </c>
       <c r="B7335">
-        <v>6.286813385843849</v>
+        <v>6.286813385843848</v>
       </c>
     </row>
     <row r="7336" spans="1:2">
@@ -59079,7 +59079,7 @@
         <v>7342</v>
       </c>
       <c r="B7342">
-        <v>6.883271563727419</v>
+        <v>6.883271563727418</v>
       </c>
     </row>
     <row r="7343" spans="1:2">
@@ -59135,7 +59135,7 @@
         <v>7349</v>
       </c>
       <c r="B7349">
-        <v>0.4117999778438295</v>
+        <v>0.4117999778438294</v>
       </c>
     </row>
     <row r="7350" spans="1:2">
@@ -59159,7 +59159,7 @@
         <v>7352</v>
       </c>
       <c r="B7352">
-        <v>0.1364119664421938</v>
+        <v>0.1364119664421937</v>
       </c>
     </row>
     <row r="7353" spans="1:2">
@@ -59199,7 +59199,7 @@
         <v>7357</v>
       </c>
       <c r="B7357">
-        <v>4.482169851078883</v>
+        <v>4.482169851078882</v>
       </c>
     </row>
     <row r="7358" spans="1:2">
@@ -59231,7 +59231,7 @@
         <v>7361</v>
       </c>
       <c r="B7361">
-        <v>4.603442646876948</v>
+        <v>4.603442646876947</v>
       </c>
     </row>
     <row r="7362" spans="1:2">
@@ -59271,7 +59271,7 @@
         <v>7366</v>
       </c>
       <c r="B7366">
-        <v>9.464963650399076</v>
+        <v>9.464963650399074</v>
       </c>
     </row>
     <row r="7367" spans="1:2">
@@ -59351,7 +59351,7 @@
         <v>7376</v>
       </c>
       <c r="B7376">
-        <v>0.6783422260855498</v>
+        <v>0.6783422260855497</v>
       </c>
     </row>
     <row r="7377" spans="1:2">
@@ -59359,7 +59359,7 @@
         <v>7377</v>
       </c>
       <c r="B7377">
-        <v>0.5718079728217642</v>
+        <v>0.5718079728217641</v>
       </c>
     </row>
     <row r="7378" spans="1:2">
@@ -59383,7 +59383,7 @@
         <v>7380</v>
       </c>
       <c r="B7380">
-        <v>3.855115056759069</v>
+        <v>3.855115056759068</v>
       </c>
     </row>
     <row r="7381" spans="1:2">
@@ -59415,7 +59415,7 @@
         <v>7384</v>
       </c>
       <c r="B7384">
-        <v>4.053846528075327</v>
+        <v>4.053846528075326</v>
       </c>
     </row>
     <row r="7385" spans="1:2">
@@ -59511,7 +59511,7 @@
         <v>7396</v>
       </c>
       <c r="B7396">
-        <v>0.5500826167257987</v>
+        <v>0.5500826167257986</v>
       </c>
     </row>
     <row r="7397" spans="1:2">
@@ -59527,7 +59527,7 @@
         <v>7398</v>
       </c>
       <c r="B7398">
-        <v>0.5029831701025339</v>
+        <v>0.5029831701025338</v>
       </c>
     </row>
     <row r="7399" spans="1:2">
@@ -59535,7 +59535,7 @@
         <v>7399</v>
       </c>
       <c r="B7399">
-        <v>0.4849270634106084</v>
+        <v>0.4849270634106083</v>
       </c>
     </row>
     <row r="7400" spans="1:2">
@@ -59567,7 +59567,7 @@
         <v>7403</v>
       </c>
       <c r="B7403">
-        <v>2.184607205679014</v>
+        <v>2.184607205679013</v>
       </c>
     </row>
     <row r="7404" spans="1:2">
@@ -59575,7 +59575,7 @@
         <v>7404</v>
       </c>
       <c r="B7404">
-        <v>4.303836124053454</v>
+        <v>4.303836124053453</v>
       </c>
     </row>
     <row r="7405" spans="1:2">
@@ -59615,7 +59615,7 @@
         <v>7409</v>
       </c>
       <c r="B7409">
-        <v>9.933086020452842</v>
+        <v>9.933086020452841</v>
       </c>
     </row>
     <row r="7410" spans="1:2">
@@ -59623,7 +59623,7 @@
         <v>7410</v>
       </c>
       <c r="B7410">
-        <v>4.104078904101882</v>
+        <v>4.104078904101881</v>
       </c>
     </row>
     <row r="7411" spans="1:2">
@@ -59647,7 +59647,7 @@
         <v>7413</v>
       </c>
       <c r="B7413">
-        <v>27.750632886908</v>
+        <v>27.75063288690799</v>
       </c>
     </row>
     <row r="7414" spans="1:2">
@@ -59767,7 +59767,7 @@
         <v>7428</v>
       </c>
       <c r="B7428">
-        <v>6.719708617050522</v>
+        <v>6.719708617050521</v>
       </c>
     </row>
     <row r="7429" spans="1:2">
@@ -59815,7 +59815,7 @@
         <v>7434</v>
       </c>
       <c r="B7434">
-        <v>7.741354257823971</v>
+        <v>7.74135425782397</v>
       </c>
     </row>
     <row r="7435" spans="1:2">
@@ -59831,7 +59831,7 @@
         <v>7436</v>
       </c>
       <c r="B7436">
-        <v>51.53536986444293</v>
+        <v>51.53536986444292</v>
       </c>
     </row>
     <row r="7437" spans="1:2">
@@ -59839,7 +59839,7 @@
         <v>7437</v>
       </c>
       <c r="B7437">
-        <v>43.00319271589518</v>
+        <v>43.00319271589517</v>
       </c>
     </row>
     <row r="7438" spans="1:2">
@@ -59967,7 +59967,7 @@
         <v>7453</v>
       </c>
       <c r="B7453">
-        <v>7.718611945223851</v>
+        <v>7.71861194522385</v>
       </c>
     </row>
     <row r="7454" spans="1:2">
@@ -60007,7 +60007,7 @@
         <v>7458</v>
       </c>
       <c r="B7458">
-        <v>7.833466485275233</v>
+        <v>7.833466485275232</v>
       </c>
     </row>
     <row r="7459" spans="1:2">
@@ -60111,7 +60111,7 @@
         <v>7471</v>
       </c>
       <c r="B7471">
-        <v>0.821196773170636</v>
+        <v>0.8211967731706359</v>
       </c>
     </row>
     <row r="7472" spans="1:2">
@@ -60207,7 +60207,7 @@
         <v>7483</v>
       </c>
       <c r="B7483">
-        <v>7.442158034454605</v>
+        <v>7.442158034454604</v>
       </c>
     </row>
     <row r="7484" spans="1:2">
@@ -60407,7 +60407,7 @@
         <v>7508</v>
       </c>
       <c r="B7508">
-        <v>0.5161361983176551</v>
+        <v>0.516136198317655</v>
       </c>
     </row>
     <row r="7509" spans="1:2">
@@ -60423,7 +60423,7 @@
         <v>7510</v>
       </c>
       <c r="B7510">
-        <v>0.6966152053460847</v>
+        <v>0.6966152053460846</v>
       </c>
     </row>
     <row r="7511" spans="1:2">
@@ -60479,7 +60479,7 @@
         <v>7517</v>
       </c>
       <c r="B7517">
-        <v>0.2678660501233536</v>
+        <v>0.2678660501233535</v>
       </c>
     </row>
     <row r="7518" spans="1:2">
@@ -60543,7 +60543,7 @@
         <v>7525</v>
       </c>
       <c r="B7525">
-        <v>0.9637025657197152</v>
+        <v>0.963702565719715</v>
       </c>
     </row>
     <row r="7526" spans="1:2">
@@ -60599,7 +60599,7 @@
         <v>7532</v>
       </c>
       <c r="B7532">
-        <v>0.5185686879385443</v>
+        <v>0.5185686879385442</v>
       </c>
     </row>
     <row r="7533" spans="1:2">
@@ -60623,7 +60623,7 @@
         <v>7535</v>
       </c>
       <c r="B7535">
-        <v>0.58103677982921</v>
+        <v>0.5810367798292099</v>
       </c>
     </row>
     <row r="7536" spans="1:2">
@@ -60775,7 +60775,7 @@
         <v>7554</v>
       </c>
       <c r="B7554">
-        <v>0.8431096947313448</v>
+        <v>0.8431096947313447</v>
       </c>
     </row>
     <row r="7555" spans="1:2">
@@ -60783,7 +60783,7 @@
         <v>7555</v>
       </c>
       <c r="B7555">
-        <v>3.292418662529286</v>
+        <v>3.292418662529285</v>
       </c>
     </row>
     <row r="7556" spans="1:2">
@@ -60967,7 +60967,7 @@
         <v>7578</v>
       </c>
       <c r="B7578">
-        <v>1.001350471346152</v>
+        <v>1.001350471346151</v>
       </c>
     </row>
     <row r="7579" spans="1:2">
@@ -60983,7 +60983,7 @@
         <v>7580</v>
       </c>
       <c r="B7580">
-        <v>4.300934720770707</v>
+        <v>4.300934720770706</v>
       </c>
     </row>
     <row r="7581" spans="1:2">
@@ -61199,7 +61199,7 @@
         <v>7607</v>
       </c>
       <c r="B7607">
-        <v>0.777306454420713</v>
+        <v>0.7773064544207129</v>
       </c>
     </row>
     <row r="7608" spans="1:2">
@@ -61215,7 +61215,7 @@
         <v>7609</v>
       </c>
       <c r="B7609">
-        <v>0.4291673675949009</v>
+        <v>0.4291673675949008</v>
       </c>
     </row>
     <row r="7610" spans="1:2">
@@ -61223,7 +61223,7 @@
         <v>7610</v>
       </c>
       <c r="B7610">
-        <v>0.3776132411839836</v>
+        <v>0.3776132411839835</v>
       </c>
     </row>
     <row r="7611" spans="1:2">
@@ -61231,7 +61231,7 @@
         <v>7611</v>
       </c>
       <c r="B7611">
-        <v>0.3006996777977001</v>
+        <v>0.3006996777977</v>
       </c>
     </row>
     <row r="7612" spans="1:2">
@@ -61263,7 +61263,7 @@
         <v>7615</v>
       </c>
       <c r="B7615">
-        <v>0.2344404189509112</v>
+        <v>0.2344404189509111</v>
       </c>
     </row>
     <row r="7616" spans="1:2">
@@ -61271,7 +61271,7 @@
         <v>7616</v>
       </c>
       <c r="B7616">
-        <v>0.1797357788743845</v>
+        <v>0.1797357788743844</v>
       </c>
     </row>
     <row r="7617" spans="1:2">
@@ -61359,7 +61359,7 @@
         <v>7627</v>
       </c>
       <c r="B7627">
-        <v>0.2810744687647818</v>
+        <v>0.2810744687647817</v>
       </c>
     </row>
     <row r="7628" spans="1:2">
@@ -61511,7 +61511,7 @@
         <v>7646</v>
       </c>
       <c r="B7646">
-        <v>2.285754813252204</v>
+        <v>2.285754813252203</v>
       </c>
     </row>
     <row r="7647" spans="1:2">
@@ -61519,7 +61519,7 @@
         <v>7647</v>
       </c>
       <c r="B7647">
-        <v>2.46606383907821</v>
+        <v>2.466063839078209</v>
       </c>
     </row>
     <row r="7648" spans="1:2">
@@ -61567,7 +61567,7 @@
         <v>7653</v>
       </c>
       <c r="B7653">
-        <v>3.791166956123163</v>
+        <v>3.791166956123162</v>
       </c>
     </row>
     <row r="7654" spans="1:2">
@@ -61591,7 +61591,7 @@
         <v>7656</v>
       </c>
       <c r="B7656">
-        <v>0.7247529557679605</v>
+        <v>0.7247529557679604</v>
       </c>
     </row>
     <row r="7657" spans="1:2">
@@ -61631,7 +61631,7 @@
         <v>7661</v>
       </c>
       <c r="B7661">
-        <v>0.384031496930667</v>
+        <v>0.3840314969306669</v>
       </c>
     </row>
     <row r="7662" spans="1:2">
@@ -61655,7 +61655,7 @@
         <v>7664</v>
       </c>
       <c r="B7664">
-        <v>0.3189286964024358</v>
+        <v>0.3189286964024357</v>
       </c>
     </row>
     <row r="7665" spans="1:2">
@@ -61719,7 +61719,7 @@
         <v>7672</v>
       </c>
       <c r="B7672">
-        <v>0.4518920959327016</v>
+        <v>0.4518920959327015</v>
       </c>
     </row>
     <row r="7673" spans="1:2">
@@ -61727,7 +61727,7 @@
         <v>7673</v>
       </c>
       <c r="B7673">
-        <v>0.4308789024606831</v>
+        <v>0.430878902460683</v>
       </c>
     </row>
     <row r="7674" spans="1:2">
@@ -61887,7 +61887,7 @@
         <v>7693</v>
       </c>
       <c r="B7693">
-        <v>3.186561403364808</v>
+        <v>3.186561403364807</v>
       </c>
     </row>
     <row r="7694" spans="1:2">
@@ -61911,7 +61911,7 @@
         <v>7696</v>
       </c>
       <c r="B7696">
-        <v>2.482423064456286</v>
+        <v>2.482423064456285</v>
       </c>
     </row>
     <row r="7697" spans="1:2">
@@ -61927,7 +61927,7 @@
         <v>7698</v>
       </c>
       <c r="B7698">
-        <v>0.8301471626913535</v>
+        <v>0.8301471626913534</v>
       </c>
     </row>
     <row r="7699" spans="1:2">
@@ -61975,7 +61975,7 @@
         <v>7704</v>
       </c>
       <c r="B7704">
-        <v>0.6962517972581447</v>
+        <v>0.6962517972581446</v>
       </c>
     </row>
     <row r="7705" spans="1:2">
@@ -61991,7 +61991,7 @@
         <v>7706</v>
       </c>
       <c r="B7706">
-        <v>0.527009133851991</v>
+        <v>0.5270091338519909</v>
       </c>
     </row>
     <row r="7707" spans="1:2">
@@ -62095,7 +62095,7 @@
         <v>7719</v>
       </c>
       <c r="B7719">
-        <v>5.31709993312119</v>
+        <v>5.317099933121189</v>
       </c>
     </row>
     <row r="7720" spans="1:2">
@@ -62311,7 +62311,7 @@
         <v>7746</v>
       </c>
       <c r="B7746">
-        <v>0.975826914589135</v>
+        <v>0.9758269145891348</v>
       </c>
     </row>
     <row r="7747" spans="1:2">
@@ -62327,7 +62327,7 @@
         <v>7748</v>
       </c>
       <c r="B7748">
-        <v>9.718939012502998</v>
+        <v>9.718939012502997</v>
       </c>
     </row>
     <row r="7749" spans="1:2">
@@ -62383,7 +62383,7 @@
         <v>7755</v>
       </c>
       <c r="B7755">
-        <v>0.8600667850282903</v>
+        <v>0.8600667850282901</v>
       </c>
     </row>
     <row r="7756" spans="1:2">
@@ -62391,7 +62391,7 @@
         <v>7756</v>
       </c>
       <c r="B7756">
-        <v>0.8226797126262624</v>
+        <v>0.8226797126262623</v>
       </c>
     </row>
     <row r="7757" spans="1:2">
@@ -62431,7 +62431,7 @@
         <v>7761</v>
       </c>
       <c r="B7761">
-        <v>0.4442751796378932</v>
+        <v>0.4442751796378931</v>
       </c>
     </row>
     <row r="7762" spans="1:2">
@@ -62575,7 +62575,7 @@
         <v>7779</v>
       </c>
       <c r="B7779">
-        <v>0.6612122238757943</v>
+        <v>0.6612122238757941</v>
       </c>
     </row>
     <row r="7780" spans="1:2">
@@ -62687,7 +62687,7 @@
         <v>7793</v>
       </c>
       <c r="B7793">
-        <v>1.836731882787997</v>
+        <v>1.836731882787996</v>
       </c>
     </row>
     <row r="7794" spans="1:2">
@@ -62767,7 +62767,7 @@
         <v>7803</v>
       </c>
       <c r="B7803">
-        <v>0.6069032297014604</v>
+        <v>0.6069032297014603</v>
       </c>
     </row>
     <row r="7804" spans="1:2">
@@ -62823,7 +62823,7 @@
         <v>7810</v>
       </c>
       <c r="B7810">
-        <v>0.8764846246140988</v>
+        <v>0.8764846246140987</v>
       </c>
     </row>
     <row r="7811" spans="1:2">
@@ -62839,7 +62839,7 @@
         <v>7812</v>
       </c>
       <c r="B7812">
-        <v>4.563995285073131</v>
+        <v>4.56399528507313</v>
       </c>
     </row>
     <row r="7813" spans="1:2">
@@ -63551,7 +63551,7 @@
         <v>7901</v>
       </c>
       <c r="B7901">
-        <v>0.6698138588605047</v>
+        <v>0.6698138588605046</v>
       </c>
     </row>
     <row r="7902" spans="1:2">
@@ -63559,7 +63559,7 @@
         <v>7902</v>
       </c>
       <c r="B7902">
-        <v>0.6507114885605583</v>
+        <v>0.6507114885605582</v>
       </c>
     </row>
     <row r="7903" spans="1:2">
@@ -63671,7 +63671,7 @@
         <v>7916</v>
       </c>
       <c r="B7916">
-        <v>8.700546460258689</v>
+        <v>8.700546460258687</v>
       </c>
     </row>
     <row r="7917" spans="1:2">
@@ -63719,7 +63719,7 @@
         <v>7922</v>
       </c>
       <c r="B7922">
-        <v>0.7724238909166149</v>
+        <v>0.7724238909166148</v>
       </c>
     </row>
     <row r="7923" spans="1:2">
@@ -63887,7 +63887,7 @@
         <v>7943</v>
       </c>
       <c r="B7943">
-        <v>16.59848857403942</v>
+        <v>16.59848857403941</v>
       </c>
     </row>
     <row r="7944" spans="1:2">
@@ -63983,7 +63983,7 @@
         <v>7955</v>
       </c>
       <c r="B7955">
-        <v>5.581743081032385</v>
+        <v>5.581743081032384</v>
       </c>
     </row>
     <row r="7956" spans="1:2">
@@ -64007,7 +64007,7 @@
         <v>7958</v>
       </c>
       <c r="B7958">
-        <v>10.47075414798095</v>
+        <v>10.47075414798094</v>
       </c>
     </row>
     <row r="7959" spans="1:2">
@@ -64031,7 +64031,7 @@
         <v>7961</v>
       </c>
       <c r="B7961">
-        <v>10.43171708563126</v>
+        <v>10.43171708563125</v>
       </c>
     </row>
     <row r="7962" spans="1:2">
@@ -64183,7 +64183,7 @@
         <v>7980</v>
       </c>
       <c r="B7980">
-        <v>7.440546143741967</v>
+        <v>7.440546143741966</v>
       </c>
     </row>
     <row r="7981" spans="1:2">
@@ -64231,7 +64231,7 @@
         <v>7986</v>
       </c>
       <c r="B7986">
-        <v>6.577920848546163</v>
+        <v>6.577920848546162</v>
       </c>
     </row>
     <row r="7987" spans="1:2">
@@ -64287,7 +64287,7 @@
         <v>7993</v>
       </c>
       <c r="B7993">
-        <v>8.355396698027223</v>
+        <v>8.355396698027221</v>
       </c>
     </row>
     <row r="7994" spans="1:2">
@@ -64431,7 +64431,7 @@
         <v>8011</v>
       </c>
       <c r="B8011">
-        <v>8.206370074867928</v>
+        <v>8.206370074867927</v>
       </c>
     </row>
     <row r="8012" spans="1:2">
@@ -64447,7 +64447,7 @@
         <v>8013</v>
       </c>
       <c r="B8013">
-        <v>8.076949904195079</v>
+        <v>8.076949904195077</v>
       </c>
     </row>
     <row r="8014" spans="1:2">
@@ -64511,7 +64511,7 @@
         <v>8021</v>
       </c>
       <c r="B8021">
-        <v>0.4161550134783371</v>
+        <v>0.416155013478337</v>
       </c>
     </row>
     <row r="8022" spans="1:2">
@@ -64799,7 +64799,7 @@
         <v>8057</v>
       </c>
       <c r="B8057">
-        <v>0.6110794920023845</v>
+        <v>0.6110794920023844</v>
       </c>
     </row>
     <row r="8058" spans="1:2">
@@ -64815,7 +64815,7 @@
         <v>8059</v>
       </c>
       <c r="B8059">
-        <v>1.016317609290587</v>
+        <v>1.016317609290586</v>
       </c>
     </row>
     <row r="8060" spans="1:2">
@@ -64863,7 +64863,7 @@
         <v>8065</v>
       </c>
       <c r="B8065">
-        <v>0.4891326328153987</v>
+        <v>0.4891326328153986</v>
       </c>
     </row>
     <row r="8066" spans="1:2">
@@ -64975,7 +64975,7 @@
         <v>8079</v>
       </c>
       <c r="B8079">
-        <v>3.687156044502252</v>
+        <v>3.687156044502251</v>
       </c>
     </row>
     <row r="8080" spans="1:2">
@@ -65015,7 +65015,7 @@
         <v>8084</v>
       </c>
       <c r="B8084">
-        <v>3.671506051037736</v>
+        <v>3.671506051037735</v>
       </c>
     </row>
     <row r="8085" spans="1:2">
@@ -65047,7 +65047,7 @@
         <v>8088</v>
       </c>
       <c r="B8088">
-        <v>0.7987533930299502</v>
+        <v>0.7987533930299501</v>
       </c>
     </row>
     <row r="8089" spans="1:2">
@@ -65223,7 +65223,7 @@
         <v>8110</v>
       </c>
       <c r="B8110">
-        <v>3.713561745085639</v>
+        <v>3.713561745085638</v>
       </c>
     </row>
     <row r="8111" spans="1:2">
@@ -65335,7 +65335,7 @@
         <v>8124</v>
       </c>
       <c r="B8124">
-        <v>0.4275261697783973</v>
+        <v>0.4275261697783972</v>
       </c>
     </row>
     <row r="8125" spans="1:2">
@@ -65535,7 +65535,7 @@
         <v>8149</v>
       </c>
       <c r="B8149">
-        <v>1.392213454188015</v>
+        <v>1.392213454188014</v>
       </c>
     </row>
     <row r="8150" spans="1:2">
@@ -65807,7 +65807,7 @@
         <v>8183</v>
       </c>
       <c r="B8183">
-        <v>0.4556463359379534</v>
+        <v>0.4556463359379533</v>
       </c>
     </row>
     <row r="8184" spans="1:2">
@@ -65823,7 +65823,7 @@
         <v>8185</v>
       </c>
       <c r="B8185">
-        <v>0.262520141307132</v>
+        <v>0.2625201413071319</v>
       </c>
     </row>
     <row r="8186" spans="1:2">
@@ -66111,7 +66111,7 @@
         <v>8221</v>
       </c>
       <c r="B8221">
-        <v>0.8046118830927904</v>
+        <v>0.8046118830927903</v>
       </c>
     </row>
     <row r="8222" spans="1:2">
@@ -66255,7 +66255,7 @@
         <v>8239</v>
       </c>
       <c r="B8239">
-        <v>0.2182177646768511</v>
+        <v>0.218217764676851</v>
       </c>
     </row>
     <row r="8240" spans="1:2">
@@ -66399,7 +66399,7 @@
         <v>8257</v>
       </c>
       <c r="B8257">
-        <v>0.3618255043312969</v>
+        <v>0.3618255043312968</v>
       </c>
     </row>
     <row r="8258" spans="1:2">
@@ -66407,7 +66407,7 @@
         <v>8258</v>
       </c>
       <c r="B8258">
-        <v>0.3291598063621034</v>
+        <v>0.3291598063621033</v>
       </c>
     </row>
     <row r="8259" spans="1:2">
@@ -66415,7 +66415,7 @@
         <v>8259</v>
       </c>
       <c r="B8259">
-        <v>0.274930820581324</v>
+        <v>0.2749308205813239</v>
       </c>
     </row>
     <row r="8260" spans="1:2">
@@ -66431,7 +66431,7 @@
         <v>8261</v>
       </c>
       <c r="B8261">
-        <v>0.2435470153352352</v>
+        <v>0.2435470153352351</v>
       </c>
     </row>
     <row r="8262" spans="1:2">
@@ -66647,7 +66647,7 @@
         <v>8288</v>
       </c>
       <c r="B8288">
-        <v>0.183784555273491</v>
+        <v>0.1837845552734909</v>
       </c>
     </row>
     <row r="8289" spans="1:2">
@@ -66791,7 +66791,7 @@
         <v>8306</v>
       </c>
       <c r="B8306">
-        <v>0.2575165394640669</v>
+        <v>0.2575165394640668</v>
       </c>
     </row>
     <row r="8307" spans="1:2">
@@ -66991,7 +66991,7 @@
         <v>8331</v>
       </c>
       <c r="B8331">
-        <v>0.1668898891077804</v>
+        <v>0.1668898891077803</v>
       </c>
     </row>
     <row r="8332" spans="1:2">
@@ -67359,7 +67359,7 @@
         <v>8377</v>
       </c>
       <c r="B8377">
-        <v>0.3529366597286983</v>
+        <v>0.3529366597286982</v>
       </c>
     </row>
     <row r="8378" spans="1:2">
@@ -67471,7 +67471,7 @@
         <v>8391</v>
       </c>
       <c r="B8391">
-        <v>1.144304662584383</v>
+        <v>1.144304662584382</v>
       </c>
     </row>
     <row r="8392" spans="1:2">
@@ -67527,7 +67527,7 @@
         <v>8398</v>
       </c>
       <c r="B8398">
-        <v>0.6246223046989253</v>
+        <v>0.6246223046989252</v>
       </c>
     </row>
     <row r="8399" spans="1:2">
@@ -67551,7 +67551,7 @@
         <v>8401</v>
       </c>
       <c r="B8401">
-        <v>0.4706222660135481</v>
+        <v>0.470622266013548</v>
       </c>
     </row>
     <row r="8402" spans="1:2">
@@ -67711,7 +67711,7 @@
         <v>8421</v>
       </c>
       <c r="B8421">
-        <v>0.881630952052992</v>
+        <v>0.8816309520529919</v>
       </c>
     </row>
     <row r="8422" spans="1:2">
@@ -67727,7 +67727,7 @@
         <v>8423</v>
       </c>
       <c r="B8423">
-        <v>0.9157678666362656</v>
+        <v>0.9157678666362654</v>
       </c>
     </row>
     <row r="8424" spans="1:2">
@@ -67759,7 +67759,7 @@
         <v>8427</v>
       </c>
       <c r="B8427">
-        <v>0.4395889737296983</v>
+        <v>0.4395889737296982</v>
       </c>
     </row>
     <row r="8428" spans="1:2">
@@ -67927,7 +67927,7 @@
         <v>8448</v>
       </c>
       <c r="B8448">
-        <v>0.7776610703774931</v>
+        <v>0.777661070377493</v>
       </c>
     </row>
     <row r="8449" spans="1:2">
@@ -67983,7 +67983,7 @@
         <v>8455</v>
       </c>
       <c r="B8455">
-        <v>0.4320306716426222</v>
+        <v>0.4320306716426221</v>
       </c>
     </row>
     <row r="8456" spans="1:2">
@@ -68087,7 +68087,7 @@
         <v>8468</v>
       </c>
       <c r="B8468">
-        <v>0.6360667287586508</v>
+        <v>0.6360667287586507</v>
       </c>
     </row>
     <row r="8469" spans="1:2">
@@ -68543,7 +68543,7 @@
         <v>8525</v>
       </c>
       <c r="B8525">
-        <v>0.1681621104866093</v>
+        <v>0.1681621104866092</v>
       </c>
     </row>
     <row r="8526" spans="1:2">
@@ -69071,7 +69071,7 @@
         <v>8591</v>
       </c>
       <c r="B8591">
-        <v>0.4277870030028059</v>
+        <v>0.4277870030028058</v>
       </c>
     </row>
     <row r="8592" spans="1:2">
@@ -69079,7 +69079,7 @@
         <v>8592</v>
       </c>
       <c r="B8592">
-        <v>0.3085774273169171</v>
+        <v>0.308577427316917</v>
       </c>
     </row>
     <row r="8593" spans="1:2">
@@ -69143,7 +69143,7 @@
         <v>8600</v>
       </c>
       <c r="B8600">
-        <v>0.1628411127086739</v>
+        <v>0.1628411127086738</v>
       </c>
     </row>
     <row r="8601" spans="1:2">
@@ -69447,7 +69447,7 @@
         <v>8638</v>
       </c>
       <c r="B8638">
-        <v>0.6700131471667944</v>
+        <v>0.6700131471667943</v>
       </c>
     </row>
     <row r="8639" spans="1:2">
@@ -69463,7 +69463,7 @@
         <v>8640</v>
       </c>
       <c r="B8640">
-        <v>0.4572582266505908</v>
+        <v>0.4572582266505907</v>
       </c>
     </row>
     <row r="8641" spans="1:2">
@@ -69855,7 +69855,7 @@
         <v>8689</v>
       </c>
       <c r="B8689">
-        <v>0.59572256957653</v>
+        <v>0.5957225695765299</v>
       </c>
     </row>
     <row r="8690" spans="1:2">
@@ -69903,7 +69903,7 @@
         <v>8695</v>
       </c>
       <c r="B8695">
-        <v>0.3682730671818465</v>
+        <v>0.3682730671818464</v>
       </c>
     </row>
     <row r="8696" spans="1:2">
@@ -70007,7 +70007,7 @@
         <v>8708</v>
       </c>
       <c r="B8708">
-        <v>0.7274550707444181</v>
+        <v>0.727455070744418</v>
       </c>
     </row>
     <row r="8709" spans="1:2">
@@ -70015,7 +70015,7 @@
         <v>8709</v>
       </c>
       <c r="B8709">
-        <v>0.8798754565314106</v>
+        <v>0.8798754565314105</v>
       </c>
     </row>
     <row r="8710" spans="1:2">
@@ -70095,7 +70095,7 @@
         <v>8719</v>
       </c>
       <c r="B8719">
-        <v>0.4867997873476544</v>
+        <v>0.4867997873476543</v>
       </c>
     </row>
     <row r="8720" spans="1:2">
@@ -70151,7 +70151,7 @@
         <v>8726</v>
       </c>
       <c r="B8726">
-        <v>4.435249177789202</v>
+        <v>4.435249177789201</v>
       </c>
     </row>
     <row r="8727" spans="1:2">
@@ -70183,7 +70183,7 @@
         <v>8730</v>
       </c>
       <c r="B8730">
-        <v>1.384124693520962</v>
+        <v>1.384124693520961</v>
       </c>
     </row>
     <row r="8731" spans="1:2">
@@ -70279,7 +70279,7 @@
         <v>8742</v>
       </c>
       <c r="B8742">
-        <v>0.3632175917649383</v>
+        <v>0.3632175917649382</v>
       </c>
     </row>
     <row r="8743" spans="1:2">
@@ -70351,7 +70351,7 @@
         <v>8751</v>
       </c>
       <c r="B8751">
-        <v>0.0325804142969431</v>
+        <v>0.032580414296943</v>
       </c>
     </row>
     <row r="8752" spans="1:2">
@@ -70399,7 +70399,7 @@
         <v>8757</v>
       </c>
       <c r="B8757">
-        <v>0.9698951567666294</v>
+        <v>0.9698951567666292</v>
       </c>
     </row>
     <row r="8758" spans="1:2">
